--- a/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
+++ b/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="817">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -492,282 +492,6 @@
     <t>var_type</t>
   </si>
   <si>
-    <t>IO_waterPres_s0_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s0_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s0_2</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s1_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s2_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s3_2</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s1_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s1_2</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s2_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s2_2</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s3_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s3_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s4_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s4_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s4_2</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s5_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s5_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s5_2</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s6_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s6_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s6_2</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s7_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s7_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s7_2</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s8_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s8_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s8_2</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s9_0</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s9_1</t>
-  </si>
-  <si>
-    <t>IO_waterPres_s9_2</t>
-  </si>
-  <si>
-    <t>D28002</t>
-  </si>
-  <si>
-    <t>D28004</t>
-  </si>
-  <si>
-    <t>D28006</t>
-  </si>
-  <si>
-    <t>D28008</t>
-  </si>
-  <si>
-    <t>D28010</t>
-  </si>
-  <si>
-    <t>D28012</t>
-  </si>
-  <si>
-    <t>D28014</t>
-  </si>
-  <si>
-    <t>D28016</t>
-  </si>
-  <si>
-    <t>D28022</t>
-  </si>
-  <si>
-    <t>D28024</t>
-  </si>
-  <si>
-    <t>D28026</t>
-  </si>
-  <si>
-    <t>D28028</t>
-  </si>
-  <si>
-    <t>D28030</t>
-  </si>
-  <si>
-    <t>D28032</t>
-  </si>
-  <si>
-    <t>D28034</t>
-  </si>
-  <si>
-    <t>D28036</t>
-  </si>
-  <si>
-    <t>D28042</t>
-  </si>
-  <si>
-    <t>D28044</t>
-  </si>
-  <si>
-    <t>D28046</t>
-  </si>
-  <si>
-    <t>D28048</t>
-  </si>
-  <si>
-    <t>D28050</t>
-  </si>
-  <si>
-    <t>D28052</t>
-  </si>
-  <si>
-    <t>D28054</t>
-  </si>
-  <si>
-    <t>D28056</t>
-  </si>
-  <si>
-    <t>D28062</t>
-  </si>
-  <si>
-    <t>D28064</t>
-  </si>
-  <si>
-    <t>D28066</t>
-  </si>
-  <si>
-    <t>D28068</t>
-  </si>
-  <si>
-    <t>D28070</t>
-  </si>
-  <si>
-    <t>D28072</t>
-  </si>
-  <si>
-    <t>IO_flowmeter_0</t>
-  </si>
-  <si>
-    <t>IO_flowmeter_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s0_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s0_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s0_2</t>
-  </si>
-  <si>
-    <t>IO_propValve_s1_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s1_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s1_2</t>
-  </si>
-  <si>
-    <t>IO_propValve_s2_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s2_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s2_2</t>
-  </si>
-  <si>
-    <t>IO_propValve_s3_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s3_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s3_2</t>
-  </si>
-  <si>
-    <t>IO_propValve_s4_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s4_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s4_2</t>
-  </si>
-  <si>
-    <t>IO_propValve_s5_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s5_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s5_2</t>
-  </si>
-  <si>
-    <t>IO_propValve_s6_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s6_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s6_2</t>
-  </si>
-  <si>
-    <t>IO_propValve_s7_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s7_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s7_2</t>
-  </si>
-  <si>
-    <t>IO_propValve_s8_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s8_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s8_2</t>
-  </si>
-  <si>
-    <t>IO_propValve_s9_0</t>
-  </si>
-  <si>
-    <t>IO_propValve_s9_1</t>
-  </si>
-  <si>
-    <t>IO_propValve_s9_2</t>
-  </si>
-  <si>
     <t>D28102</t>
   </si>
   <si>
@@ -792,72 +516,6 @@
     <t>D28128</t>
   </si>
   <si>
-    <t>D28142</t>
-  </si>
-  <si>
-    <t>D28144</t>
-  </si>
-  <si>
-    <t>D28146</t>
-  </si>
-  <si>
-    <t>D28148</t>
-  </si>
-  <si>
-    <t>D28162</t>
-  </si>
-  <si>
-    <t>D28164</t>
-  </si>
-  <si>
-    <t>D28166</t>
-  </si>
-  <si>
-    <t>D28168</t>
-  </si>
-  <si>
-    <t>D28182</t>
-  </si>
-  <si>
-    <t>D28202</t>
-  </si>
-  <si>
-    <t>D28222</t>
-  </si>
-  <si>
-    <t>D28242</t>
-  </si>
-  <si>
-    <t>D28184</t>
-  </si>
-  <si>
-    <t>D28186</t>
-  </si>
-  <si>
-    <t>D28188</t>
-  </si>
-  <si>
-    <t>D28204</t>
-  </si>
-  <si>
-    <t>D28206</t>
-  </si>
-  <si>
-    <t>D28208</t>
-  </si>
-  <si>
-    <t>D28224</t>
-  </si>
-  <si>
-    <t>D28226</t>
-  </si>
-  <si>
-    <t>D28228</t>
-  </si>
-  <si>
-    <t>D28244</t>
-  </si>
-  <si>
     <t>X1.0</t>
   </si>
   <si>
@@ -882,54 +540,6 @@
     <t>X1.7</t>
   </si>
   <si>
-    <t>IO_solenoid_0</t>
-  </si>
-  <si>
-    <t>IO_solenoid_1</t>
-  </si>
-  <si>
-    <t>IO_solenoid_2</t>
-  </si>
-  <si>
-    <t>IO_solenoid_3</t>
-  </si>
-  <si>
-    <t>IO_pumpContact_0</t>
-  </si>
-  <si>
-    <t>IO_pumpContact_1</t>
-  </si>
-  <si>
-    <t>IO_pumpContact_2</t>
-  </si>
-  <si>
-    <t>Y1.0</t>
-  </si>
-  <si>
-    <t>Y1.1</t>
-  </si>
-  <si>
-    <t>Y1.2</t>
-  </si>
-  <si>
-    <t>Y1.3</t>
-  </si>
-  <si>
-    <t>Y1.4</t>
-  </si>
-  <si>
-    <t>Y1.5</t>
-  </si>
-  <si>
-    <t>Y1.6</t>
-  </si>
-  <si>
-    <t>D28082</t>
-  </si>
-  <si>
-    <t>D28084</t>
-  </si>
-  <si>
     <t>MB_pump0_wStartStop</t>
   </si>
   <si>
@@ -1002,36 +612,6 @@
     <t>MB_pump1_rVfdMode</t>
   </si>
   <si>
-    <t>MB_pump2_wStartStop</t>
-  </si>
-  <si>
-    <t>MB_pump2_wFreqCmd</t>
-  </si>
-  <si>
-    <t>MB_pump2_wInputSrc</t>
-  </si>
-  <si>
-    <t>MB_pump2_wPidFbkTerm</t>
-  </si>
-  <si>
-    <t>MB_pump2_wPidTrgtSrc</t>
-  </si>
-  <si>
-    <t>MB_pump2_wPidTrgtVal</t>
-  </si>
-  <si>
-    <t>MB_pump2_rOutputHz</t>
-  </si>
-  <si>
-    <t>MB_pump2_rAciVal</t>
-  </si>
-  <si>
-    <t>MB_pump2_rVfdStatus</t>
-  </si>
-  <si>
-    <t>MB_pump2_rVfdMode</t>
-  </si>
-  <si>
     <t>D25302</t>
   </si>
   <si>
@@ -1041,15 +621,6 @@
     <t>D25335</t>
   </si>
   <si>
-    <t>D25502</t>
-  </si>
-  <si>
-    <t>D25512</t>
-  </si>
-  <si>
-    <t>D25535</t>
-  </si>
-  <si>
     <t>pump_h_PumpSelect</t>
   </si>
   <si>
@@ -1215,12 +786,6 @@
     <t>total number of sections</t>
   </si>
   <si>
-    <t>k_sectionMaxShelfNo</t>
-  </si>
-  <si>
-    <t>maximum number of shelves per section</t>
-  </si>
-  <si>
     <t>manuLightIntensity</t>
   </si>
   <si>
@@ -1518,66 +1083,6 @@
     <t>offset from shelf_x_addr to get shelf_x_manuLightOn</t>
   </si>
   <si>
-    <t>IO_waterTemp_0</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_1</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_2</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_3</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_4</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_5</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_6</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_7</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_8</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_9</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_10</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_11</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_12</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_13</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_14</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_15</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_16</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_17</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_18</t>
-  </si>
-  <si>
-    <t>IO_waterTemp_19</t>
-  </si>
-  <si>
     <t>IO_lightIntensity_0</t>
   </si>
   <si>
@@ -1638,66 +1143,6 @@
     <t>IO_lightOnOff_9</t>
   </si>
   <si>
-    <t>D28302</t>
-  </si>
-  <si>
-    <t>D28304</t>
-  </si>
-  <si>
-    <t>D28306</t>
-  </si>
-  <si>
-    <t>D28308</t>
-  </si>
-  <si>
-    <t>D28310</t>
-  </si>
-  <si>
-    <t>D28312</t>
-  </si>
-  <si>
-    <t>D28314</t>
-  </si>
-  <si>
-    <t>D28316</t>
-  </si>
-  <si>
-    <t>D28322</t>
-  </si>
-  <si>
-    <t>D28324</t>
-  </si>
-  <si>
-    <t>D28326</t>
-  </si>
-  <si>
-    <t>D28328</t>
-  </si>
-  <si>
-    <t>D28330</t>
-  </si>
-  <si>
-    <t>D28332</t>
-  </si>
-  <si>
-    <t>D28334</t>
-  </si>
-  <si>
-    <t>D28336</t>
-  </si>
-  <si>
-    <t>D28342</t>
-  </si>
-  <si>
-    <t>D28344</t>
-  </si>
-  <si>
-    <t>D28346</t>
-  </si>
-  <si>
-    <t>D28348</t>
-  </si>
-  <si>
     <t>D28362</t>
   </si>
   <si>
@@ -1722,36 +1167,6 @@
     <t>D28388</t>
   </si>
   <si>
-    <t>D28402</t>
-  </si>
-  <si>
-    <t>D28404</t>
-  </si>
-  <si>
-    <t>D28420.0</t>
-  </si>
-  <si>
-    <t>D28420.1</t>
-  </si>
-  <si>
-    <t>D28420.2</t>
-  </si>
-  <si>
-    <t>D28420.3</t>
-  </si>
-  <si>
-    <t>D28420.4</t>
-  </si>
-  <si>
-    <t>D28420.5</t>
-  </si>
-  <si>
-    <t>D28420.6</t>
-  </si>
-  <si>
-    <t>D28420.7</t>
-  </si>
-  <si>
     <t>S0_PLC_WORD_ADDR_OFFSET</t>
   </si>
   <si>
@@ -1848,24 +1263,6 @@
     <t>D25355</t>
   </si>
   <si>
-    <t>D25550</t>
-  </si>
-  <si>
-    <t>D25551</t>
-  </si>
-  <si>
-    <t>D25552</t>
-  </si>
-  <si>
-    <t>D25553</t>
-  </si>
-  <si>
-    <t>D25554</t>
-  </si>
-  <si>
-    <t>D25555</t>
-  </si>
-  <si>
     <t>flowrate per shelf in lpm</t>
   </si>
   <si>
@@ -1947,9 +1344,6 @@
     <t>ARRAY [10] OF WORD</t>
   </si>
   <si>
-    <t>[10(0)]</t>
-  </si>
-  <si>
     <t>pump_rampup_current_state</t>
   </si>
   <si>
@@ -1983,12 +1377,6 @@
     <t>Flag for each pump</t>
   </si>
   <si>
-    <t>D28422.0</t>
-  </si>
-  <si>
-    <t>D28422.1</t>
-  </si>
-  <si>
     <t>SEC0_LOCK_LIGHT</t>
   </si>
   <si>
@@ -2097,12 +1485,6 @@
     <t>D25360</t>
   </si>
   <si>
-    <t>MB_pump2_faultRecord</t>
-  </si>
-  <si>
-    <t>D25560</t>
-  </si>
-  <si>
     <t>CONST_WATER_RANGE_MAX</t>
   </si>
   <si>
@@ -2211,27 +1593,15 @@
     <t>stat_plc1_system</t>
   </si>
   <si>
-    <t>stat_plc2_system</t>
-  </si>
-  <si>
     <t>PLC1 system</t>
   </si>
   <si>
-    <t>PLC2 system</t>
-  </si>
-  <si>
     <t>stat_plc1_io</t>
   </si>
   <si>
     <t>PLC1 IO</t>
   </si>
   <si>
-    <t>stat_plc2_io</t>
-  </si>
-  <si>
-    <t>PLC2 IO</t>
-  </si>
-  <si>
     <t>errorSystem</t>
   </si>
   <si>
@@ -2250,36 +1620,9 @@
     <t>Transfer PLC I/O error to PLC1</t>
   </si>
   <si>
-    <t>errorPLC2system</t>
-  </si>
-  <si>
-    <t>errorPLC2io</t>
-  </si>
-  <si>
-    <t>D27001</t>
-  </si>
-  <si>
-    <t>D27002</t>
-  </si>
-  <si>
-    <t>PLC2 system error</t>
-  </si>
-  <si>
-    <t>PLC2 IO error</t>
-  </si>
-  <si>
-    <t>stat_plc_transfer</t>
-  </si>
-  <si>
-    <t>Transfer between PLC1 and PLC2</t>
-  </si>
-  <si>
     <t>D25201</t>
   </si>
   <si>
-    <t>D25401</t>
-  </si>
-  <si>
     <t>Start stop</t>
   </si>
   <si>
@@ -2319,15 +1662,6 @@
     <t>Error in the COM port (ventilation sensors)</t>
   </si>
   <si>
-    <t>errorPLC2com</t>
-  </si>
-  <si>
-    <t>D27003</t>
-  </si>
-  <si>
-    <t>PLC2 COM error</t>
-  </si>
-  <si>
     <t>Trigger for Emergency stop</t>
   </si>
   <si>
@@ -2409,12 +1743,6 @@
     <t>USE_P0_SCHEDULE</t>
   </si>
   <si>
-    <t>bad_sector</t>
-  </si>
-  <si>
-    <t>Bad sectors</t>
-  </si>
-  <si>
     <t>flowratePerShelf_local</t>
   </si>
   <si>
@@ -2463,24 +1791,12 @@
     <t>waterTempOffset</t>
   </si>
   <si>
-    <t>[20(0)]</t>
-  </si>
-  <si>
     <t>Offset to water temperature</t>
   </si>
   <si>
     <t>waterTempOffsetNegative</t>
   </si>
   <si>
-    <t>ARRAY [20] OF WORD</t>
-  </si>
-  <si>
-    <t>ARRAY [20] OF BOOL</t>
-  </si>
-  <si>
-    <t>[20(FALSE)]</t>
-  </si>
-  <si>
     <t>True if negative offset</t>
   </si>
   <si>
@@ -2499,36 +1815,6 @@
     <t xml:space="preserve">Overflow sensor </t>
   </si>
   <si>
-    <t>IO_Overflow_0</t>
-  </si>
-  <si>
-    <t>IO_Overflow_1</t>
-  </si>
-  <si>
-    <t>IO_Overflow_2</t>
-  </si>
-  <si>
-    <t>IO_Overflow_3</t>
-  </si>
-  <si>
-    <t>IO_Overflow_4</t>
-  </si>
-  <si>
-    <t>IO_Overflow_5</t>
-  </si>
-  <si>
-    <t>IO_Overflow_6</t>
-  </si>
-  <si>
-    <t>IO_Overflow_7</t>
-  </si>
-  <si>
-    <t>IO_Overflow_8</t>
-  </si>
-  <si>
-    <t>IO_Overflow_9</t>
-  </si>
-  <si>
     <t>X1.8</t>
   </si>
   <si>
@@ -2574,12 +1860,6 @@
     <t>Energy power meter reading</t>
   </si>
   <si>
-    <t>ARRAY [12] OF WORD</t>
-  </si>
-  <si>
-    <t>[12(0)]</t>
-  </si>
-  <si>
     <t>OVERFLOW_LOCAL_10</t>
   </si>
   <si>
@@ -2607,12 +1887,6 @@
     <t>Shelf stage duration percentage</t>
   </si>
   <si>
-    <t>D27100</t>
-  </si>
-  <si>
-    <t>D27150</t>
-  </si>
-  <si>
     <t>ARRAY [14] OF WORD</t>
   </si>
   <si>
@@ -2638,6 +1912,582 @@
   </si>
   <si>
     <t>ARRAY [6] OF INT</t>
+  </si>
+  <si>
+    <t>X1.10</t>
+  </si>
+  <si>
+    <t>X1.11</t>
+  </si>
+  <si>
+    <t>X1.12</t>
+  </si>
+  <si>
+    <t>X1.13</t>
+  </si>
+  <si>
+    <t>IO_Overflow_0_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_0_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_1_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_1_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_2_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_2_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_3_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_3_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_4_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_4_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_5_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_5_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_6_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_6_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_7_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_7_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_8_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_8_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_9_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_9_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_10_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_10_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_11_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_11_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_12_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_12_1</t>
+  </si>
+  <si>
+    <t>IO_Overflow_13_0</t>
+  </si>
+  <si>
+    <t>IO_Overflow_13_1</t>
+  </si>
+  <si>
+    <t>X1.14</t>
+  </si>
+  <si>
+    <t>X1.15</t>
+  </si>
+  <si>
+    <t>X2.0</t>
+  </si>
+  <si>
+    <t>X2.1</t>
+  </si>
+  <si>
+    <t>X2.2</t>
+  </si>
+  <si>
+    <t>X2.3</t>
+  </si>
+  <si>
+    <t>X2.4</t>
+  </si>
+  <si>
+    <t>X2.5</t>
+  </si>
+  <si>
+    <t>X2.6</t>
+  </si>
+  <si>
+    <t>X2.7</t>
+  </si>
+  <si>
+    <t>X2.8</t>
+  </si>
+  <si>
+    <t>X2.9</t>
+  </si>
+  <si>
+    <t>X2.10</t>
+  </si>
+  <si>
+    <t>X2.11</t>
+  </si>
+  <si>
+    <t>IO_Tank_Full_Sensor_0</t>
+  </si>
+  <si>
+    <t>IO_Tank_Full_Sensor_1</t>
+  </si>
+  <si>
+    <t>X2.12</t>
+  </si>
+  <si>
+    <t>X2.13</t>
+  </si>
+  <si>
+    <t>IO_Tank_Overflow_Sensor_0</t>
+  </si>
+  <si>
+    <t>X2.14</t>
+  </si>
+  <si>
+    <t>X2.15</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_0</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_1</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_2</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_3</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_4</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_5</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_6</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_7</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_8</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_9</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_10</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_11</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_12</t>
+  </si>
+  <si>
+    <t>IO_LED_Feedback_13</t>
+  </si>
+  <si>
+    <t>X3.0</t>
+  </si>
+  <si>
+    <t>X3.1</t>
+  </si>
+  <si>
+    <t>X3.2</t>
+  </si>
+  <si>
+    <t>X3.3</t>
+  </si>
+  <si>
+    <t>X3.4</t>
+  </si>
+  <si>
+    <t>X3.5</t>
+  </si>
+  <si>
+    <t>X3.6</t>
+  </si>
+  <si>
+    <t>X3.7</t>
+  </si>
+  <si>
+    <t>X3.8</t>
+  </si>
+  <si>
+    <t>X3.9</t>
+  </si>
+  <si>
+    <t>X3.10</t>
+  </si>
+  <si>
+    <t>X3.11</t>
+  </si>
+  <si>
+    <t>X3.12</t>
+  </si>
+  <si>
+    <t>X3.13</t>
+  </si>
+  <si>
+    <t>IO_lightOnOff_10</t>
+  </si>
+  <si>
+    <t>IO_lightOnOff_11</t>
+  </si>
+  <si>
+    <t>IO_lightOnOff_12</t>
+  </si>
+  <si>
+    <t>IO_lightOnOff_13</t>
+  </si>
+  <si>
+    <t>Y0.0</t>
+  </si>
+  <si>
+    <t>Y0.1</t>
+  </si>
+  <si>
+    <t>Y0.2</t>
+  </si>
+  <si>
+    <t>Y0.3</t>
+  </si>
+  <si>
+    <t>Y0.4</t>
+  </si>
+  <si>
+    <t>Y0.5</t>
+  </si>
+  <si>
+    <t>Y0.6</t>
+  </si>
+  <si>
+    <t>Y0.7</t>
+  </si>
+  <si>
+    <t>Y0.8</t>
+  </si>
+  <si>
+    <t>Y0.9</t>
+  </si>
+  <si>
+    <t>Y0.10</t>
+  </si>
+  <si>
+    <t>Y0.11</t>
+  </si>
+  <si>
+    <t>Y0.12</t>
+  </si>
+  <si>
+    <t>Y0.13</t>
+  </si>
+  <si>
+    <t>IO_propValve_s0</t>
+  </si>
+  <si>
+    <t>IO_propValve_s1</t>
+  </si>
+  <si>
+    <t>IO_propValve_s2</t>
+  </si>
+  <si>
+    <t>IO_propValve_s3</t>
+  </si>
+  <si>
+    <t>IO_propValve_s4</t>
+  </si>
+  <si>
+    <t>IO_propValve_s5</t>
+  </si>
+  <si>
+    <t>IO_propValve_s6</t>
+  </si>
+  <si>
+    <t>IO_propValve_s7</t>
+  </si>
+  <si>
+    <t>IO_propValve_s8</t>
+  </si>
+  <si>
+    <t>IO_propValve_s9</t>
+  </si>
+  <si>
+    <t>IO_propValve_s10</t>
+  </si>
+  <si>
+    <t>IO_propValve_s11</t>
+  </si>
+  <si>
+    <t>IO_propValve_s12</t>
+  </si>
+  <si>
+    <t>IO_propValve_s13</t>
+  </si>
+  <si>
+    <t>D28110</t>
+  </si>
+  <si>
+    <t>D28112</t>
+  </si>
+  <si>
+    <t>D28114</t>
+  </si>
+  <si>
+    <t>D28116</t>
+  </si>
+  <si>
+    <t>D28118</t>
+  </si>
+  <si>
+    <t>D28120</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_0</t>
+  </si>
+  <si>
+    <t>IO_Tank_Empty_Sensor_0</t>
+  </si>
+  <si>
+    <t>IO_Tank_Empty_Sensor_1</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_1</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_2</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_3</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_4</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_5</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_6</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_7</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_8</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_9</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_10</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_11</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_12</t>
+  </si>
+  <si>
+    <t>IO_Valve_Fault_13</t>
+  </si>
+  <si>
+    <t>X0.0</t>
+  </si>
+  <si>
+    <t>X0.1</t>
+  </si>
+  <si>
+    <t>X0.2</t>
+  </si>
+  <si>
+    <t>X0.3</t>
+  </si>
+  <si>
+    <t>X0.4</t>
+  </si>
+  <si>
+    <t>X0.5</t>
+  </si>
+  <si>
+    <t>X0.6</t>
+  </si>
+  <si>
+    <t>X0.7</t>
+  </si>
+  <si>
+    <t>X0.8</t>
+  </si>
+  <si>
+    <t>X0.9</t>
+  </si>
+  <si>
+    <t>X0.10</t>
+  </si>
+  <si>
+    <t>X0.11</t>
+  </si>
+  <si>
+    <t>X0.12</t>
+  </si>
+  <si>
+    <t>X0.13</t>
+  </si>
+  <si>
+    <t>X0.14</t>
+  </si>
+  <si>
+    <t>X0.15</t>
+  </si>
+  <si>
+    <t>Valve fault indicator</t>
+  </si>
+  <si>
+    <t>Tank empty sensor</t>
+  </si>
+  <si>
+    <t>Light control</t>
+  </si>
+  <si>
+    <t>IO_lightIntensity_10</t>
+  </si>
+  <si>
+    <t>IO_lightIntensity_11</t>
+  </si>
+  <si>
+    <t>IO_lightIntensity_12</t>
+  </si>
+  <si>
+    <t>IO_lightIntensity_13</t>
+  </si>
+  <si>
+    <t>D28390</t>
+  </si>
+  <si>
+    <t>D28392</t>
+  </si>
+  <si>
+    <t>D28394</t>
+  </si>
+  <si>
+    <t>D28396</t>
+  </si>
+  <si>
+    <t>D28398</t>
+  </si>
+  <si>
+    <t>D28400</t>
+  </si>
+  <si>
+    <t>Light intensity</t>
+  </si>
+  <si>
+    <t>Light control feedback</t>
+  </si>
+  <si>
+    <t>IO_Temp_T0</t>
+  </si>
+  <si>
+    <t>IO_Temp_T1</t>
+  </si>
+  <si>
+    <t>IO_Temp_T2</t>
+  </si>
+  <si>
+    <t>IO_Temp_T3</t>
+  </si>
+  <si>
+    <t>D28500</t>
+  </si>
+  <si>
+    <t>D28502</t>
+  </si>
+  <si>
+    <t>D28504</t>
+  </si>
+  <si>
+    <t>D28506</t>
+  </si>
+  <si>
+    <t>Container 0 return temp sensor</t>
+  </si>
+  <si>
+    <t>Container 1 return temp sensor</t>
+  </si>
+  <si>
+    <t>Container 2 return temp sensor</t>
+  </si>
+  <si>
+    <t>Sump temp sensor</t>
+  </si>
+  <si>
+    <t>ARRAY [4] OF WORD</t>
+  </si>
+  <si>
+    <t>[4(0)]</t>
+  </si>
+  <si>
+    <t>k_section0MaxShelfNo</t>
+  </si>
+  <si>
+    <t>k_section1MaxShelfNo</t>
+  </si>
+  <si>
+    <t>k_section2MaxShelfNo</t>
+  </si>
+  <si>
+    <t>maximum number of shelves for section 0</t>
+  </si>
+  <si>
+    <t>maximum number of shelves for section 1</t>
+  </si>
+  <si>
+    <t>maximum number of shelves for section 2</t>
+  </si>
+  <si>
+    <t>PVLookup_5_Arr</t>
+  </si>
+  <si>
+    <t>PVLookup_6_Arr</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 5 valves are on</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 6 valves are on</t>
+  </si>
+  <si>
+    <t>D30000</t>
+  </si>
+  <si>
+    <t>D30050</t>
   </si>
 </sst>
 </file>
@@ -2994,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,10 +2880,10 @@
         <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>817</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3056,7 +2906,7 @@
         <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,7 +2940,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>344</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3105,12 +2955,12 @@
         <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>345</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3122,12 +2972,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>354</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3139,12 +2989,12 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3156,12 +3006,12 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>356</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>351</v>
+        <v>208</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3173,12 +3023,12 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>357</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>348</v>
+        <v>205</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3190,12 +3040,12 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>358</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>349</v>
+        <v>206</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3207,12 +3057,12 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>491</v>
+        <v>346</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3224,12 +3074,12 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>492</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3241,12 +3091,12 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>396</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3258,12 +3108,12 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>361</v>
+        <v>218</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3275,223 +3125,229 @@
         <v>10000</v>
       </c>
       <c r="G15" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>864</v>
+        <v>622</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="F16" t="s">
         <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>864</v>
+        <v>622</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="F17" t="s">
         <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>380</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>376</v>
+        <v>233</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>864</v>
+        <v>622</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="F18" t="s">
         <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>382</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>864</v>
+        <v>622</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="F19" t="s">
         <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>383</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>373</v>
+        <v>811</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>864</v>
+        <v>622</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="F20" t="s">
         <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>384</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>378</v>
+        <v>812</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>864</v>
+        <v>622</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="F21" t="s">
         <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>385</v>
+        <v>814</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>379</v>
+        <v>230</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>864</v>
+        <v>622</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="F22" t="s">
         <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>386</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>389</v>
+        <v>235</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>11</v>
+        <v>622</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>12</v>
+        <v>623</v>
       </c>
       <c r="F23" t="s">
         <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>388</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>613</v>
+        <v>236</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>11</v>
+        <v>622</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>12</v>
+        <v>623</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>612</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>391</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>792</v>
+        <v>247</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3499,328 +3355,319 @@
       <c r="D27" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="7">
-        <v>32</v>
+      <c r="E27">
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>609</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>610</v>
+        <v>805</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>611</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>621</v>
+        <v>806</v>
       </c>
       <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>866</v>
-      </c>
-      <c r="E29" t="s">
-        <v>865</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>629</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>622</v>
+        <v>807</v>
       </c>
       <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>866</v>
-      </c>
-      <c r="E30" t="s">
-        <v>865</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>623</v>
+        <v>568</v>
       </c>
       <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>866</v>
-      </c>
-      <c r="E31" t="s">
-        <v>865</v>
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>631</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>624</v>
+        <v>409</v>
       </c>
       <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>866</v>
-      </c>
-      <c r="E32" t="s">
-        <v>865</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>632</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>625</v>
+        <v>420</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>626</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
+        <v>624</v>
+      </c>
+      <c r="E33" t="s">
+        <v>623</v>
+      </c>
+      <c r="G33" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>627</v>
+        <v>421</v>
       </c>
       <c r="C34">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>864</v>
+        <v>624</v>
       </c>
       <c r="E34" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="G34" t="s">
-        <v>633</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>790</v>
+        <v>422</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E35" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="G35" t="s">
-        <v>791</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>628</v>
+        <v>423</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>858</v>
+        <v>624</v>
       </c>
       <c r="E36" t="s">
-        <v>859</v>
+        <v>623</v>
       </c>
       <c r="G36" t="s">
-        <v>634</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>850</v>
+        <v>424</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>637</v>
+        <v>426</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>623</v>
       </c>
       <c r="G38" t="s">
-        <v>643</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>638</v>
+        <v>427</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>617</v>
       </c>
       <c r="G39" t="s">
-        <v>644</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>640</v>
+        <v>435</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>646</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>641</v>
+        <v>436</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>440</v>
       </c>
       <c r="E42" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>655</v>
+        <v>437</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>133</v>
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>653</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>656</v>
+        <v>438</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>133</v>
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>654</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>657</v>
+        <v>439</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>668</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>658</v>
+        <v>451</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3835,12 +3682,12 @@
         <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>668</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>659</v>
+        <v>452</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3855,12 +3702,12 @@
         <v>133</v>
       </c>
       <c r="G47" t="s">
-        <v>668</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>691</v>
+        <v>453</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3875,12 +3722,12 @@
         <v>133</v>
       </c>
       <c r="G48" t="s">
-        <v>692</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>660</v>
+        <v>454</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3895,12 +3742,12 @@
         <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>668</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>661</v>
+        <v>455</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3915,12 +3762,12 @@
         <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>668</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>662</v>
+        <v>485</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3935,12 +3782,12 @@
         <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>668</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>663</v>
+        <v>456</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3955,12 +3802,12 @@
         <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>668</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>664</v>
+        <v>457</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3975,12 +3822,12 @@
         <v>133</v>
       </c>
       <c r="G53" t="s">
-        <v>668</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>665</v>
+        <v>458</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3995,12 +3842,12 @@
         <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>668</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>667</v>
+        <v>459</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4015,12 +3862,12 @@
         <v>133</v>
       </c>
       <c r="G55" t="s">
-        <v>669</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>666</v>
+        <v>460</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4035,12 +3882,12 @@
         <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>669</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>680</v>
+        <v>461</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4055,12 +3902,12 @@
         <v>133</v>
       </c>
       <c r="G57" t="s">
-        <v>679</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>723</v>
+        <v>463</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4075,12 +3922,12 @@
         <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>725</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>724</v>
+        <v>462</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4095,12 +3942,12 @@
         <v>133</v>
       </c>
       <c r="G59" t="s">
-        <v>726</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>727</v>
+        <v>476</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4115,12 +3962,12 @@
         <v>133</v>
       </c>
       <c r="G60" t="s">
-        <v>728</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>729</v>
+        <v>517</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4135,12 +3982,12 @@
         <v>133</v>
       </c>
       <c r="G61" t="s">
-        <v>730</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>743</v>
+        <v>519</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4155,12 +4002,12 @@
         <v>133</v>
       </c>
       <c r="G62" t="s">
-        <v>744</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>843</v>
+        <v>605</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4175,18 +4022,18 @@
         <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>844</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>675</v>
+        <v>471</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4194,7 +4041,7 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>688</v>
+        <v>482</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4209,12 +4056,12 @@
         <v>133</v>
       </c>
       <c r="G65" t="s">
-        <v>690</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>689</v>
+        <v>483</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4229,18 +4076,18 @@
         <v>133</v>
       </c>
       <c r="G66" t="s">
-        <v>690</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>678</v>
+        <v>474</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>671</v>
+        <v>467</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4248,407 +4095,116 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>766</v>
+        <v>581</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>2</v>
+        <v>616</v>
       </c>
       <c r="E68" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>133</v>
+        <v>617</v>
       </c>
       <c r="G68" t="s">
-        <v>777</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>787</v>
+        <v>582</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>2</v>
+        <v>616</v>
       </c>
       <c r="E69" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>133</v>
+        <v>617</v>
       </c>
       <c r="G69" t="s">
-        <v>788</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>767</v>
+        <v>583</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>11</v>
+        <v>803</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>804</v>
       </c>
       <c r="F70" t="s">
         <v>133</v>
       </c>
       <c r="G70" t="s">
-        <v>769</v>
+        <v>584</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>768</v>
+        <v>585</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
         <v>133</v>
       </c>
       <c r="G71" t="s">
-        <v>770</v>
+        <v>586</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>771</v>
+        <v>587</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>2</v>
+        <v>803</v>
       </c>
       <c r="E72" t="s">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="F72" t="s">
         <v>133</v>
       </c>
       <c r="G72" t="s">
-        <v>772</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>784</v>
+        <v>590</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>11</v>
+        <v>618</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>619</v>
+      </c>
+      <c r="F73" t="s">
+        <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>779</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>782</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" t="s">
-        <v>133</v>
-      </c>
-      <c r="G75" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>783</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s">
-        <v>133</v>
-      </c>
-      <c r="G76" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>620</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="F77" t="s">
-        <v>133</v>
-      </c>
-      <c r="G77" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>793</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>133</v>
-      </c>
-      <c r="G78" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>795</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>133</v>
-      </c>
-      <c r="G79" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>796</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>798</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>801</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>45</v>
-      </c>
-      <c r="F82" t="s">
-        <v>133</v>
-      </c>
-      <c r="G82" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>805</v>
-      </c>
-      <c r="C83">
-        <v>14</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="E83" t="s">
-        <v>859</v>
-      </c>
-      <c r="G83" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>806</v>
-      </c>
-      <c r="C84">
-        <v>14</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="E84" t="s">
-        <v>859</v>
-      </c>
-      <c r="G84" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>807</v>
-      </c>
-      <c r="C85">
-        <v>20</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="E85" t="s">
-        <v>808</v>
-      </c>
-      <c r="F85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G85" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>810</v>
-      </c>
-      <c r="C86">
-        <v>20</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="E86" t="s">
-        <v>813</v>
-      </c>
-      <c r="F86" t="s">
-        <v>133</v>
-      </c>
-      <c r="G86" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>815</v>
-      </c>
-      <c r="C87">
-        <v>20</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="E87" t="s">
-        <v>808</v>
-      </c>
-      <c r="F87" t="s">
-        <v>133</v>
-      </c>
-      <c r="G87" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>818</v>
-      </c>
-      <c r="C88">
-        <v>14</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="E88" t="s">
-        <v>861</v>
-      </c>
-      <c r="F88" t="s">
-        <v>133</v>
-      </c>
-      <c r="G88" t="s">
-        <v>819</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4699,10 +4255,10 @@
         <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>817</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4725,16 +4281,16 @@
         <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -4751,7 +4307,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -4768,7 +4324,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4785,7 +4341,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -4803,7 +4359,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4821,7 +4377,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>490</v>
+        <v>345</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4839,7 +4395,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>394</v>
+        <v>249</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -4857,7 +4413,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -4875,7 +4431,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -4890,7 +4446,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -4905,7 +4461,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -5739,15 +5295,15 @@
         <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>817</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -5843,10 +5399,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5879,10 +5435,10 @@
         <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>817</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5939,12 +5495,12 @@
         <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>615</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>614</v>
+        <v>413</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -5978,7 +5534,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>337</v>
+        <v>194</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6029,7 +5585,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>616</v>
+        <v>415</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -6046,7 +5602,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>617</v>
+        <v>416</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6063,7 +5619,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>618</v>
+        <v>417</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -6080,7 +5636,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>619</v>
+        <v>418</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -6096,7 +5652,295 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="B14" t="s">
+        <v>544</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>562</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>557</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>569</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>571</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>574</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" t="s">
+        <v>408</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6105,10 +5949,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6117,7 +5961,7 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6137,18 +5981,18 @@
         <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>817</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -6159,10 +6003,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" t="s">
         <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -6173,10 +6017,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B4" t="s">
         <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -6187,10 +6031,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>184</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -6201,10 +6045,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>728</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -6215,10 +6059,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>729</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>739</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -6229,10 +6073,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>730</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>740</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -6243,10 +6087,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>731</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>741</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -6257,10 +6101,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>732</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>742</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -6271,10 +6115,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>733</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>743</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -6285,10 +6129,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>734</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -6299,10 +6143,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13" t="s">
         <v>156</v>
-      </c>
-      <c r="B13" t="s">
-        <v>192</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -6313,10 +6157,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>736</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -6327,10 +6171,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>737</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -6341,682 +6185,898 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B16" t="s">
+        <v>760</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>747</v>
+      </c>
+      <c r="B17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>748</v>
+      </c>
+      <c r="B18" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>749</v>
+      </c>
+      <c r="B19" t="s">
+        <v>763</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>750</v>
+      </c>
+      <c r="B20" t="s">
+        <v>764</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>751</v>
+      </c>
+      <c r="B21" t="s">
+        <v>765</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>752</v>
+      </c>
+      <c r="B22" t="s">
+        <v>766</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>753</v>
+      </c>
+      <c r="B23" t="s">
+        <v>767</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>754</v>
+      </c>
+      <c r="B24" t="s">
+        <v>768</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>755</v>
+      </c>
+      <c r="B25" t="s">
+        <v>769</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>756</v>
+      </c>
+      <c r="B26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>757</v>
+      </c>
+      <c r="B27" t="s">
+        <v>771</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>758</v>
+      </c>
+      <c r="B28" t="s">
+        <v>772</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>759</v>
+      </c>
+      <c r="B29" t="s">
+        <v>773</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>745</v>
+      </c>
+      <c r="B30" t="s">
+        <v>774</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>746</v>
+      </c>
+      <c r="B31" t="s">
+        <v>775</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>630</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>631</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>632</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>633</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>634</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>635</v>
+      </c>
+      <c r="B38" t="s">
         <v>165</v>
       </c>
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>636</v>
+      </c>
+      <c r="B39" t="s">
         <v>166</v>
       </c>
-      <c r="B17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" t="s">
-        <v>248</v>
-      </c>
       <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>637</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>592</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>638</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>593</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>221</v>
+        <v>639</v>
       </c>
       <c r="B42" t="s">
-        <v>251</v>
+        <v>625</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>640</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>626</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>641</v>
       </c>
       <c r="B44" t="s">
-        <v>253</v>
+        <v>627</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>224</v>
+        <v>642</v>
       </c>
       <c r="B45" t="s">
-        <v>254</v>
+        <v>628</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>643</v>
       </c>
       <c r="B46" t="s">
-        <v>255</v>
+        <v>657</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>644</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>658</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>645</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>659</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>228</v>
+        <v>646</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>660</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>229</v>
+        <v>647</v>
       </c>
       <c r="B50" t="s">
-        <v>259</v>
+        <v>661</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>648</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>662</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>649</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>663</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>650</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>664</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>651</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>665</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>652</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>666</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>653</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>667</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>654</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>668</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>655</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>669</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>238</v>
+        <v>656</v>
       </c>
       <c r="B59" t="s">
-        <v>269</v>
+        <v>670</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>239</v>
+        <v>671</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>673</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>672</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>674</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>675</v>
       </c>
       <c r="B62" t="s">
-        <v>262</v>
+        <v>676</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>675</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>677</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>820</v>
+        <v>678</v>
       </c>
       <c r="B64" t="s">
-        <v>273</v>
+        <v>692</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -7024,19 +7084,16 @@
       <c r="D64" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E64" t="s">
-        <v>133</v>
-      </c>
       <c r="F64" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>821</v>
+        <v>679</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>693</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -7044,19 +7101,16 @@
       <c r="D65" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E65" t="s">
-        <v>133</v>
-      </c>
       <c r="F65" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>822</v>
+        <v>680</v>
       </c>
       <c r="B66" t="s">
-        <v>275</v>
+        <v>694</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -7064,19 +7118,16 @@
       <c r="D66" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E66" t="s">
-        <v>133</v>
-      </c>
       <c r="F66" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>823</v>
+        <v>681</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>695</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -7084,19 +7135,16 @@
       <c r="D67" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E67" t="s">
-        <v>133</v>
-      </c>
       <c r="F67" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>824</v>
+        <v>682</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
+        <v>696</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -7104,19 +7152,16 @@
       <c r="D68" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E68" t="s">
-        <v>133</v>
-      </c>
       <c r="F68" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>825</v>
+        <v>683</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>697</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -7124,19 +7169,16 @@
       <c r="D69" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E69" t="s">
-        <v>133</v>
-      </c>
       <c r="F69" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>826</v>
+        <v>684</v>
       </c>
       <c r="B70" t="s">
-        <v>279</v>
+        <v>698</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -7144,19 +7186,16 @@
       <c r="D70" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E70" t="s">
-        <v>133</v>
-      </c>
       <c r="F70" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>827</v>
+        <v>685</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>699</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -7164,19 +7203,16 @@
       <c r="D71" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E71" t="s">
-        <v>133</v>
-      </c>
       <c r="F71" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>828</v>
+        <v>686</v>
       </c>
       <c r="B72" t="s">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -7184,19 +7220,16 @@
       <c r="D72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E72" t="s">
-        <v>133</v>
-      </c>
       <c r="F72" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>829</v>
+        <v>687</v>
       </c>
       <c r="B73" t="s">
-        <v>831</v>
+        <v>701</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -7204,19 +7237,16 @@
       <c r="D73" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E73" t="s">
-        <v>133</v>
-      </c>
       <c r="F73" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>688</v>
       </c>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>702</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -7224,13 +7254,16 @@
       <c r="D74" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="F74" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>282</v>
+        <v>689</v>
       </c>
       <c r="B75" t="s">
-        <v>289</v>
+        <v>703</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -7238,13 +7271,16 @@
       <c r="D75" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="F75" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>283</v>
+        <v>690</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>704</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -7252,13 +7288,16 @@
       <c r="D76" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="F76" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>284</v>
+        <v>691</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>705</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -7266,13 +7305,16 @@
       <c r="D77" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="F77" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>358</v>
       </c>
       <c r="B78" t="s">
-        <v>292</v>
+        <v>710</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -7280,13 +7322,16 @@
       <c r="D78" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="F78" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>359</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>711</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -7294,13 +7339,16 @@
       <c r="D79" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="F79" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>712</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -7308,200 +7356,203 @@
       <c r="D80" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>493</v>
+        <v>361</v>
       </c>
       <c r="B81" t="s">
-        <v>533</v>
+        <v>713</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>-1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>494</v>
+        <v>362</v>
       </c>
       <c r="B82" t="s">
-        <v>534</v>
+        <v>714</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>-1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>495</v>
+        <v>363</v>
       </c>
       <c r="B83" t="s">
-        <v>535</v>
+        <v>715</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>-1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>496</v>
+        <v>364</v>
       </c>
       <c r="B84" t="s">
-        <v>536</v>
+        <v>716</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>-1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>497</v>
+        <v>365</v>
       </c>
       <c r="B85" t="s">
-        <v>537</v>
+        <v>717</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>-1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>498</v>
+        <v>366</v>
       </c>
       <c r="B86" t="s">
-        <v>538</v>
+        <v>718</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>-1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>499</v>
+        <v>367</v>
       </c>
       <c r="B87" t="s">
-        <v>539</v>
+        <v>719</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>-1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>500</v>
+        <v>706</v>
       </c>
       <c r="B88" t="s">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>-1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>501</v>
+        <v>707</v>
       </c>
       <c r="B89" t="s">
-        <v>541</v>
+        <v>721</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>-1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>502</v>
+        <v>708</v>
       </c>
       <c r="B90" t="s">
-        <v>542</v>
+        <v>722</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>-1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>503</v>
+        <v>709</v>
       </c>
       <c r="B91" t="s">
-        <v>543</v>
+        <v>723</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>-1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>504</v>
+        <v>348</v>
       </c>
       <c r="B92" t="s">
-        <v>544</v>
+        <v>368</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -7509,16 +7560,16 @@
       <c r="D92">
         <v>-1</v>
       </c>
-      <c r="E92" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>505</v>
+        <v>349</v>
       </c>
       <c r="B93" t="s">
-        <v>545</v>
+        <v>369</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -7526,16 +7577,16 @@
       <c r="D93">
         <v>-1</v>
       </c>
-      <c r="E93" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>506</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s">
-        <v>546</v>
+        <v>370</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -7543,16 +7594,16 @@
       <c r="D94">
         <v>-1</v>
       </c>
-      <c r="E94" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>507</v>
+        <v>351</v>
       </c>
       <c r="B95" t="s">
-        <v>547</v>
+        <v>371</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -7560,16 +7611,16 @@
       <c r="D95">
         <v>-1</v>
       </c>
-      <c r="E95" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>508</v>
+        <v>352</v>
       </c>
       <c r="B96" t="s">
-        <v>548</v>
+        <v>372</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -7577,16 +7628,16 @@
       <c r="D96">
         <v>-1</v>
       </c>
-      <c r="E96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>509</v>
+        <v>353</v>
       </c>
       <c r="B97" t="s">
-        <v>549</v>
+        <v>373</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -7594,16 +7645,16 @@
       <c r="D97">
         <v>-1</v>
       </c>
-      <c r="E97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>510</v>
+        <v>354</v>
       </c>
       <c r="B98" t="s">
-        <v>550</v>
+        <v>374</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -7611,16 +7662,16 @@
       <c r="D98">
         <v>-1</v>
       </c>
-      <c r="E98" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>511</v>
+        <v>355</v>
       </c>
       <c r="B99" t="s">
-        <v>551</v>
+        <v>375</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -7628,16 +7679,16 @@
       <c r="D99">
         <v>-1</v>
       </c>
-      <c r="E99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="B100" t="s">
-        <v>552</v>
+        <v>783</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -7645,16 +7696,16 @@
       <c r="D100">
         <v>-1</v>
       </c>
-      <c r="E100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>513</v>
+        <v>357</v>
       </c>
       <c r="B101" t="s">
-        <v>553</v>
+        <v>784</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -7662,13 +7713,16 @@
       <c r="D101">
         <v>-1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>514</v>
+        <v>779</v>
       </c>
       <c r="B102" t="s">
-        <v>554</v>
+        <v>785</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -7676,13 +7730,16 @@
       <c r="D102">
         <v>-1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>515</v>
+        <v>780</v>
       </c>
       <c r="B103" t="s">
-        <v>555</v>
+        <v>786</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -7690,13 +7747,16 @@
       <c r="D103">
         <v>-1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>516</v>
+        <v>781</v>
       </c>
       <c r="B104" t="s">
-        <v>556</v>
+        <v>787</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -7704,13 +7764,16 @@
       <c r="D104">
         <v>-1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>517</v>
+        <v>782</v>
       </c>
       <c r="B105" t="s">
-        <v>557</v>
+        <v>788</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -7718,13 +7781,16 @@
       <c r="D105">
         <v>-1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>518</v>
+        <v>791</v>
       </c>
       <c r="B106" t="s">
-        <v>558</v>
+        <v>795</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -7732,13 +7798,16 @@
       <c r="D106">
         <v>-1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>519</v>
+        <v>792</v>
       </c>
       <c r="B107" t="s">
-        <v>559</v>
+        <v>796</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -7746,13 +7815,16 @@
       <c r="D107">
         <v>-1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>520</v>
+        <v>793</v>
       </c>
       <c r="B108" t="s">
-        <v>560</v>
+        <v>797</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -7760,13 +7832,16 @@
       <c r="D108">
         <v>-1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>521</v>
+        <v>794</v>
       </c>
       <c r="B109" t="s">
-        <v>561</v>
+        <v>798</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -7774,13 +7849,16 @@
       <c r="D109">
         <v>-1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>522</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>562</v>
+        <v>396</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -7788,153 +7866,189 @@
       <c r="D110">
         <v>-1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>523</v>
+        <v>168</v>
       </c>
       <c r="B111" t="s">
-        <v>563</v>
+        <v>397</v>
       </c>
       <c r="C111" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>-1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>524</v>
+        <v>169</v>
       </c>
       <c r="B112" t="s">
-        <v>564</v>
+        <v>398</v>
       </c>
       <c r="C112" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>-1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>525</v>
+        <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>565</v>
+        <v>399</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>-1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>526</v>
+        <v>171</v>
       </c>
       <c r="B114" t="s">
-        <v>566</v>
+        <v>400</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>-1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>527</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>567</v>
+        <v>401</v>
       </c>
       <c r="C115" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>-1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>528</v>
+        <v>173</v>
       </c>
       <c r="B116" t="s">
-        <v>568</v>
+        <v>174</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>-1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>133</v>
+      </c>
+      <c r="F116" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>529</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>569</v>
+        <v>178</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>-1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>530</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
-        <v>570</v>
+        <v>179</v>
       </c>
       <c r="C118" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>-1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>531</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>648</v>
+        <v>180</v>
       </c>
       <c r="C119" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="B120" t="s">
-        <v>649</v>
-      </c>
-      <c r="C120" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>131</v>
+        <v>478</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D120" t="s">
+        <v>479</v>
+      </c>
+      <c r="E120" t="s">
+        <v>133</v>
+      </c>
+      <c r="F120" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>591</v>
+        <v>402</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -7943,15 +8057,15 @@
         <v>-1</v>
       </c>
       <c r="F121" t="s">
-        <v>747</v>
+        <v>528</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>592</v>
+        <v>403</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -7960,15 +8074,15 @@
         <v>-1</v>
       </c>
       <c r="F122" t="s">
-        <v>748</v>
+        <v>529</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>299</v>
+        <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>593</v>
+        <v>404</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -7977,15 +8091,15 @@
         <v>-1</v>
       </c>
       <c r="F123" t="s">
-        <v>749</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="B124" t="s">
-        <v>594</v>
+        <v>405</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -7994,15 +8108,15 @@
         <v>-1</v>
       </c>
       <c r="F124" t="s">
-        <v>750</v>
+        <v>531</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="B125" t="s">
-        <v>595</v>
+        <v>406</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -8011,15 +8125,15 @@
         <v>-1</v>
       </c>
       <c r="F125" t="s">
-        <v>751</v>
+        <v>532</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>596</v>
+        <v>407</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -8028,15 +8142,15 @@
         <v>-1</v>
       </c>
       <c r="F126" t="s">
-        <v>752</v>
+        <v>533</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="B127" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -8048,15 +8162,15 @@
         <v>133</v>
       </c>
       <c r="F127" t="s">
-        <v>753</v>
+        <v>534</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="B128" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -8065,15 +8179,15 @@
         <v>-1</v>
       </c>
       <c r="F128" t="s">
-        <v>754</v>
+        <v>535</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>527</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -8082,15 +8196,15 @@
         <v>-1</v>
       </c>
       <c r="F129" t="s">
-        <v>755</v>
+        <v>536</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>310</v>
+        <v>193</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
@@ -8101,524 +8215,93 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>681</v>
+        <v>480</v>
       </c>
       <c r="B131" t="s">
-        <v>682</v>
+        <v>481</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>635</v>
+        <v>434</v>
       </c>
       <c r="D131" t="s">
-        <v>683</v>
+        <v>479</v>
       </c>
       <c r="E131" t="s">
         <v>133</v>
       </c>
       <c r="F131" t="s">
-        <v>756</v>
+        <v>537</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>311</v>
+        <v>542</v>
       </c>
       <c r="B132" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="C132" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>747</v>
+        <v>541</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>312</v>
+        <v>468</v>
       </c>
       <c r="B133" t="s">
-        <v>598</v>
+        <v>466</v>
       </c>
       <c r="C133" t="s">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="D133">
-        <v>-1</v>
-      </c>
-      <c r="F133" t="s">
-        <v>748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>313</v>
+        <v>612</v>
       </c>
       <c r="B134" t="s">
-        <v>599</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>-1</v>
+        <v>815</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D134" t="s">
+        <v>617</v>
+      </c>
+      <c r="E134" t="s">
+        <v>133</v>
       </c>
       <c r="F134" t="s">
-        <v>749</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>614</v>
       </c>
       <c r="B135" t="s">
-        <v>600</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>-1</v>
+        <v>816</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D135" t="s">
+        <v>617</v>
+      </c>
+      <c r="E135" t="s">
+        <v>133</v>
       </c>
       <c r="F135" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>315</v>
-      </c>
-      <c r="B136" t="s">
-        <v>601</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>-1</v>
-      </c>
-      <c r="F136" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>316</v>
-      </c>
-      <c r="B137" t="s">
-        <v>602</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>-1</v>
-      </c>
-      <c r="F137" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>317</v>
-      </c>
-      <c r="B138" t="s">
-        <v>331</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>-1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>133</v>
-      </c>
-      <c r="F138" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>318</v>
-      </c>
-      <c r="B139" t="s">
-        <v>332</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>-1</v>
-      </c>
-      <c r="F139" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>319</v>
-      </c>
-      <c r="B140" t="s">
-        <v>745</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>-1</v>
-      </c>
-      <c r="F140" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>320</v>
-      </c>
-      <c r="B141" t="s">
-        <v>333</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>684</v>
-      </c>
-      <c r="B142" t="s">
-        <v>685</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D142" t="s">
-        <v>683</v>
-      </c>
-      <c r="E142" t="s">
-        <v>133</v>
-      </c>
-      <c r="F142" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>321</v>
-      </c>
-      <c r="B143" t="s">
-        <v>603</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>-1</v>
-      </c>
-      <c r="F143" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>322</v>
-      </c>
-      <c r="B144" t="s">
-        <v>604</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>-1</v>
-      </c>
-      <c r="F144" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>323</v>
-      </c>
-      <c r="B145" t="s">
-        <v>605</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>-1</v>
-      </c>
-      <c r="F145" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>324</v>
-      </c>
-      <c r="B146" t="s">
-        <v>606</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>-1</v>
-      </c>
-      <c r="F146" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>325</v>
-      </c>
-      <c r="B147" t="s">
-        <v>607</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>-1</v>
-      </c>
-      <c r="F147" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>326</v>
-      </c>
-      <c r="B148" t="s">
-        <v>608</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>-1</v>
-      </c>
-      <c r="F148" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>327</v>
-      </c>
-      <c r="B149" t="s">
-        <v>334</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <v>-1</v>
-      </c>
-      <c r="E149" t="s">
-        <v>133</v>
-      </c>
-      <c r="F149" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>328</v>
-      </c>
-      <c r="B150" t="s">
-        <v>335</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>-1</v>
-      </c>
-      <c r="F150" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>329</v>
-      </c>
-      <c r="B151" t="s">
-        <v>746</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>-1</v>
-      </c>
-      <c r="F151" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>330</v>
-      </c>
-      <c r="B152" t="s">
-        <v>336</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>686</v>
-      </c>
-      <c r="B153" t="s">
-        <v>687</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D153" t="s">
-        <v>683</v>
-      </c>
-      <c r="E153" t="s">
-        <v>133</v>
-      </c>
-      <c r="F153" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>764</v>
-      </c>
-      <c r="B154" t="s">
-        <v>765</v>
-      </c>
-      <c r="C154" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F154" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>672</v>
-      </c>
-      <c r="B155" t="s">
-        <v>670</v>
-      </c>
-      <c r="C155" t="s">
-        <v>671</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>737</v>
-      </c>
-      <c r="B156" t="s">
-        <v>739</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="F156" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>738</v>
-      </c>
-      <c r="B157" t="s">
-        <v>740</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="F157" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>760</v>
-      </c>
-      <c r="B158" t="s">
-        <v>761</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="F158" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>852</v>
-      </c>
-      <c r="B159" t="s">
-        <v>856</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D159" t="s">
-        <v>846</v>
-      </c>
-      <c r="E159" t="s">
-        <v>133</v>
-      </c>
-      <c r="F159" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>854</v>
-      </c>
-      <c r="B160" t="s">
-        <v>857</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D160" t="s">
-        <v>846</v>
-      </c>
-      <c r="E160" t="s">
-        <v>133</v>
-      </c>
-      <c r="F160" t="s">
-        <v>855</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -8630,7 +8313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
@@ -8657,10 +8340,10 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>817</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8716,7 +8399,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>339</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>143</v>
@@ -8728,7 +8411,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>338</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>143</v>
@@ -8752,7 +8435,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>487</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -8764,7 +8447,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>488</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -8776,7 +8459,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>489</v>
+        <v>344</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -8799,7 +8482,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>340</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>143</v>
@@ -8810,7 +8493,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>341</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
         <v>143</v>
@@ -8821,7 +8504,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>481</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
         <v>143</v>
@@ -8832,7 +8515,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>482</v>
+        <v>337</v>
       </c>
       <c r="C16" t="s">
         <v>143</v>
@@ -8843,7 +8526,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="C17" t="s">
         <v>143</v>
@@ -8854,7 +8537,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>484</v>
+        <v>339</v>
       </c>
       <c r="C18" t="s">
         <v>143</v>
@@ -8865,7 +8548,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>485</v>
+        <v>340</v>
       </c>
       <c r="C19" t="s">
         <v>143</v>
@@ -8876,7 +8559,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>486</v>
+        <v>341</v>
       </c>
       <c r="C20" t="s">
         <v>143</v>
@@ -8887,7 +8570,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>650</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
         <v>143</v>
@@ -8898,7 +8581,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>651</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
         <v>143</v>
@@ -8909,7 +8592,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>652</v>
+        <v>448</v>
       </c>
       <c r="C23" t="s">
         <v>143</v>
@@ -8920,7 +8603,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>405</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -8931,7 +8614,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>406</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -8942,7 +8625,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>480</v>
+        <v>335</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -8953,7 +8636,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>479</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -8964,7 +8647,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>397</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -8975,7 +8658,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>398</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -8986,7 +8669,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>399</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -8997,7 +8680,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -9008,7 +8691,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>401</v>
+        <v>256</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -9019,7 +8702,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>402</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -9030,7 +8713,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>403</v>
+        <v>258</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -9041,7 +8724,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>404</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -9052,7 +8735,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>407</v>
+        <v>262</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -9063,7 +8746,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>408</v>
+        <v>263</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -9074,7 +8757,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>409</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -9085,7 +8768,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>410</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -9096,7 +8779,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>411</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -9107,7 +8790,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -9118,7 +8801,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>413</v>
+        <v>268</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -9129,7 +8812,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>414</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -9140,7 +8823,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>415</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -9151,7 +8834,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>416</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -9162,7 +8845,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>417</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -9173,7 +8856,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>418</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -9184,7 +8867,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>419</v>
+        <v>274</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -9195,7 +8878,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>420</v>
+        <v>275</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -9206,7 +8889,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>421</v>
+        <v>276</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -9217,7 +8900,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>422</v>
+        <v>277</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -9228,7 +8911,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>423</v>
+        <v>278</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -9239,7 +8922,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>424</v>
+        <v>279</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -9250,7 +8933,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -9261,7 +8944,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>426</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -9272,7 +8955,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>427</v>
+        <v>282</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -9283,7 +8966,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>428</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -9294,7 +8977,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>429</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -9305,7 +8988,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>430</v>
+        <v>285</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -9316,7 +8999,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>431</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -9327,7 +9010,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>432</v>
+        <v>287</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -9338,7 +9021,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>433</v>
+        <v>288</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -9349,7 +9032,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>434</v>
+        <v>289</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -9360,7 +9043,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>435</v>
+        <v>290</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -9371,7 +9054,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>436</v>
+        <v>291</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -9382,7 +9065,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>437</v>
+        <v>292</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -9393,7 +9076,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>438</v>
+        <v>293</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -9404,7 +9087,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>439</v>
+        <v>294</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -9415,7 +9098,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>440</v>
+        <v>295</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -9426,7 +9109,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>441</v>
+        <v>296</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -9437,7 +9120,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>442</v>
+        <v>297</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -9448,7 +9131,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>443</v>
+        <v>298</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -9459,7 +9142,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>444</v>
+        <v>299</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -9470,7 +9153,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>445</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -9481,7 +9164,7 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>446</v>
+        <v>301</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -9492,7 +9175,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>447</v>
+        <v>302</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -9503,7 +9186,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>448</v>
+        <v>303</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -9514,7 +9197,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>449</v>
+        <v>304</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -9525,7 +9208,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>450</v>
+        <v>305</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -9536,7 +9219,7 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>451</v>
+        <v>306</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -9547,7 +9230,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>452</v>
+        <v>307</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -9558,7 +9241,7 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>453</v>
+        <v>308</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -9569,7 +9252,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>454</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -9580,7 +9263,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>455</v>
+        <v>310</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -9591,7 +9274,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>456</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -9602,7 +9285,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>457</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -9613,7 +9296,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>458</v>
+        <v>313</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -9624,7 +9307,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>459</v>
+        <v>314</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -9635,7 +9318,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>460</v>
+        <v>315</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -9646,7 +9329,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>461</v>
+        <v>316</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -9657,7 +9340,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>462</v>
+        <v>317</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -9668,7 +9351,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>463</v>
+        <v>318</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -9679,7 +9362,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>464</v>
+        <v>319</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -9690,7 +9373,7 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -9701,7 +9384,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>466</v>
+        <v>321</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -9712,7 +9395,7 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>467</v>
+        <v>322</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -9723,7 +9406,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>468</v>
+        <v>323</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -9734,7 +9417,7 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>469</v>
+        <v>324</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -9745,7 +9428,7 @@
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>470</v>
+        <v>325</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -9756,7 +9439,7 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>471</v>
+        <v>326</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -9767,7 +9450,7 @@
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>472</v>
+        <v>327</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -9778,7 +9461,7 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>473</v>
+        <v>328</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -9789,7 +9472,7 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>474</v>
+        <v>329</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -9800,7 +9483,7 @@
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>475</v>
+        <v>330</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -9811,7 +9494,7 @@
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>476</v>
+        <v>331</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -9822,7 +9505,7 @@
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>477</v>
+        <v>332</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -9833,7 +9516,7 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>478</v>
+        <v>333</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -9844,7 +9527,7 @@
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>571</v>
+        <v>376</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -9855,7 +9538,7 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>572</v>
+        <v>377</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -9866,7 +9549,7 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>573</v>
+        <v>378</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -9877,7 +9560,7 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>574</v>
+        <v>379</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -9888,7 +9571,7 @@
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>575</v>
+        <v>380</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -9899,7 +9582,7 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>576</v>
+        <v>381</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -9910,7 +9593,7 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>577</v>
+        <v>382</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -9921,7 +9604,7 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>578</v>
+        <v>383</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -9932,7 +9615,7 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>579</v>
+        <v>384</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -9943,7 +9626,7 @@
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>580</v>
+        <v>385</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -9954,7 +9637,7 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>581</v>
+        <v>386</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -9965,7 +9648,7 @@
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>582</v>
+        <v>387</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -9976,7 +9659,7 @@
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>583</v>
+        <v>388</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -9987,7 +9670,7 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>584</v>
+        <v>389</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -9998,7 +9681,7 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>585</v>
+        <v>390</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -10009,7 +9692,7 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>586</v>
+        <v>391</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -10020,7 +9703,7 @@
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>587</v>
+        <v>392</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -10031,7 +9714,7 @@
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>588</v>
+        <v>393</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -10042,7 +9725,7 @@
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>589</v>
+        <v>394</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -10053,7 +9736,7 @@
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>590</v>
+        <v>395</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -10064,7 +9747,7 @@
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>773</v>
+        <v>551</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -10075,7 +9758,7 @@
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>774</v>
+        <v>552</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -10086,7 +9769,7 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>775</v>
+        <v>553</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
@@ -10097,7 +9780,7 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>776</v>
+        <v>554</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
@@ -10108,7 +9791,7 @@
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
@@ -10119,7 +9802,7 @@
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>789</v>
+        <v>567</v>
       </c>
       <c r="C133" t="s">
         <v>143</v>
@@ -10130,7 +9813,7 @@
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>833</v>
+        <v>595</v>
       </c>
       <c r="C134" t="s">
         <v>143</v>
@@ -10141,7 +9824,7 @@
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>834</v>
+        <v>596</v>
       </c>
       <c r="C135" t="s">
         <v>143</v>
@@ -10152,7 +9835,7 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>835</v>
+        <v>597</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -10163,7 +9846,7 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>836</v>
+        <v>598</v>
       </c>
       <c r="C137" t="s">
         <v>143</v>
@@ -10174,7 +9857,7 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>837</v>
+        <v>599</v>
       </c>
       <c r="C138" t="s">
         <v>143</v>
@@ -10185,7 +9868,7 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>838</v>
+        <v>600</v>
       </c>
       <c r="C139" t="s">
         <v>143</v>
@@ -10196,7 +9879,7 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>839</v>
+        <v>601</v>
       </c>
       <c r="C140" t="s">
         <v>143</v>
@@ -10207,7 +9890,7 @@
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>840</v>
+        <v>602</v>
       </c>
       <c r="C141" t="s">
         <v>143</v>
@@ -10218,7 +9901,7 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>841</v>
+        <v>603</v>
       </c>
       <c r="C142" t="s">
         <v>143</v>
@@ -10229,7 +9912,7 @@
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>842</v>
+        <v>604</v>
       </c>
       <c r="C143" t="s">
         <v>143</v>
@@ -10240,7 +9923,7 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>847</v>
+        <v>607</v>
       </c>
       <c r="C144" t="s">
         <v>143</v>
@@ -10251,7 +9934,7 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>848</v>
+        <v>608</v>
       </c>
       <c r="C145" t="s">
         <v>143</v>
@@ -10262,7 +9945,7 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>862</v>
+        <v>620</v>
       </c>
       <c r="C146" t="s">
         <v>143</v>
@@ -10273,7 +9956,7 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>863</v>
+        <v>621</v>
       </c>
       <c r="C147" t="s">
         <v>143</v>
@@ -10292,7 +9975,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10316,157 +9999,157 @@
         <v>7</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>817</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
-        <v>670</v>
+        <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>467</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>693</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>675</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
-        <v>708</v>
+        <v>502</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>709</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>694</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
-        <v>698</v>
+        <v>492</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>677</v>
+        <v>473</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>676</v>
+        <v>472</v>
       </c>
       <c r="E4" t="s">
-        <v>701</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>695</v>
+        <v>489</v>
       </c>
       <c r="B5" t="s">
-        <v>705</v>
+        <v>499</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>677</v>
+        <v>473</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>676</v>
+        <v>472</v>
       </c>
       <c r="E5" t="s">
-        <v>702</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>696</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
-        <v>699</v>
+        <v>493</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>677</v>
+        <v>473</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>676</v>
+        <v>472</v>
       </c>
       <c r="E6" t="s">
-        <v>702</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>697</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
-        <v>706</v>
+        <v>500</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>677</v>
+        <v>473</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>676</v>
+        <v>472</v>
       </c>
       <c r="E7" t="s">
-        <v>702</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>673</v>
+        <v>469</v>
       </c>
       <c r="B8" t="s">
-        <v>700</v>
+        <v>494</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>677</v>
+        <v>473</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>676</v>
+        <v>472</v>
       </c>
       <c r="E8" t="s">
-        <v>703</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>674</v>
+        <v>470</v>
       </c>
       <c r="B9" t="s">
-        <v>707</v>
+        <v>501</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>677</v>
+        <v>473</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>676</v>
+        <v>472</v>
       </c>
       <c r="E9" t="s">
-        <v>704</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>710</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
-        <v>711</v>
+        <v>505</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10474,13 +10157,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>717</v>
+        <v>511</v>
       </c>
       <c r="B11" t="s">
-        <v>712</v>
+        <v>506</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10488,13 +10171,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>718</v>
+        <v>512</v>
       </c>
       <c r="B12" t="s">
-        <v>713</v>
+        <v>507</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10502,13 +10185,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s">
-        <v>716</v>
+        <v>510</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10516,13 +10199,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>715</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
-        <v>719</v>
+        <v>513</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -10530,10 +10213,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>720</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s">
-        <v>721</v>
+        <v>515</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>1</v>
@@ -10542,15 +10225,15 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>722</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>731</v>
+        <v>521</v>
       </c>
       <c r="B16" t="s">
-        <v>732</v>
+        <v>522</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>1</v>
@@ -10559,15 +10242,15 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>735</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>733</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
-        <v>734</v>
+        <v>524</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>1</v>
@@ -10576,15 +10259,15 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>736</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>757</v>
+        <v>538</v>
       </c>
       <c r="B18" t="s">
-        <v>758</v>
+        <v>539</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>1</v>
@@ -10593,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>759</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
+++ b/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="879">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -729,27 +729,6 @@
     <t>exeLightOn</t>
   </si>
   <si>
-    <t>ShelfSectionMapping_0_Arr</t>
-  </si>
-  <si>
-    <t>PVLookup_1_Arr</t>
-  </si>
-  <si>
-    <t>PVLookup_2_Arr</t>
-  </si>
-  <si>
-    <t>PVLookup_3_Arr</t>
-  </si>
-  <si>
-    <t>PVLookup_4_Arr</t>
-  </si>
-  <si>
-    <t>ShelfSectionMapping_1_Arr</t>
-  </si>
-  <si>
-    <t>ShelfSectionMapping_2_Arr</t>
-  </si>
-  <si>
     <t>PV look-up values when only 2 valves are on</t>
   </si>
   <si>
@@ -1875,18 +1854,6 @@
     <t>Number of pumps to use</t>
   </si>
   <si>
-    <t>shelf_stage_no</t>
-  </si>
-  <si>
-    <t>Shelf currently running stage</t>
-  </si>
-  <si>
-    <t>shelf_stage_percentage</t>
-  </si>
-  <si>
-    <t>Shelf stage duration percentage</t>
-  </si>
-  <si>
     <t>ARRAY [14] OF WORD</t>
   </si>
   <si>
@@ -2472,22 +2439,241 @@
     <t>maximum number of shelves for section 2</t>
   </si>
   <si>
-    <t>PVLookup_5_Arr</t>
-  </si>
-  <si>
-    <t>PVLookup_6_Arr</t>
-  </si>
-  <si>
     <t>PV look-up values when only 5 valves are on</t>
   </si>
   <si>
     <t>PV look-up values when only 6 valves are on</t>
   </si>
   <si>
-    <t>D30000</t>
-  </si>
-  <si>
-    <t>D30050</t>
+    <t>CTRL_shelf_stage_percentage</t>
+  </si>
+  <si>
+    <t>CTRL_pv_value</t>
+  </si>
+  <si>
+    <t>CTRL_light_on</t>
+  </si>
+  <si>
+    <t>CTRL_light_intensity</t>
+  </si>
+  <si>
+    <t>Control Shelf currently running stage</t>
+  </si>
+  <si>
+    <t>Control Shelf stage duration percentage</t>
+  </si>
+  <si>
+    <t>CTRL_pump_fill_drain_mode</t>
+  </si>
+  <si>
+    <t>CTRL_pump_fill_mode_flowrate</t>
+  </si>
+  <si>
+    <t>Control for Fill drain  mode (0 - normal, 1 - fill drain mode)</t>
+  </si>
+  <si>
+    <t>Control for fill mode (flowrate)</t>
+  </si>
+  <si>
+    <t>CTRL_pump_drain_mode_flowrate</t>
+  </si>
+  <si>
+    <t>Control for drain mode (flowrate)</t>
+  </si>
+  <si>
+    <t>D3020</t>
+  </si>
+  <si>
+    <t>CTRL_shelf_stage_number</t>
+  </si>
+  <si>
+    <t>CTRL_shelf_numtray</t>
+  </si>
+  <si>
+    <t>D3040</t>
+  </si>
+  <si>
+    <t>D4050.0</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>D4060</t>
+  </si>
+  <si>
+    <t>D4070</t>
+  </si>
+  <si>
+    <t>D4000</t>
+  </si>
+  <si>
+    <t>Number of trays in shelf</t>
+  </si>
+  <si>
+    <t>FEEDBACK_led</t>
+  </si>
+  <si>
+    <t>D4020.0</t>
+  </si>
+  <si>
+    <t>LED feedback interface</t>
+  </si>
+  <si>
+    <t>Light intensity set to hardware</t>
+  </si>
+  <si>
+    <t>PV value set to actual hardware</t>
+  </si>
+  <si>
+    <t>CTRL_pump_fill_duration</t>
+  </si>
+  <si>
+    <t>CTRL_pump_drain_duration</t>
+  </si>
+  <si>
+    <t>D4065</t>
+  </si>
+  <si>
+    <t>D4075.0</t>
+  </si>
+  <si>
+    <t>Filling duration in sec</t>
+  </si>
+  <si>
+    <t>Draining duration in sec</t>
+  </si>
+  <si>
+    <t>FEEDBACK_fill_drain_mode_on</t>
+  </si>
+  <si>
+    <t>Scheduled fill drain mode (on when in FD mode, off when in normal mode)</t>
+  </si>
+  <si>
+    <t>FEEDBACK_fill_mode</t>
+  </si>
+  <si>
+    <t>D4080.0</t>
+  </si>
+  <si>
+    <t>D4076.0</t>
+  </si>
+  <si>
+    <t>D4085</t>
+  </si>
+  <si>
+    <t>Filling (1) or draining (0)</t>
+  </si>
+  <si>
+    <t>FEEDBACK_pump_abnormal</t>
+  </si>
+  <si>
+    <t>Assigned to turn light on/off (linked to hardware I/O)</t>
+  </si>
+  <si>
+    <t>FEEDBACK_pump_abnormal_termination</t>
+  </si>
+  <si>
+    <t>Check if pump is abnormal</t>
+  </si>
+  <si>
+    <t>Check if pump has terminated due to abnormal termination</t>
+  </si>
+  <si>
+    <t>CTRL_pump_mode</t>
+  </si>
+  <si>
+    <t>CTRL_pump_rpm_setpoint</t>
+  </si>
+  <si>
+    <t>CTRL_pump_flowrate_setpoint</t>
+  </si>
+  <si>
+    <t>D4100</t>
+  </si>
+  <si>
+    <t>RPM setpoint</t>
+  </si>
+  <si>
+    <t>Flowrate setpoint</t>
+  </si>
+  <si>
+    <t>Pump operation mode (1 - flowrate, 2 - RPM)</t>
+  </si>
+  <si>
+    <t>D4105</t>
+  </si>
+  <si>
+    <t>D4110</t>
+  </si>
+  <si>
+    <t>D4115.0</t>
+  </si>
+  <si>
+    <t>D4120</t>
+  </si>
+  <si>
+    <t>D4116.0</t>
+  </si>
+  <si>
+    <t>D4126</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_1_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_2_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_3_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_4_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_5_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_6_Arr</t>
+  </si>
+  <si>
+    <t>D4132</t>
+  </si>
+  <si>
+    <t>D4138</t>
+  </si>
+  <si>
+    <t>D4144</t>
+  </si>
+  <si>
+    <t>D4150</t>
+  </si>
+  <si>
+    <t>D4160</t>
+  </si>
+  <si>
+    <t>D4166</t>
+  </si>
+  <si>
+    <t>D4172</t>
+  </si>
+  <si>
+    <t>REF_ShelfSectionMapping_0_Arr</t>
+  </si>
+  <si>
+    <t>REF_ShelfSectionMapping_1_Arr</t>
+  </si>
+  <si>
+    <t>REF_ShelfSectionMapping_2_Arr</t>
+  </si>
+  <si>
+    <t>REF_Rack_Type</t>
+  </si>
+  <si>
+    <t>D300</t>
+  </si>
+  <si>
+    <t>Type A(1), B(2), undefined(0)</t>
   </si>
 </sst>
 </file>
@@ -2844,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,7 +3069,7 @@
         <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3062,7 +3248,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3074,12 +3260,12 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3091,7 +3277,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3130,16 +3316,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>622</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>623</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>133</v>
@@ -3150,524 +3336,524 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>622</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F17" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>237</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F18" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>234</v>
+        <v>794</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F19" t="s">
-        <v>133</v>
-      </c>
       <c r="G19" t="s">
-        <v>240</v>
+        <v>797</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F20" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F21" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>230</v>
+        <v>561</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F22" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>235</v>
+        <v>402</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F23" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>236</v>
+        <v>413</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F24" t="s">
-        <v>133</v>
+      <c r="D24" t="s">
+        <v>613</v>
+      </c>
+      <c r="E24" t="s">
+        <v>612</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>246</v>
+        <v>414</v>
       </c>
       <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>133</v>
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>613</v>
+      </c>
+      <c r="E25" t="s">
+        <v>612</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>613</v>
+      </c>
+      <c r="E26" t="s">
+        <v>612</v>
       </c>
       <c r="G26" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>247</v>
+        <v>416</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>613</v>
+      </c>
+      <c r="E27" t="s">
+        <v>612</v>
       </c>
       <c r="G27" t="s">
-        <v>248</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>805</v>
+        <v>417</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>1</v>
+      <c r="D28" t="s">
+        <v>418</v>
       </c>
       <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="G28" t="s">
-        <v>808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>806</v>
+        <v>419</v>
       </c>
       <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>611</v>
+      </c>
+      <c r="E29" t="s">
+        <v>612</v>
       </c>
       <c r="G29" t="s">
-        <v>809</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>807</v>
+        <v>420</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>605</v>
+      </c>
+      <c r="E30" t="s">
+        <v>606</v>
       </c>
       <c r="G30" t="s">
-        <v>810</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>32</v>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>408</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>433</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>624</v>
+        <v>433</v>
       </c>
       <c r="E33" t="s">
-        <v>623</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>624</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>623</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>624</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>623</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>624</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>623</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>425</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>622</v>
-      </c>
-      <c r="E38" t="s">
-        <v>623</v>
+        <v>3</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>616</v>
-      </c>
-      <c r="E39" t="s">
-        <v>617</v>
+        <v>3</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>610</v>
+        <v>447</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>611</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>440</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>440</v>
-      </c>
-      <c r="E42" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3682,12 +3868,12 @@
         <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3702,12 +3888,12 @@
         <v>133</v>
       </c>
       <c r="G47" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3722,12 +3908,12 @@
         <v>133</v>
       </c>
       <c r="G48" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3742,7 +3928,7 @@
         <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -3762,12 +3948,12 @@
         <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3782,12 +3968,12 @@
         <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3802,12 +3988,12 @@
         <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3822,389 +4008,209 @@
         <v>133</v>
       </c>
       <c r="G53" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>458</v>
+        <v>598</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
       </c>
       <c r="F54" t="s">
         <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>464</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G55" t="s">
-        <v>464</v>
+        <v>418</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
+      <c r="D56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
       </c>
       <c r="F56" t="s">
         <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" t="b">
-        <v>1</v>
+      <c r="D57" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>133</v>
       </c>
       <c r="G57" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" t="s">
-        <v>465</v>
+        <v>2</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>462</v>
+        <v>574</v>
       </c>
       <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>133</v>
+        <v>14</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E59" t="s">
+        <v>606</v>
       </c>
       <c r="G59" t="s">
-        <v>465</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>476</v>
+        <v>575</v>
       </c>
       <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>133</v>
+        <v>14</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E60" t="s">
+        <v>606</v>
       </c>
       <c r="G60" t="s">
-        <v>475</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="E61" t="s">
+        <v>793</v>
       </c>
       <c r="F61" t="s">
         <v>133</v>
       </c>
       <c r="G61" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
       </c>
       <c r="F62" t="s">
         <v>133</v>
       </c>
       <c r="G62" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="E63" t="s">
+        <v>793</v>
       </c>
       <c r="F63" t="s">
         <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>471</v>
+        <v>583</v>
       </c>
       <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>425</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>482</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="E64" t="s">
+        <v>608</v>
+      </c>
+      <c r="F64" t="s">
         <v>133</v>
       </c>
-      <c r="G65" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>483</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
-        <v>133</v>
-      </c>
-      <c r="G66" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>474</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>581</v>
-      </c>
-      <c r="C68">
-        <v>14</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="E68" t="s">
-        <v>617</v>
-      </c>
-      <c r="G68" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>582</v>
-      </c>
-      <c r="C69">
-        <v>14</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="E69" t="s">
-        <v>617</v>
-      </c>
-      <c r="G69" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>583</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="E70" t="s">
-        <v>804</v>
-      </c>
-      <c r="F70" t="s">
-        <v>133</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="G64" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>585</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>133</v>
-      </c>
-      <c r="G71" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>587</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="E72" t="s">
-        <v>804</v>
-      </c>
-      <c r="F72" t="s">
-        <v>133</v>
-      </c>
-      <c r="G72" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>590</v>
-      </c>
-      <c r="C73">
-        <v>14</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="E73" t="s">
-        <v>619</v>
-      </c>
-      <c r="F73" t="s">
-        <v>133</v>
-      </c>
-      <c r="G73" t="s">
-        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4217,7 +4223,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4258,7 +4264,7 @@
         <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4281,7 +4287,7 @@
         <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
@@ -4377,7 +4383,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4395,7 +4401,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -5298,7 +5304,7 @@
         <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5402,7 +5408,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,7 +5444,7 @@
         <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5495,12 +5501,12 @@
         <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -5585,7 +5591,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -5602,7 +5608,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5619,7 +5625,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -5636,7 +5642,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -5653,7 +5659,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -5668,12 +5674,12 @@
         <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -5688,12 +5694,12 @@
         <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -5708,12 +5714,12 @@
         <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -5728,12 +5734,12 @@
         <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -5748,12 +5754,12 @@
         <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -5765,12 +5771,12 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -5782,12 +5788,12 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -5802,12 +5808,12 @@
         <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -5822,12 +5828,12 @@
         <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -5842,12 +5848,12 @@
         <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -5862,12 +5868,12 @@
         <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -5879,12 +5885,12 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -5899,12 +5905,12 @@
         <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5919,12 +5925,12 @@
         <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -5933,13 +5939,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F28" t="s">
         <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -5949,15 +5955,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
@@ -5984,12 +5990,12 @@
         <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="B2" t="s">
         <v>151</v>
@@ -6003,7 +6009,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B3" t="s">
         <v>152</v>
@@ -6017,7 +6023,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B4" t="s">
         <v>153</v>
@@ -6031,7 +6037,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B5" t="s">
         <v>154</v>
@@ -6045,10 +6051,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -6059,10 +6065,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="B7" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -6073,10 +6079,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="B8" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -6087,10 +6093,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="B9" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -6101,10 +6107,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="B10" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -6115,10 +6121,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B11" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -6129,7 +6135,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -6143,7 +6149,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
@@ -6157,7 +6163,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="B14" t="s">
         <v>157</v>
@@ -6171,7 +6177,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="B15" t="s">
         <v>158</v>
@@ -6185,10 +6191,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="B16" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -6197,15 +6203,15 @@
         <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="B17" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -6214,15 +6220,15 @@
         <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="B18" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -6231,15 +6237,15 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B19" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -6248,15 +6254,15 @@
         <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="B20" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -6265,15 +6271,15 @@
         <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B21" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -6282,15 +6288,15 @@
         <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="B22" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -6299,15 +6305,15 @@
         <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B23" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -6316,15 +6322,15 @@
         <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B24" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -6333,15 +6339,15 @@
         <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B25" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -6350,15 +6356,15 @@
         <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B26" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -6367,15 +6373,15 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B27" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -6384,15 +6390,15 @@
         <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B28" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -6401,15 +6407,15 @@
         <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B29" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -6418,15 +6424,15 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B30" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -6435,15 +6441,15 @@
         <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B31" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -6452,12 +6458,12 @@
         <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B32" t="s">
         <v>159</v>
@@ -6472,12 +6478,12 @@
         <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B33" t="s">
         <v>160</v>
@@ -6492,12 +6498,12 @@
         <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B34" t="s">
         <v>161</v>
@@ -6512,12 +6518,12 @@
         <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B35" t="s">
         <v>162</v>
@@ -6532,12 +6538,12 @@
         <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="B36" t="s">
         <v>163</v>
@@ -6552,12 +6558,12 @@
         <v>133</v>
       </c>
       <c r="F36" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B37" t="s">
         <v>164</v>
@@ -6572,12 +6578,12 @@
         <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B38" t="s">
         <v>165</v>
@@ -6592,12 +6598,12 @@
         <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="B39" t="s">
         <v>166</v>
@@ -6612,15 +6618,15 @@
         <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="B40" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -6632,15 +6638,15 @@
         <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B41" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -6652,15 +6658,15 @@
         <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B42" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -6672,15 +6678,15 @@
         <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B43" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -6692,15 +6698,15 @@
         <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B44" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -6712,15 +6718,15 @@
         <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B45" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -6732,15 +6738,15 @@
         <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B46" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -6752,15 +6758,15 @@
         <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="B47" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -6772,15 +6778,15 @@
         <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B48" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -6792,15 +6798,15 @@
         <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B49" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -6812,15 +6818,15 @@
         <v>133</v>
       </c>
       <c r="F49" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B50" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -6832,15 +6838,15 @@
         <v>133</v>
       </c>
       <c r="F50" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B51" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -6852,15 +6858,15 @@
         <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B52" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -6872,15 +6878,15 @@
         <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B53" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -6892,15 +6898,15 @@
         <v>133</v>
       </c>
       <c r="F53" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B54" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -6912,15 +6918,15 @@
         <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B55" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -6932,15 +6938,15 @@
         <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B56" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -6952,15 +6958,15 @@
         <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="B57" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -6972,15 +6978,15 @@
         <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="B58" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -6992,15 +6998,15 @@
         <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B59" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -7012,15 +7018,15 @@
         <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B60" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -7031,10 +7037,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B61" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -7045,10 +7051,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B62" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -7059,10 +7065,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B63" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -7073,10 +7079,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B64" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -7085,15 +7091,15 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="B65" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -7102,15 +7108,15 @@
         <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B66" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -7119,15 +7125,15 @@
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B67" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -7136,15 +7142,15 @@
         <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="B68" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -7153,15 +7159,15 @@
         <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="B69" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -7170,15 +7176,15 @@
         <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B70" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -7187,15 +7193,15 @@
         <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="B71" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -7204,15 +7210,15 @@
         <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B72" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -7221,15 +7227,15 @@
         <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B73" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -7238,15 +7244,15 @@
         <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B74" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -7255,15 +7261,15 @@
         <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="B75" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -7272,15 +7278,15 @@
         <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B76" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -7289,15 +7295,15 @@
         <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B77" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -7306,15 +7312,15 @@
         <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B78" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -7323,15 +7329,15 @@
         <v>131</v>
       </c>
       <c r="F78" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -7340,15 +7346,15 @@
         <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B80" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -7357,15 +7363,15 @@
         <v>131</v>
       </c>
       <c r="F80" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -7374,15 +7380,15 @@
         <v>131</v>
       </c>
       <c r="F81" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -7391,15 +7397,15 @@
         <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B83" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -7408,15 +7414,15 @@
         <v>131</v>
       </c>
       <c r="F83" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -7425,15 +7431,15 @@
         <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B85" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -7442,15 +7448,15 @@
         <v>131</v>
       </c>
       <c r="F85" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B86" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -7459,15 +7465,15 @@
         <v>131</v>
       </c>
       <c r="F86" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B87" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -7476,15 +7482,15 @@
         <v>131</v>
       </c>
       <c r="F87" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="B88" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -7493,15 +7499,15 @@
         <v>131</v>
       </c>
       <c r="F88" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="B89" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -7510,15 +7516,15 @@
         <v>131</v>
       </c>
       <c r="F89" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="B90" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -7527,15 +7533,15 @@
         <v>131</v>
       </c>
       <c r="F90" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="B91" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -7544,15 +7550,15 @@
         <v>131</v>
       </c>
       <c r="F91" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B92" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -7561,15 +7567,15 @@
         <v>-1</v>
       </c>
       <c r="F92" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -7578,15 +7584,15 @@
         <v>-1</v>
       </c>
       <c r="F93" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B94" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -7595,15 +7601,15 @@
         <v>-1</v>
       </c>
       <c r="F94" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B95" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -7612,15 +7618,15 @@
         <v>-1</v>
       </c>
       <c r="F95" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B96" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -7629,15 +7635,15 @@
         <v>-1</v>
       </c>
       <c r="F96" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B97" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -7646,15 +7652,15 @@
         <v>-1</v>
       </c>
       <c r="F97" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B98" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -7663,15 +7669,15 @@
         <v>-1</v>
       </c>
       <c r="F98" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B99" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -7680,15 +7686,15 @@
         <v>-1</v>
       </c>
       <c r="F99" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B100" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -7697,15 +7703,15 @@
         <v>-1</v>
       </c>
       <c r="F100" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B101" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -7714,15 +7720,15 @@
         <v>-1</v>
       </c>
       <c r="F101" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B102" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -7731,15 +7737,15 @@
         <v>-1</v>
       </c>
       <c r="F102" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B103" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -7748,15 +7754,15 @@
         <v>-1</v>
       </c>
       <c r="F103" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="B104" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -7765,15 +7771,15 @@
         <v>-1</v>
       </c>
       <c r="F104" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="B105" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -7782,15 +7788,15 @@
         <v>-1</v>
       </c>
       <c r="F105" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B106" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -7799,15 +7805,15 @@
         <v>-1</v>
       </c>
       <c r="F106" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="B107" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -7816,15 +7822,15 @@
         <v>-1</v>
       </c>
       <c r="F107" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="B108" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -7833,15 +7839,15 @@
         <v>-1</v>
       </c>
       <c r="F108" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="B109" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -7850,7 +7856,7 @@
         <v>-1</v>
       </c>
       <c r="F109" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -7858,7 +7864,7 @@
         <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -7867,7 +7873,7 @@
         <v>-1</v>
       </c>
       <c r="F110" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -7875,7 +7881,7 @@
         <v>168</v>
       </c>
       <c r="B111" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -7884,7 +7890,7 @@
         <v>-1</v>
       </c>
       <c r="F111" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -7892,7 +7898,7 @@
         <v>169</v>
       </c>
       <c r="B112" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -7901,7 +7907,7 @@
         <v>-1</v>
       </c>
       <c r="F112" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -7909,7 +7915,7 @@
         <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -7918,7 +7924,7 @@
         <v>-1</v>
       </c>
       <c r="F113" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -7926,7 +7932,7 @@
         <v>171</v>
       </c>
       <c r="B114" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -7935,7 +7941,7 @@
         <v>-1</v>
       </c>
       <c r="F114" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -7943,7 +7949,7 @@
         <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -7952,7 +7958,7 @@
         <v>-1</v>
       </c>
       <c r="F115" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -7972,7 +7978,7 @@
         <v>133</v>
       </c>
       <c r="F116" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -7989,7 +7995,7 @@
         <v>-1</v>
       </c>
       <c r="F117" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -8006,7 +8012,7 @@
         <v>-1</v>
       </c>
       <c r="F118" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -8025,22 +8031,22 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B120" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D120" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E120" t="s">
         <v>133</v>
       </c>
       <c r="F120" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -8048,7 +8054,7 @@
         <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -8057,7 +8063,7 @@
         <v>-1</v>
       </c>
       <c r="F121" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -8065,7 +8071,7 @@
         <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -8074,7 +8080,7 @@
         <v>-1</v>
       </c>
       <c r="F122" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -8082,7 +8088,7 @@
         <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -8091,7 +8097,7 @@
         <v>-1</v>
       </c>
       <c r="F123" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -8099,7 +8105,7 @@
         <v>184</v>
       </c>
       <c r="B124" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -8108,7 +8114,7 @@
         <v>-1</v>
       </c>
       <c r="F124" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -8116,7 +8122,7 @@
         <v>185</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -8125,7 +8131,7 @@
         <v>-1</v>
       </c>
       <c r="F125" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -8133,7 +8139,7 @@
         <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -8142,7 +8148,7 @@
         <v>-1</v>
       </c>
       <c r="F126" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -8162,7 +8168,7 @@
         <v>133</v>
       </c>
       <c r="F127" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -8179,7 +8185,7 @@
         <v>-1</v>
       </c>
       <c r="F128" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -8187,7 +8193,7 @@
         <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -8196,7 +8202,7 @@
         <v>-1</v>
       </c>
       <c r="F129" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -8215,30 +8221,30 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B131" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D131" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E131" t="s">
         <v>133</v>
       </c>
       <c r="F131" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B132" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
@@ -8247,18 +8253,18 @@
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B133" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C133" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -8266,42 +8272,510 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>612</v>
+        <v>876</v>
       </c>
       <c r="B134" t="s">
-        <v>815</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="D134" t="s">
-        <v>617</v>
-      </c>
-      <c r="E134" t="s">
-        <v>133</v>
+        <v>877</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>613</v>
+        <v>878</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>614</v>
+        <v>815</v>
       </c>
       <c r="B135" t="s">
-        <v>816</v>
+        <v>508</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D135" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
       </c>
       <c r="F135" t="s">
-        <v>615</v>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>802</v>
+      </c>
+      <c r="B136" t="s">
+        <v>814</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D136" t="s">
+        <v>606</v>
+      </c>
+      <c r="E136" t="s">
+        <v>133</v>
+      </c>
+      <c r="F136" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>816</v>
+      </c>
+      <c r="B137" t="s">
+        <v>817</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D137" t="s">
+        <v>606</v>
+      </c>
+      <c r="F137" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>803</v>
+      </c>
+      <c r="B138" t="s">
+        <v>822</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D138" t="s">
+        <v>606</v>
+      </c>
+      <c r="F138" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>824</v>
+      </c>
+      <c r="B139" t="s">
+        <v>825</v>
+      </c>
+      <c r="C139" t="s">
+        <v>607</v>
+      </c>
+      <c r="D139" t="s">
+        <v>608</v>
+      </c>
+      <c r="F139" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>808</v>
+      </c>
+      <c r="B140" t="s">
+        <v>818</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>809</v>
+      </c>
+      <c r="B141" t="s">
+        <v>819</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>812</v>
+      </c>
+      <c r="B142" t="s">
+        <v>820</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>829</v>
+      </c>
+      <c r="B143" t="s">
+        <v>831</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>830</v>
+      </c>
+      <c r="B144" t="s">
+        <v>821</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>835</v>
+      </c>
+      <c r="B145" t="s">
+        <v>832</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>837</v>
+      </c>
+      <c r="B146" t="s">
+        <v>839</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>804</v>
+      </c>
+      <c r="B147" t="s">
+        <v>838</v>
+      </c>
+      <c r="C147" t="s">
+        <v>607</v>
+      </c>
+      <c r="D147" t="s">
+        <v>608</v>
+      </c>
+      <c r="F147" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>805</v>
+      </c>
+      <c r="B148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D148" t="s">
+        <v>606</v>
+      </c>
+      <c r="F148" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>847</v>
+      </c>
+      <c r="B149" t="s">
+        <v>850</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>848</v>
+      </c>
+      <c r="B150" t="s">
+        <v>854</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>849</v>
+      </c>
+      <c r="B151" t="s">
+        <v>855</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>842</v>
+      </c>
+      <c r="B152" t="s">
+        <v>856</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>844</v>
+      </c>
+      <c r="B153" t="s">
+        <v>858</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>860</v>
+      </c>
+      <c r="B154" t="s">
+        <v>857</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F154" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>861</v>
+      </c>
+      <c r="B155" t="s">
+        <v>859</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F155" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>862</v>
+      </c>
+      <c r="B156" t="s">
+        <v>866</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F156" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>863</v>
+      </c>
+      <c r="B157" t="s">
+        <v>867</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F157" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>864</v>
+      </c>
+      <c r="B158" t="s">
+        <v>868</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F158" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>865</v>
+      </c>
+      <c r="B159" t="s">
+        <v>869</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F159" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>873</v>
+      </c>
+      <c r="B160" t="s">
+        <v>870</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E160" t="s">
+        <v>133</v>
+      </c>
+      <c r="F160" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>874</v>
+      </c>
+      <c r="B161" t="s">
+        <v>871</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E161" t="s">
+        <v>133</v>
+      </c>
+      <c r="F161" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>875</v>
+      </c>
+      <c r="B162" t="s">
+        <v>872</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E162" t="s">
+        <v>133</v>
+      </c>
+      <c r="F162" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -8343,7 +8817,7 @@
         <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8435,7 +8909,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -8447,7 +8921,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -8459,7 +8933,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -8504,7 +8978,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C15" t="s">
         <v>143</v>
@@ -8515,7 +8989,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
         <v>143</v>
@@ -8526,7 +9000,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C17" t="s">
         <v>143</v>
@@ -8537,7 +9011,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
         <v>143</v>
@@ -8548,7 +9022,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
         <v>143</v>
@@ -8559,7 +9033,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C20" t="s">
         <v>143</v>
@@ -8570,7 +9044,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C21" t="s">
         <v>143</v>
@@ -8581,7 +9055,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C22" t="s">
         <v>143</v>
@@ -8592,7 +9066,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C23" t="s">
         <v>143</v>
@@ -8603,7 +9077,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -8614,7 +9088,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -8625,7 +9099,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -8636,7 +9110,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -8647,7 +9121,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -8658,7 +9132,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -8669,7 +9143,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -8680,7 +9154,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -8691,7 +9165,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -8702,7 +9176,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -8713,7 +9187,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -8724,7 +9198,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -8735,7 +9209,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -8746,7 +9220,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -8757,7 +9231,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -8768,7 +9242,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -8779,7 +9253,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -8790,7 +9264,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -8801,7 +9275,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -8812,7 +9286,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -8823,7 +9297,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -8834,7 +9308,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -8845,7 +9319,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -8856,7 +9330,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -8867,7 +9341,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -8878,7 +9352,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -8889,7 +9363,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -8900,7 +9374,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -8911,7 +9385,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -8922,7 +9396,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -8933,7 +9407,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -8944,7 +9418,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -8955,7 +9429,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -8966,7 +9440,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -8977,7 +9451,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -8988,7 +9462,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -8999,7 +9473,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -9010,7 +9484,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -9021,7 +9495,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -9032,7 +9506,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -9043,7 +9517,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -9054,7 +9528,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -9065,7 +9539,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -9076,7 +9550,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -9087,7 +9561,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -9098,7 +9572,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -9109,7 +9583,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -9120,7 +9594,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -9131,7 +9605,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -9142,7 +9616,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -9153,7 +9627,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -9164,7 +9638,7 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -9175,7 +9649,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -9186,7 +9660,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -9197,7 +9671,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -9208,7 +9682,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -9219,7 +9693,7 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -9230,7 +9704,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -9241,7 +9715,7 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -9252,7 +9726,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -9263,7 +9737,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -9274,7 +9748,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -9285,7 +9759,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -9296,7 +9770,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -9307,7 +9781,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -9318,7 +9792,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -9329,7 +9803,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -9340,7 +9814,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -9351,7 +9825,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -9362,7 +9836,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -9373,7 +9847,7 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -9384,7 +9858,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -9395,7 +9869,7 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -9406,7 +9880,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -9417,7 +9891,7 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -9428,7 +9902,7 @@
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -9439,7 +9913,7 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -9450,7 +9924,7 @@
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -9461,7 +9935,7 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -9472,7 +9946,7 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -9483,7 +9957,7 @@
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -9494,7 +9968,7 @@
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -9505,7 +9979,7 @@
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -9516,7 +9990,7 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -9527,7 +10001,7 @@
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -9538,7 +10012,7 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -9549,7 +10023,7 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -9560,7 +10034,7 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -9571,7 +10045,7 @@
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -9582,7 +10056,7 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -9593,7 +10067,7 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -9604,7 +10078,7 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -9615,7 +10089,7 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -9626,7 +10100,7 @@
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -9637,7 +10111,7 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -9648,7 +10122,7 @@
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -9659,7 +10133,7 @@
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -9670,7 +10144,7 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -9681,7 +10155,7 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -9692,7 +10166,7 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -9703,7 +10177,7 @@
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -9714,7 +10188,7 @@
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -9725,7 +10199,7 @@
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -9736,7 +10210,7 @@
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -9747,7 +10221,7 @@
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -9758,7 +10232,7 @@
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -9769,7 +10243,7 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
@@ -9780,7 +10254,7 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
@@ -9791,7 +10265,7 @@
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
@@ -9802,7 +10276,7 @@
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C133" t="s">
         <v>143</v>
@@ -9813,7 +10287,7 @@
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C134" t="s">
         <v>143</v>
@@ -9824,7 +10298,7 @@
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C135" t="s">
         <v>143</v>
@@ -9835,7 +10309,7 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -9846,7 +10320,7 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C137" t="s">
         <v>143</v>
@@ -9857,7 +10331,7 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C138" t="s">
         <v>143</v>
@@ -9868,7 +10342,7 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C139" t="s">
         <v>143</v>
@@ -9879,7 +10353,7 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C140" t="s">
         <v>143</v>
@@ -9890,7 +10364,7 @@
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C141" t="s">
         <v>143</v>
@@ -9901,7 +10375,7 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C142" t="s">
         <v>143</v>
@@ -9912,7 +10386,7 @@
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C143" t="s">
         <v>143</v>
@@ -9923,7 +10397,7 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C144" t="s">
         <v>143</v>
@@ -9934,7 +10408,7 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C145" t="s">
         <v>143</v>
@@ -9945,7 +10419,7 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="C146" t="s">
         <v>143</v>
@@ -9956,7 +10430,7 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C147" t="s">
         <v>143</v>
@@ -10002,154 +10476,154 @@
         <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" t="s">
         <v>488</v>
-      </c>
-      <c r="B4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="E4" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E5" t="s">
         <v>489</v>
-      </c>
-      <c r="B5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="E5" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E6" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E8" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E9" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10157,13 +10631,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10171,13 +10645,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10185,13 +10659,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B13" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10199,13 +10673,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B14" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -10213,10 +10687,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>1</v>
@@ -10225,15 +10699,15 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B16" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>1</v>
@@ -10242,15 +10716,15 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>1</v>
@@ -10259,15 +10733,15 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B18" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>1</v>
@@ -10276,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
+++ b/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="897">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -2463,9 +2463,6 @@
     <t>Control Shelf stage duration percentage</t>
   </si>
   <si>
-    <t>CTRL_pump_fill_drain_mode</t>
-  </si>
-  <si>
     <t>CTRL_pump_fill_mode_flowrate</t>
   </si>
   <si>
@@ -2674,6 +2671,63 @@
   </si>
   <si>
     <t>Type A(1), B(2), undefined(0)</t>
+  </si>
+  <si>
+    <t>D250.0</t>
+  </si>
+  <si>
+    <t>E-stop</t>
+  </si>
+  <si>
+    <t>FEEDBACK_ESTOP_Status</t>
+  </si>
+  <si>
+    <t>FEEDBACK_pump_rpm</t>
+  </si>
+  <si>
+    <t>FEEDBACK_pump_flowrate</t>
+  </si>
+  <si>
+    <t>D4180</t>
+  </si>
+  <si>
+    <t>RPM reading</t>
+  </si>
+  <si>
+    <t>Flowrate reading</t>
+  </si>
+  <si>
+    <t>D4183</t>
+  </si>
+  <si>
+    <t>D4186</t>
+  </si>
+  <si>
+    <t>Flowrate per shelf</t>
+  </si>
+  <si>
+    <t>REF_pump_flowrate_per_shelf_setpoint</t>
+  </si>
+  <si>
+    <t>Recovery from PID ramp up of pump due to low water</t>
+  </si>
+  <si>
+    <t>D4190.0</t>
+  </si>
+  <si>
+    <t>CTRL_pump_pid_recovery</t>
+  </si>
+  <si>
+    <t>FEEDBACK_pump_fill_drain_timer</t>
+  </si>
+  <si>
+    <t>D4192</t>
+  </si>
+  <si>
+    <t>Running timer for both fill and drain mode</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -3032,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5407,8 +5461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5955,10 +6009,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8272,47 +8326,44 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B134" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C134" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>815</v>
+        <v>875</v>
       </c>
       <c r="B135" t="s">
-        <v>508</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D135" t="s">
-        <v>606</v>
-      </c>
-      <c r="E135" t="s">
-        <v>133</v>
+        <v>876</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>806</v>
+        <v>877</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="B136" t="s">
-        <v>814</v>
+        <v>508</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>605</v>
@@ -8324,15 +8375,15 @@
         <v>133</v>
       </c>
       <c r="F136" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="B137" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>605</v>
@@ -8340,16 +8391,19 @@
       <c r="D137" t="s">
         <v>606</v>
       </c>
+      <c r="E137" t="s">
+        <v>133</v>
+      </c>
       <c r="F137" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="B138" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>605</v>
@@ -8358,66 +8412,66 @@
         <v>606</v>
       </c>
       <c r="F138" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="B139" t="s">
-        <v>825</v>
-      </c>
-      <c r="C139" t="s">
-        <v>607</v>
+        <v>821</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>605</v>
       </c>
       <c r="D139" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F139" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="B140" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>607</v>
       </c>
       <c r="D140" t="s">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="F140" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>896</v>
+      </c>
+      <c r="B141" t="s">
+        <v>817</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
         <v>809</v>
-      </c>
-      <c r="B141" t="s">
-        <v>819</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B142" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>11</v>
@@ -8426,15 +8480,15 @@
         <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="B143" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>11</v>
@@ -8443,15 +8497,15 @@
         <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>828</v>
+      </c>
+      <c r="B144" t="s">
         <v>830</v>
-      </c>
-      <c r="B144" t="s">
-        <v>821</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>11</v>
@@ -8460,32 +8514,32 @@
         <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B145" t="s">
-        <v>832</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2</v>
+        <v>820</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B146" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -8494,66 +8548,66 @@
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>804</v>
+        <v>836</v>
       </c>
       <c r="B147" t="s">
         <v>838</v>
       </c>
       <c r="C147" t="s">
-        <v>607</v>
+        <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B148" t="s">
-        <v>840</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>605</v>
+        <v>837</v>
+      </c>
+      <c r="C148" t="s">
+        <v>607</v>
       </c>
       <c r="D148" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F148" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>847</v>
+        <v>805</v>
       </c>
       <c r="B149" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>11</v>
+        <v>605</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>606</v>
       </c>
       <c r="F149" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B150" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>11</v>
@@ -8562,15 +8616,15 @@
         <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B151" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>11</v>
@@ -8579,32 +8633,32 @@
         <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B152" t="s">
-        <v>856</v>
-      </c>
-      <c r="C152" t="s">
-        <v>2</v>
+        <v>854</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B153" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -8613,32 +8667,32 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="B154" t="s">
         <v>857</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>612</v>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>231</v>
+        <v>845</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B155" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>611</v>
@@ -8647,15 +8701,15 @@
         <v>612</v>
       </c>
       <c r="F155" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B156" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>611</v>
@@ -8664,15 +8718,15 @@
         <v>612</v>
       </c>
       <c r="F156" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B157" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>611</v>
@@ -8681,15 +8735,15 @@
         <v>612</v>
       </c>
       <c r="F157" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B158" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>611</v>
@@ -8698,15 +8752,15 @@
         <v>612</v>
       </c>
       <c r="F158" t="s">
-        <v>800</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B159" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>611</v>
@@ -8715,15 +8769,15 @@
         <v>612</v>
       </c>
       <c r="F159" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B160" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>611</v>
@@ -8731,19 +8785,16 @@
       <c r="D160" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="E160" t="s">
-        <v>133</v>
-      </c>
       <c r="F160" t="s">
-        <v>234</v>
+        <v>801</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B161" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>611</v>
@@ -8755,15 +8806,15 @@
         <v>133</v>
       </c>
       <c r="F161" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B162" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>611</v>
@@ -8775,7 +8826,112 @@
         <v>133</v>
       </c>
       <c r="F162" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>874</v>
+      </c>
+      <c r="B163" t="s">
+        <v>871</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E163" t="s">
+        <v>133</v>
+      </c>
+      <c r="F163" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>881</v>
+      </c>
+      <c r="B164" t="s">
+        <v>883</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>882</v>
+      </c>
+      <c r="B165" t="s">
+        <v>886</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>889</v>
+      </c>
+      <c r="B166" t="s">
+        <v>887</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>892</v>
+      </c>
+      <c r="B167" t="s">
+        <v>891</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>893</v>
+      </c>
+      <c r="B168" t="s">
+        <v>894</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" t="s">
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
+++ b/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="890">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -753,9 +753,6 @@
     <t>shelf_x mode auto-1, semi-2, manual-3</t>
   </si>
   <si>
-    <t>secMode[0] : section 0 mode etc.</t>
-  </si>
-  <si>
     <t>secModeArr</t>
   </si>
   <si>
@@ -774,252 +771,12 @@
     <t>offset from shelf_x_addr to get shelf_x_manuLightIntens</t>
   </si>
   <si>
-    <t>S0_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S0_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S0_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S0_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S0_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S0_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S0_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S0_LIGHT_OFF_MM</t>
-  </si>
-  <si>
     <t>SHELF_AUTO_WATER_REG_SIZE</t>
   </si>
   <si>
     <t>SHELF_AUTO_CURRENT_NO</t>
   </si>
   <si>
-    <t>S1_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S1_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S1_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S1_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S1_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S1_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S1_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S1_LIGHT_OFF_MM</t>
-  </si>
-  <si>
-    <t>S2_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S2_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S2_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S2_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S2_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S2_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S2_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S2_LIGHT_OFF_MM</t>
-  </si>
-  <si>
-    <t>S3_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S3_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S3_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S3_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S3_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S3_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S3_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S3_LIGHT_OFF_MM</t>
-  </si>
-  <si>
-    <t>S4_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S4_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S4_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S4_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S4_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S4_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S4_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S4_LIGHT_OFF_MM</t>
-  </si>
-  <si>
-    <t>S5_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S5_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S5_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S5_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S5_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S5_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S5_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S5_LIGHT_OFF_MM</t>
-  </si>
-  <si>
-    <t>S6_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S6_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S6_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S6_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S6_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S6_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S6_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S6_LIGHT_OFF_MM</t>
-  </si>
-  <si>
-    <t>S7_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S7_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S7_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S7_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S7_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S7_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S7_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S7_LIGHT_OFF_MM</t>
-  </si>
-  <si>
-    <t>S8_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S8_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S8_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S8_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S8_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S8_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S8_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S8_LIGHT_OFF_MM</t>
-  </si>
-  <si>
-    <t>S9_WATER_ON_HH</t>
-  </si>
-  <si>
-    <t>S9_WATER_ON_MM</t>
-  </si>
-  <si>
-    <t>S9_WATER_OFF_HH</t>
-  </si>
-  <si>
-    <t>S9_WATER_OFF_MM</t>
-  </si>
-  <si>
-    <t>S9_LIGHT_ON_HH</t>
-  </si>
-  <si>
-    <t>S9_LIGHT_ON_MM</t>
-  </si>
-  <si>
-    <t>S9_LIGHT_OFF_HH</t>
-  </si>
-  <si>
-    <t>S9_LIGHT_OFF_MM</t>
-  </si>
-  <si>
     <t>SHELF_AUTO_OFFSET_ADDR</t>
   </si>
   <si>
@@ -1671,18 +1428,6 @@
     <t>Whether it's currently in Fill mode (0) or Drain mode (1)</t>
   </si>
   <si>
-    <t>P0_START_TIME_HH</t>
-  </si>
-  <si>
-    <t>P0_START_TIME_MM</t>
-  </si>
-  <si>
-    <t>P0_END_TIME_HH</t>
-  </si>
-  <si>
-    <t>P0_END_TIME_MM</t>
-  </si>
-  <si>
     <t>Operation mode (FALSE - steady water supply, TRUE - on off mode)</t>
   </si>
   <si>
@@ -1719,9 +1464,6 @@
     <t>Turn on or off fill-drain mode</t>
   </si>
   <si>
-    <t>USE_P0_SCHEDULE</t>
-  </si>
-  <si>
     <t>flowratePerShelf_local</t>
   </si>
   <si>
@@ -1803,48 +1545,12 @@
     <t>Overflow sensor</t>
   </si>
   <si>
-    <t>OVERFLOW_LOCAL_0</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_1</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_2</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_3</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_4</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_5</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_6</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_7</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_8</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_9</t>
-  </si>
-  <si>
     <t>stat_energy_consumption</t>
   </si>
   <si>
     <t>Energy power meter reading</t>
   </si>
   <si>
-    <t>OVERFLOW_LOCAL_10</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_11</t>
-  </si>
-  <si>
     <t>[3(32)]</t>
   </si>
   <si>
@@ -1866,21 +1572,6 @@
     <t>[14(FALSE)]</t>
   </si>
   <si>
-    <t>OVERFLOW_LOCAL_12</t>
-  </si>
-  <si>
-    <t>OVERFLOW_LOCAL_13</t>
-  </si>
-  <si>
-    <t>ARRAY [6] OF WORD</t>
-  </si>
-  <si>
-    <t>[6(0)]</t>
-  </si>
-  <si>
-    <t>ARRAY [6] OF INT</t>
-  </si>
-  <si>
     <t>X1.10</t>
   </si>
   <si>
@@ -2445,9 +2136,6 @@
     <t>PV look-up values when only 6 valves are on</t>
   </si>
   <si>
-    <t>CTRL_shelf_stage_percentage</t>
-  </si>
-  <si>
     <t>CTRL_pv_value</t>
   </si>
   <si>
@@ -2466,9 +2154,6 @@
     <t>CTRL_pump_fill_mode_flowrate</t>
   </si>
   <si>
-    <t>Control for Fill drain  mode (0 - normal, 1 - fill drain mode)</t>
-  </si>
-  <si>
     <t>Control for fill mode (flowrate)</t>
   </si>
   <si>
@@ -2481,12 +2166,6 @@
     <t>D3020</t>
   </si>
   <si>
-    <t>CTRL_shelf_stage_number</t>
-  </si>
-  <si>
-    <t>CTRL_shelf_numtray</t>
-  </si>
-  <si>
     <t>D3040</t>
   </si>
   <si>
@@ -2595,9 +2274,6 @@
     <t>Flowrate setpoint</t>
   </si>
   <si>
-    <t>Pump operation mode (1 - flowrate, 2 - RPM)</t>
-  </si>
-  <si>
     <t>D4105</t>
   </si>
   <si>
@@ -2613,9 +2289,6 @@
     <t>D4116.0</t>
   </si>
   <si>
-    <t>D4126</t>
-  </si>
-  <si>
     <t>REF_PVLookup_1_Arr</t>
   </si>
   <si>
@@ -2634,27 +2307,6 @@
     <t>REF_PVLookup_6_Arr</t>
   </si>
   <si>
-    <t>D4132</t>
-  </si>
-  <si>
-    <t>D4138</t>
-  </si>
-  <si>
-    <t>D4144</t>
-  </si>
-  <si>
-    <t>D4150</t>
-  </si>
-  <si>
-    <t>D4160</t>
-  </si>
-  <si>
-    <t>D4166</t>
-  </si>
-  <si>
-    <t>D4172</t>
-  </si>
-  <si>
     <t>REF_ShelfSectionMapping_0_Arr</t>
   </si>
   <si>
@@ -2688,21 +2340,12 @@
     <t>FEEDBACK_pump_flowrate</t>
   </si>
   <si>
-    <t>D4180</t>
-  </si>
-  <si>
     <t>RPM reading</t>
   </si>
   <si>
     <t>Flowrate reading</t>
   </si>
   <si>
-    <t>D4183</t>
-  </si>
-  <si>
-    <t>D4186</t>
-  </si>
-  <si>
     <t>Flowrate per shelf</t>
   </si>
   <si>
@@ -2712,22 +2355,358 @@
     <t>Recovery from PID ramp up of pump due to low water</t>
   </si>
   <si>
-    <t>D4190.0</t>
-  </si>
-  <si>
     <t>CTRL_pump_pid_recovery</t>
   </si>
   <si>
     <t>FEEDBACK_pump_fill_drain_timer</t>
   </si>
   <si>
-    <t>D4192</t>
-  </si>
-  <si>
     <t>Running timer for both fill and drain mode</t>
   </si>
   <si>
-    <t>B</t>
+    <t>CTRL_shelf_valve</t>
+  </si>
+  <si>
+    <t>ARRAY [2] OF BOOL</t>
+  </si>
+  <si>
+    <t>[2(FALSE)]</t>
+  </si>
+  <si>
+    <t>Extra valve control for each rack</t>
+  </si>
+  <si>
+    <t>D3060.0</t>
+  </si>
+  <si>
+    <t>CTRL_pump_fill_drain_mode</t>
+  </si>
+  <si>
+    <t>CTRL for fill drain mode (false = normal, true = Fill drain mode)</t>
+  </si>
+  <si>
+    <t>FEEDBACK_shelf_stage_number</t>
+  </si>
+  <si>
+    <t>FEEDBACK_shelf_stage_percentage</t>
+  </si>
+  <si>
+    <t>FEEDBACK_shelf_numtray</t>
+  </si>
+  <si>
+    <t>Pump operation mode (0 - auto, 1 - flowrate, 2 - RPM)</t>
+  </si>
+  <si>
+    <t>CTRL_pump_on</t>
+  </si>
+  <si>
+    <t>Pump on/off</t>
+  </si>
+  <si>
+    <t>FEEDBACK_overflow</t>
+  </si>
+  <si>
+    <t>[28(FALSE)]</t>
+  </si>
+  <si>
+    <t>Intermediate overflow indicator</t>
+  </si>
+  <si>
+    <t>LED feedback interface (Intermediate)</t>
+  </si>
+  <si>
+    <t>ARRAY [28] OF BOOL</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_7_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_8_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_9_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_10_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_11_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_12_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_13_Arr</t>
+  </si>
+  <si>
+    <t>REF_PVLookup_14_Arr</t>
+  </si>
+  <si>
+    <t>D4134</t>
+  </si>
+  <si>
+    <t>D4148</t>
+  </si>
+  <si>
+    <t>D4162</t>
+  </si>
+  <si>
+    <t>D4176</t>
+  </si>
+  <si>
+    <t>D4204</t>
+  </si>
+  <si>
+    <t>D4190</t>
+  </si>
+  <si>
+    <t>D4218</t>
+  </si>
+  <si>
+    <t>D4232</t>
+  </si>
+  <si>
+    <t>D4246</t>
+  </si>
+  <si>
+    <t>D4260</t>
+  </si>
+  <si>
+    <t>D4288</t>
+  </si>
+  <si>
+    <t>D4274</t>
+  </si>
+  <si>
+    <t>D4302</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 7 valves are on</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 8 valves are on</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 9 valves are on</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 10 valves are on</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 11 valves are on</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 12 valves are on</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 13 valves are on</t>
+  </si>
+  <si>
+    <t>PV look-up values when only 14 valves are on</t>
+  </si>
+  <si>
+    <t>D4316</t>
+  </si>
+  <si>
+    <t>D4330</t>
+  </si>
+  <si>
+    <t>D4344</t>
+  </si>
+  <si>
+    <t>D4358</t>
+  </si>
+  <si>
+    <t>D4361</t>
+  </si>
+  <si>
+    <t>D4364</t>
+  </si>
+  <si>
+    <t>D4367.0</t>
+  </si>
+  <si>
+    <t>D4370</t>
+  </si>
+  <si>
+    <t>D4400.0</t>
+  </si>
+  <si>
+    <t>D4405.0</t>
+  </si>
+  <si>
+    <t>D4410.0</t>
+  </si>
+  <si>
+    <t>Pump mode: 1 - auto, 2 - manual flowrate, 3 - RPM</t>
+  </si>
+  <si>
+    <t>1 - auto, 2- semiauto, 3 - manual</t>
+  </si>
+  <si>
+    <t>ARRAY [14] OF INT</t>
+  </si>
+  <si>
+    <t>FEEDBACK_power_meter</t>
+  </si>
+  <si>
+    <t>D4450</t>
+  </si>
+  <si>
+    <t>Power reading</t>
+  </si>
+  <si>
+    <t>CTRL_section_mode</t>
+  </si>
+  <si>
+    <t>D4460</t>
+  </si>
+  <si>
+    <t>Section mode: 1 - auto, 2 - semi, 3 - manual</t>
+  </si>
+  <si>
+    <t>REF_version_major</t>
+  </si>
+  <si>
+    <t>D301</t>
+  </si>
+  <si>
+    <t>REF_version_minor</t>
+  </si>
+  <si>
+    <t>D302</t>
+  </si>
+  <si>
+    <t>Version info</t>
+  </si>
+  <si>
+    <t>REF_version_revision</t>
+  </si>
+  <si>
+    <t>D303</t>
+  </si>
+  <si>
+    <t>CTRL_PV_on</t>
+  </si>
+  <si>
+    <t>D4465.0</t>
+  </si>
+  <si>
+    <t>Interface to PV on/off</t>
+  </si>
+  <si>
+    <t>REF_rtc</t>
+  </si>
+  <si>
+    <t>D310</t>
+  </si>
+  <si>
+    <t>ARRAY [7] OF WORD</t>
+  </si>
+  <si>
+    <t>[7(0)]</t>
+  </si>
+  <si>
+    <t>Realtime clock</t>
+  </si>
+  <si>
+    <t>D4077</t>
+  </si>
+  <si>
+    <t>Timer for fill drain mode before switching</t>
+  </si>
+  <si>
+    <t>FEEDBACK_fill_drain_remaining_time</t>
+  </si>
+  <si>
+    <t>FEEDBACK_fill_mode_flag</t>
+  </si>
+  <si>
+    <t>D4074.0</t>
+  </si>
+  <si>
+    <t>Whether pump is currently running fill mode (true)</t>
+  </si>
+  <si>
+    <t>D4500</t>
+  </si>
+  <si>
+    <t>CTRL_scheduler_pvon_hh</t>
+  </si>
+  <si>
+    <t>CTRL_scheduler_pvon_mm</t>
+  </si>
+  <si>
+    <t>CTRL_scheduler_pvoff_hh</t>
+  </si>
+  <si>
+    <t>CTRL_scheduler_pvoff_mm</t>
+  </si>
+  <si>
+    <t>CTRL_scheduler_lighton_hh</t>
+  </si>
+  <si>
+    <t>CTRL_scheduler_lighton_mm</t>
+  </si>
+  <si>
+    <t>CTRL_scheduler_lightoff_hh</t>
+  </si>
+  <si>
+    <t>CTRL_scheduler_lightoff_mm</t>
+  </si>
+  <si>
+    <t>D4515</t>
+  </si>
+  <si>
+    <t>D4530</t>
+  </si>
+  <si>
+    <t>D4545</t>
+  </si>
+  <si>
+    <t>D4560</t>
+  </si>
+  <si>
+    <t>D4575</t>
+  </si>
+  <si>
+    <t>PV on min</t>
+  </si>
+  <si>
+    <t>PV off Hr</t>
+  </si>
+  <si>
+    <t>PV off min</t>
+  </si>
+  <si>
+    <t>PV on Hr</t>
+  </si>
+  <si>
+    <t>Light on Hr</t>
+  </si>
+  <si>
+    <t>Light off Hr</t>
+  </si>
+  <si>
+    <t>Light on min</t>
+  </si>
+  <si>
+    <t>Light off min</t>
+  </si>
+  <si>
+    <t>D4590</t>
+  </si>
+  <si>
+    <t>D4605</t>
+  </si>
+  <si>
+    <t>Use scheduler or not</t>
+  </si>
+  <si>
+    <t>CTRL_shelf_use_scheduler</t>
+  </si>
+  <si>
+    <t>D4620.0</t>
   </si>
 </sst>
 </file>
@@ -3086,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3123,7 +3102,7 @@
         <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3302,7 +3281,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3314,12 +3293,12 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3331,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3370,7 +3349,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3385,12 +3364,12 @@
         <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>405</v>
+        <v>324</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -3402,29 +3381,29 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
         <v>240</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>794</v>
+        <v>691</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3433,15 +3412,15 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>797</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>795</v>
+        <v>692</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3450,15 +3429,15 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>798</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>796</v>
+        <v>693</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3467,15 +3446,15 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>799</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>561</v>
+        <v>475</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3484,15 +3463,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="7">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3504,86 +3483,86 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>613</v>
+        <v>835</v>
       </c>
       <c r="E24" t="s">
-        <v>612</v>
+        <v>508</v>
       </c>
       <c r="G24" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>414</v>
+        <v>333</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>613</v>
+        <v>835</v>
       </c>
       <c r="E25" t="s">
-        <v>612</v>
+        <v>508</v>
       </c>
       <c r="G25" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>415</v>
+        <v>334</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>613</v>
+        <v>835</v>
       </c>
       <c r="E26" t="s">
-        <v>612</v>
+        <v>508</v>
       </c>
       <c r="G26" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>416</v>
+        <v>335</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>613</v>
+        <v>835</v>
       </c>
       <c r="E27" t="s">
-        <v>612</v>
+        <v>508</v>
       </c>
       <c r="G27" t="s">
-        <v>424</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3591,41 +3570,41 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>419</v>
+        <v>338</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>611</v>
+        <v>507</v>
       </c>
       <c r="E29" t="s">
-        <v>612</v>
+        <v>508</v>
       </c>
       <c r="G29" t="s">
-        <v>425</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="C30">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>605</v>
+        <v>507</v>
       </c>
       <c r="E30" t="s">
-        <v>606</v>
+        <v>508</v>
       </c>
       <c r="G30" t="s">
-        <v>426</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>603</v>
+        <v>505</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3637,46 +3616,46 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>604</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>434</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>429</v>
+        <v>348</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>435</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>430</v>
+        <v>349</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -3688,12 +3667,12 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -3705,12 +3684,12 @@
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>432</v>
+        <v>351</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -3722,12 +3701,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>438</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>444</v>
+        <v>363</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3742,12 +3721,12 @@
         <v>133</v>
       </c>
       <c r="G37" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>445</v>
+        <v>364</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3762,12 +3741,12 @@
         <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>443</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3782,12 +3761,12 @@
         <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3802,12 +3781,12 @@
         <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>448</v>
+        <v>367</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3822,12 +3801,12 @@
         <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3842,12 +3821,12 @@
         <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3862,12 +3841,12 @@
         <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>450</v>
+        <v>369</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3882,12 +3861,12 @@
         <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>451</v>
+        <v>370</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3902,12 +3881,12 @@
         <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>452</v>
+        <v>371</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3922,12 +3901,12 @@
         <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3942,12 +3921,12 @@
         <v>133</v>
       </c>
       <c r="G47" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>454</v>
+        <v>373</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3962,12 +3941,12 @@
         <v>133</v>
       </c>
       <c r="G48" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>456</v>
+        <v>375</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3982,12 +3961,12 @@
         <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>458</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>455</v>
+        <v>374</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4002,12 +3981,12 @@
         <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>458</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>469</v>
+        <v>388</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4022,12 +4001,12 @@
         <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>468</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>510</v>
+        <v>429</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4042,12 +4021,12 @@
         <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>511</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>512</v>
+        <v>431</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4062,12 +4041,12 @@
         <v>133</v>
       </c>
       <c r="G53" t="s">
-        <v>513</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>598</v>
+        <v>502</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4082,18 +4061,18 @@
         <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>599</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>464</v>
+        <v>383</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4101,7 +4080,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4116,12 +4095,12 @@
         <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>477</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>476</v>
+        <v>395</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4136,18 +4115,18 @@
         <v>133</v>
       </c>
       <c r="G57" t="s">
-        <v>477</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>460</v>
+        <v>379</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4155,61 +4134,61 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>574</v>
+        <v>488</v>
       </c>
       <c r="C59">
         <v>14</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>605</v>
+        <v>507</v>
       </c>
       <c r="E59" t="s">
-        <v>606</v>
+        <v>508</v>
       </c>
       <c r="G59" t="s">
-        <v>573</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>575</v>
+        <v>489</v>
       </c>
       <c r="C60">
         <v>14</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>605</v>
+        <v>507</v>
       </c>
       <c r="E60" t="s">
-        <v>606</v>
+        <v>508</v>
       </c>
       <c r="G60" t="s">
-        <v>572</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>576</v>
+        <v>490</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>792</v>
+        <v>689</v>
       </c>
       <c r="E61" t="s">
-        <v>793</v>
+        <v>690</v>
       </c>
       <c r="F61" t="s">
         <v>133</v>
       </c>
       <c r="G61" t="s">
-        <v>577</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>578</v>
+        <v>492</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4224,47 +4203,47 @@
         <v>133</v>
       </c>
       <c r="G62" t="s">
-        <v>579</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>580</v>
+        <v>494</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>792</v>
+        <v>689</v>
       </c>
       <c r="E63" t="s">
-        <v>793</v>
+        <v>690</v>
       </c>
       <c r="F63" t="s">
         <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>581</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>583</v>
+        <v>497</v>
       </c>
       <c r="C64">
         <v>14</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>607</v>
+        <v>509</v>
       </c>
       <c r="E64" t="s">
-        <v>608</v>
+        <v>510</v>
       </c>
       <c r="F64" t="s">
         <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>584</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -4277,7 +4256,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,7 +4297,7 @@
         <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,7 +4416,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4455,7 +4434,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -4761,7 +4740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -5358,7 +5337,7 @@
         <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5462,7 +5441,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,7 +5477,7 @@
         <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5555,12 +5534,12 @@
         <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -5580,16 +5559,19 @@
         <v>139</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5645,7 +5627,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>408</v>
+        <v>327</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -5662,7 +5644,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>409</v>
+        <v>328</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5679,7 +5661,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>410</v>
+        <v>329</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -5696,7 +5678,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -5713,7 +5695,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>537</v>
+        <v>456</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -5728,12 +5710,12 @@
         <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>548</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>558</v>
+        <v>473</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -5748,12 +5730,12 @@
         <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>559</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -5768,12 +5750,12 @@
         <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>540</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>539</v>
+        <v>458</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -5788,12 +5770,12 @@
         <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>541</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>542</v>
+        <v>461</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -5808,12 +5790,12 @@
         <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>543</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>555</v>
+        <v>470</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -5825,12 +5807,12 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>551</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>550</v>
+        <v>465</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -5842,12 +5824,12 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>552</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>553</v>
+        <v>468</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -5862,12 +5844,12 @@
         <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>556</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>554</v>
+        <v>469</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -5882,12 +5864,12 @@
         <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>557</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>562</v>
+        <v>476</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -5902,12 +5884,12 @@
         <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>563</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>564</v>
+        <v>478</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -5922,12 +5904,12 @@
         <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>568</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -5939,12 +5921,12 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>566</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>567</v>
+        <v>481</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -5959,12 +5941,12 @@
         <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>569</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>570</v>
+        <v>484</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5979,12 +5961,12 @@
         <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>571</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>412</v>
+        <v>331</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -5993,13 +5975,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>602</v>
+        <v>504</v>
       </c>
       <c r="F28" t="s">
         <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6009,10 +5991,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,12 +6026,12 @@
         <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>713</v>
+        <v>610</v>
       </c>
       <c r="B2" t="s">
         <v>151</v>
@@ -6063,7 +6045,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>714</v>
+        <v>611</v>
       </c>
       <c r="B3" t="s">
         <v>152</v>
@@ -6077,7 +6059,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>715</v>
+        <v>612</v>
       </c>
       <c r="B4" t="s">
         <v>153</v>
@@ -6091,7 +6073,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>716</v>
+        <v>613</v>
       </c>
       <c r="B5" t="s">
         <v>154</v>
@@ -6105,10 +6087,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>717</v>
+        <v>614</v>
       </c>
       <c r="B6" t="s">
-        <v>727</v>
+        <v>624</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -6119,10 +6101,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>718</v>
+        <v>615</v>
       </c>
       <c r="B7" t="s">
-        <v>728</v>
+        <v>625</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -6133,10 +6115,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>719</v>
+        <v>616</v>
       </c>
       <c r="B8" t="s">
-        <v>729</v>
+        <v>626</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -6147,10 +6129,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>720</v>
+        <v>617</v>
       </c>
       <c r="B9" t="s">
-        <v>730</v>
+        <v>627</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -6161,10 +6143,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>721</v>
+        <v>618</v>
       </c>
       <c r="B10" t="s">
-        <v>731</v>
+        <v>628</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -6175,10 +6157,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>722</v>
+        <v>619</v>
       </c>
       <c r="B11" t="s">
-        <v>732</v>
+        <v>629</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -6189,7 +6171,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>723</v>
+        <v>620</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -6203,7 +6185,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>724</v>
+        <v>621</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
@@ -6217,7 +6199,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>725</v>
+        <v>622</v>
       </c>
       <c r="B14" t="s">
         <v>157</v>
@@ -6231,7 +6213,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>726</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s">
         <v>158</v>
@@ -6245,10 +6227,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>733</v>
+        <v>630</v>
       </c>
       <c r="B16" t="s">
-        <v>749</v>
+        <v>646</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -6257,15 +6239,15 @@
         <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>736</v>
+        <v>633</v>
       </c>
       <c r="B17" t="s">
-        <v>750</v>
+        <v>647</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -6274,15 +6256,15 @@
         <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>737</v>
+        <v>634</v>
       </c>
       <c r="B18" t="s">
-        <v>751</v>
+        <v>648</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -6291,15 +6273,15 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>738</v>
+        <v>635</v>
       </c>
       <c r="B19" t="s">
-        <v>752</v>
+        <v>649</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -6308,15 +6290,15 @@
         <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>739</v>
+        <v>636</v>
       </c>
       <c r="B20" t="s">
-        <v>753</v>
+        <v>650</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -6325,15 +6307,15 @@
         <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>637</v>
       </c>
       <c r="B21" t="s">
-        <v>754</v>
+        <v>651</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -6342,15 +6324,15 @@
         <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>741</v>
+        <v>638</v>
       </c>
       <c r="B22" t="s">
-        <v>755</v>
+        <v>652</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -6359,15 +6341,15 @@
         <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>742</v>
+        <v>639</v>
       </c>
       <c r="B23" t="s">
-        <v>756</v>
+        <v>653</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -6376,15 +6358,15 @@
         <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>743</v>
+        <v>640</v>
       </c>
       <c r="B24" t="s">
-        <v>757</v>
+        <v>654</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -6393,15 +6375,15 @@
         <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>744</v>
+        <v>641</v>
       </c>
       <c r="B25" t="s">
-        <v>758</v>
+        <v>655</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -6410,15 +6392,15 @@
         <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>745</v>
+        <v>642</v>
       </c>
       <c r="B26" t="s">
-        <v>759</v>
+        <v>656</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -6427,15 +6409,15 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>746</v>
+        <v>643</v>
       </c>
       <c r="B27" t="s">
-        <v>760</v>
+        <v>657</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -6444,15 +6426,15 @@
         <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>747</v>
+        <v>644</v>
       </c>
       <c r="B28" t="s">
-        <v>761</v>
+        <v>658</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -6461,15 +6443,15 @@
         <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>748</v>
+        <v>645</v>
       </c>
       <c r="B29" t="s">
-        <v>762</v>
+        <v>659</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -6478,15 +6460,15 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>765</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>734</v>
+        <v>631</v>
       </c>
       <c r="B30" t="s">
-        <v>763</v>
+        <v>660</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -6495,15 +6477,15 @@
         <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>766</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>735</v>
+        <v>632</v>
       </c>
       <c r="B31" t="s">
-        <v>764</v>
+        <v>661</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -6512,12 +6494,12 @@
         <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>766</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>618</v>
+        <v>515</v>
       </c>
       <c r="B32" t="s">
         <v>159</v>
@@ -6532,12 +6514,12 @@
         <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>619</v>
+        <v>516</v>
       </c>
       <c r="B33" t="s">
         <v>160</v>
@@ -6552,12 +6534,12 @@
         <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>620</v>
+        <v>517</v>
       </c>
       <c r="B34" t="s">
         <v>161</v>
@@ -6572,12 +6554,12 @@
         <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>621</v>
+        <v>518</v>
       </c>
       <c r="B35" t="s">
         <v>162</v>
@@ -6592,12 +6574,12 @@
         <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>622</v>
+        <v>519</v>
       </c>
       <c r="B36" t="s">
         <v>163</v>
@@ -6612,12 +6594,12 @@
         <v>133</v>
       </c>
       <c r="F36" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>623</v>
+        <v>520</v>
       </c>
       <c r="B37" t="s">
         <v>164</v>
@@ -6632,12 +6614,12 @@
         <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>624</v>
+        <v>521</v>
       </c>
       <c r="B38" t="s">
         <v>165</v>
@@ -6652,12 +6634,12 @@
         <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>625</v>
+        <v>522</v>
       </c>
       <c r="B39" t="s">
         <v>166</v>
@@ -6672,15 +6654,15 @@
         <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>626</v>
+        <v>523</v>
       </c>
       <c r="B40" t="s">
-        <v>585</v>
+        <v>499</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -6692,15 +6674,15 @@
         <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>627</v>
+        <v>524</v>
       </c>
       <c r="B41" t="s">
-        <v>586</v>
+        <v>500</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -6712,15 +6694,15 @@
         <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="B42" t="s">
-        <v>614</v>
+        <v>511</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -6732,15 +6714,15 @@
         <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>629</v>
+        <v>526</v>
       </c>
       <c r="B43" t="s">
-        <v>615</v>
+        <v>512</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -6752,15 +6734,15 @@
         <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>630</v>
+        <v>527</v>
       </c>
       <c r="B44" t="s">
-        <v>616</v>
+        <v>513</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -6772,15 +6754,15 @@
         <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>631</v>
+        <v>528</v>
       </c>
       <c r="B45" t="s">
-        <v>617</v>
+        <v>514</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -6792,15 +6774,15 @@
         <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>632</v>
+        <v>529</v>
       </c>
       <c r="B46" t="s">
-        <v>646</v>
+        <v>543</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -6812,15 +6794,15 @@
         <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>633</v>
+        <v>530</v>
       </c>
       <c r="B47" t="s">
-        <v>647</v>
+        <v>544</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -6832,15 +6814,15 @@
         <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>634</v>
+        <v>531</v>
       </c>
       <c r="B48" t="s">
-        <v>648</v>
+        <v>545</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -6852,15 +6834,15 @@
         <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
       <c r="B49" t="s">
-        <v>649</v>
+        <v>546</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -6872,15 +6854,15 @@
         <v>133</v>
       </c>
       <c r="F49" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>636</v>
+        <v>533</v>
       </c>
       <c r="B50" t="s">
-        <v>650</v>
+        <v>547</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -6892,15 +6874,15 @@
         <v>133</v>
       </c>
       <c r="F50" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>637</v>
+        <v>534</v>
       </c>
       <c r="B51" t="s">
-        <v>651</v>
+        <v>548</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -6912,15 +6894,15 @@
         <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>638</v>
+        <v>535</v>
       </c>
       <c r="B52" t="s">
-        <v>652</v>
+        <v>549</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -6932,15 +6914,15 @@
         <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>639</v>
+        <v>536</v>
       </c>
       <c r="B53" t="s">
-        <v>653</v>
+        <v>550</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -6952,15 +6934,15 @@
         <v>133</v>
       </c>
       <c r="F53" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>640</v>
+        <v>537</v>
       </c>
       <c r="B54" t="s">
-        <v>654</v>
+        <v>551</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -6972,15 +6954,15 @@
         <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>641</v>
+        <v>538</v>
       </c>
       <c r="B55" t="s">
-        <v>655</v>
+        <v>552</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -6992,15 +6974,15 @@
         <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>642</v>
+        <v>539</v>
       </c>
       <c r="B56" t="s">
-        <v>656</v>
+        <v>553</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -7012,15 +6994,15 @@
         <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>643</v>
+        <v>540</v>
       </c>
       <c r="B57" t="s">
-        <v>657</v>
+        <v>554</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -7032,15 +7014,15 @@
         <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>644</v>
+        <v>541</v>
       </c>
       <c r="B58" t="s">
-        <v>658</v>
+        <v>555</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -7052,15 +7034,15 @@
         <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>645</v>
+        <v>542</v>
       </c>
       <c r="B59" t="s">
-        <v>659</v>
+        <v>556</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -7072,15 +7054,15 @@
         <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>660</v>
+        <v>557</v>
       </c>
       <c r="B60" t="s">
-        <v>662</v>
+        <v>559</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -7091,10 +7073,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>661</v>
+        <v>558</v>
       </c>
       <c r="B61" t="s">
-        <v>663</v>
+        <v>560</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -7105,10 +7087,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>664</v>
+        <v>561</v>
       </c>
       <c r="B62" t="s">
-        <v>665</v>
+        <v>562</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -7119,10 +7101,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>664</v>
+        <v>561</v>
       </c>
       <c r="B63" t="s">
-        <v>666</v>
+        <v>563</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -7133,10 +7115,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>667</v>
+        <v>564</v>
       </c>
       <c r="B64" t="s">
-        <v>681</v>
+        <v>578</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -7145,15 +7127,15 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>668</v>
+        <v>565</v>
       </c>
       <c r="B65" t="s">
-        <v>682</v>
+        <v>579</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -7162,15 +7144,15 @@
         <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>669</v>
+        <v>566</v>
       </c>
       <c r="B66" t="s">
-        <v>683</v>
+        <v>580</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -7179,15 +7161,15 @@
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>670</v>
+        <v>567</v>
       </c>
       <c r="B67" t="s">
-        <v>684</v>
+        <v>581</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -7196,15 +7178,15 @@
         <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>671</v>
+        <v>568</v>
       </c>
       <c r="B68" t="s">
-        <v>685</v>
+        <v>582</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -7213,15 +7195,15 @@
         <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>672</v>
+        <v>569</v>
       </c>
       <c r="B69" t="s">
-        <v>686</v>
+        <v>583</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -7230,15 +7212,15 @@
         <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>673</v>
+        <v>570</v>
       </c>
       <c r="B70" t="s">
-        <v>687</v>
+        <v>584</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -7247,15 +7229,15 @@
         <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>674</v>
+        <v>571</v>
       </c>
       <c r="B71" t="s">
-        <v>688</v>
+        <v>585</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -7264,15 +7246,15 @@
         <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>675</v>
+        <v>572</v>
       </c>
       <c r="B72" t="s">
-        <v>689</v>
+        <v>586</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -7281,15 +7263,15 @@
         <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>676</v>
+        <v>573</v>
       </c>
       <c r="B73" t="s">
-        <v>690</v>
+        <v>587</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -7298,15 +7280,15 @@
         <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>677</v>
+        <v>574</v>
       </c>
       <c r="B74" t="s">
-        <v>691</v>
+        <v>588</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -7315,15 +7297,15 @@
         <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>678</v>
+        <v>575</v>
       </c>
       <c r="B75" t="s">
-        <v>692</v>
+        <v>589</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -7332,15 +7314,15 @@
         <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>679</v>
+        <v>576</v>
       </c>
       <c r="B76" t="s">
-        <v>693</v>
+        <v>590</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -7349,15 +7331,15 @@
         <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>680</v>
+        <v>577</v>
       </c>
       <c r="B77" t="s">
-        <v>694</v>
+        <v>591</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -7366,15 +7348,15 @@
         <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="B78" t="s">
-        <v>699</v>
+        <v>596</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -7383,15 +7365,15 @@
         <v>131</v>
       </c>
       <c r="F78" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="B79" t="s">
-        <v>700</v>
+        <v>597</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -7400,15 +7382,15 @@
         <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="B80" t="s">
-        <v>701</v>
+        <v>598</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -7417,15 +7399,15 @@
         <v>131</v>
       </c>
       <c r="F80" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="B81" t="s">
-        <v>702</v>
+        <v>599</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -7434,15 +7416,15 @@
         <v>131</v>
       </c>
       <c r="F81" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="B82" t="s">
-        <v>703</v>
+        <v>600</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -7451,15 +7433,15 @@
         <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s">
-        <v>704</v>
+        <v>601</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -7468,15 +7450,15 @@
         <v>131</v>
       </c>
       <c r="F83" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="B84" t="s">
-        <v>705</v>
+        <v>602</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -7485,15 +7467,15 @@
         <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="B85" t="s">
-        <v>706</v>
+        <v>603</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -7502,15 +7484,15 @@
         <v>131</v>
       </c>
       <c r="F85" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="B86" t="s">
-        <v>707</v>
+        <v>604</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -7519,15 +7501,15 @@
         <v>131</v>
       </c>
       <c r="F86" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="B87" t="s">
-        <v>708</v>
+        <v>605</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -7536,15 +7518,15 @@
         <v>131</v>
       </c>
       <c r="F87" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>695</v>
+        <v>592</v>
       </c>
       <c r="B88" t="s">
-        <v>709</v>
+        <v>606</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -7553,15 +7535,15 @@
         <v>131</v>
       </c>
       <c r="F88" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>696</v>
+        <v>593</v>
       </c>
       <c r="B89" t="s">
-        <v>710</v>
+        <v>607</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -7570,15 +7552,15 @@
         <v>131</v>
       </c>
       <c r="F89" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>697</v>
+        <v>594</v>
       </c>
       <c r="B90" t="s">
-        <v>711</v>
+        <v>608</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -7587,15 +7569,15 @@
         <v>131</v>
       </c>
       <c r="F90" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>698</v>
+        <v>595</v>
       </c>
       <c r="B91" t="s">
-        <v>712</v>
+        <v>609</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -7604,15 +7586,15 @@
         <v>131</v>
       </c>
       <c r="F91" t="s">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -7621,15 +7603,15 @@
         <v>-1</v>
       </c>
       <c r="F92" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="B93" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -7638,15 +7620,15 @@
         <v>-1</v>
       </c>
       <c r="F93" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -7655,15 +7637,15 @@
         <v>-1</v>
       </c>
       <c r="F94" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="B95" t="s">
-        <v>364</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -7672,15 +7654,15 @@
         <v>-1</v>
       </c>
       <c r="F95" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="B96" t="s">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -7689,15 +7671,15 @@
         <v>-1</v>
       </c>
       <c r="F96" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="B97" t="s">
-        <v>366</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -7706,15 +7688,15 @@
         <v>-1</v>
       </c>
       <c r="F97" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="B98" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -7723,15 +7705,15 @@
         <v>-1</v>
       </c>
       <c r="F98" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="B99" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -7740,15 +7722,15 @@
         <v>-1</v>
       </c>
       <c r="F99" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="B100" t="s">
-        <v>772</v>
+        <v>669</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -7757,15 +7739,15 @@
         <v>-1</v>
       </c>
       <c r="F100" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="B101" t="s">
-        <v>773</v>
+        <v>670</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -7774,15 +7756,15 @@
         <v>-1</v>
       </c>
       <c r="F101" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>768</v>
+        <v>665</v>
       </c>
       <c r="B102" t="s">
-        <v>774</v>
+        <v>671</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -7791,15 +7773,15 @@
         <v>-1</v>
       </c>
       <c r="F102" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>769</v>
+        <v>666</v>
       </c>
       <c r="B103" t="s">
-        <v>775</v>
+        <v>672</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -7808,15 +7790,15 @@
         <v>-1</v>
       </c>
       <c r="F103" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>770</v>
+        <v>667</v>
       </c>
       <c r="B104" t="s">
-        <v>776</v>
+        <v>673</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -7825,15 +7807,15 @@
         <v>-1</v>
       </c>
       <c r="F104" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>771</v>
+        <v>668</v>
       </c>
       <c r="B105" t="s">
-        <v>777</v>
+        <v>674</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -7842,15 +7824,15 @@
         <v>-1</v>
       </c>
       <c r="F105" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>780</v>
+        <v>677</v>
       </c>
       <c r="B106" t="s">
-        <v>784</v>
+        <v>681</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -7859,15 +7841,15 @@
         <v>-1</v>
       </c>
       <c r="F106" t="s">
-        <v>791</v>
+        <v>688</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>781</v>
+        <v>678</v>
       </c>
       <c r="B107" t="s">
-        <v>785</v>
+        <v>682</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -7876,15 +7858,15 @@
         <v>-1</v>
       </c>
       <c r="F107" t="s">
-        <v>788</v>
+        <v>685</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>782</v>
+        <v>679</v>
       </c>
       <c r="B108" t="s">
-        <v>786</v>
+        <v>683</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -7893,15 +7875,15 @@
         <v>-1</v>
       </c>
       <c r="F108" t="s">
-        <v>789</v>
+        <v>686</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>783</v>
+        <v>680</v>
       </c>
       <c r="B109" t="s">
-        <v>787</v>
+        <v>684</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -7910,7 +7892,7 @@
         <v>-1</v>
       </c>
       <c r="F109" t="s">
-        <v>790</v>
+        <v>687</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -7918,7 +7900,7 @@
         <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -7927,7 +7909,7 @@
         <v>-1</v>
       </c>
       <c r="F110" t="s">
-        <v>521</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -7935,7 +7917,7 @@
         <v>168</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>309</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -7944,7 +7926,7 @@
         <v>-1</v>
       </c>
       <c r="F111" t="s">
-        <v>522</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -7952,7 +7934,7 @@
         <v>169</v>
       </c>
       <c r="B112" t="s">
-        <v>391</v>
+        <v>310</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -7961,7 +7943,7 @@
         <v>-1</v>
       </c>
       <c r="F112" t="s">
-        <v>523</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -7969,7 +7951,7 @@
         <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>392</v>
+        <v>311</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -7978,7 +7960,7 @@
         <v>-1</v>
       </c>
       <c r="F113" t="s">
-        <v>524</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -7986,7 +7968,7 @@
         <v>171</v>
       </c>
       <c r="B114" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -7995,7 +7977,7 @@
         <v>-1</v>
       </c>
       <c r="F114" t="s">
-        <v>525</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -8003,7 +7985,7 @@
         <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -8012,7 +7994,7 @@
         <v>-1</v>
       </c>
       <c r="F115" t="s">
-        <v>526</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -8032,7 +8014,7 @@
         <v>133</v>
       </c>
       <c r="F116" t="s">
-        <v>527</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -8049,7 +8031,7 @@
         <v>-1</v>
       </c>
       <c r="F117" t="s">
-        <v>528</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -8066,7 +8048,7 @@
         <v>-1</v>
       </c>
       <c r="F118" t="s">
-        <v>529</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -8085,22 +8067,22 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="B120" t="s">
-        <v>471</v>
+        <v>390</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
       <c r="D120" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="E120" t="s">
         <v>133</v>
       </c>
       <c r="F120" t="s">
-        <v>530</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -8108,7 +8090,7 @@
         <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>395</v>
+        <v>314</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -8117,7 +8099,7 @@
         <v>-1</v>
       </c>
       <c r="F121" t="s">
-        <v>521</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -8125,7 +8107,7 @@
         <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -8134,7 +8116,7 @@
         <v>-1</v>
       </c>
       <c r="F122" t="s">
-        <v>522</v>
+        <v>441</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -8142,7 +8124,7 @@
         <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -8151,7 +8133,7 @@
         <v>-1</v>
       </c>
       <c r="F123" t="s">
-        <v>523</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -8159,7 +8141,7 @@
         <v>184</v>
       </c>
       <c r="B124" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -8168,7 +8150,7 @@
         <v>-1</v>
       </c>
       <c r="F124" t="s">
-        <v>524</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -8176,7 +8158,7 @@
         <v>185</v>
       </c>
       <c r="B125" t="s">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -8185,7 +8167,7 @@
         <v>-1</v>
       </c>
       <c r="F125" t="s">
-        <v>525</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -8193,7 +8175,7 @@
         <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -8202,7 +8184,7 @@
         <v>-1</v>
       </c>
       <c r="F126" t="s">
-        <v>526</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -8222,7 +8204,7 @@
         <v>133</v>
       </c>
       <c r="F127" t="s">
-        <v>527</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -8239,7 +8221,7 @@
         <v>-1</v>
       </c>
       <c r="F128" t="s">
-        <v>528</v>
+        <v>447</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -8247,7 +8229,7 @@
         <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>520</v>
+        <v>439</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -8256,7 +8238,7 @@
         <v>-1</v>
       </c>
       <c r="F129" t="s">
-        <v>529</v>
+        <v>448</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -8275,30 +8257,30 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="B131" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
       <c r="D131" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="E131" t="s">
         <v>133</v>
       </c>
       <c r="F131" t="s">
-        <v>530</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>535</v>
+        <v>454</v>
       </c>
       <c r="B132" t="s">
-        <v>536</v>
+        <v>455</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
@@ -8307,18 +8289,18 @@
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>534</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="B133" t="s">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="C133" t="s">
-        <v>460</v>
+        <v>379</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -8326,10 +8308,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>880</v>
+        <v>764</v>
       </c>
       <c r="B134" t="s">
-        <v>878</v>
+        <v>762</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -8338,15 +8320,15 @@
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>879</v>
+        <v>763</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>875</v>
+        <v>759</v>
       </c>
       <c r="B135" t="s">
-        <v>876</v>
+        <v>760</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
@@ -8354,192 +8336,207 @@
       <c r="D135">
         <v>0</v>
       </c>
+      <c r="E135" t="s">
+        <v>133</v>
+      </c>
       <c r="F135" t="s">
-        <v>877</v>
+        <v>761</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="B136" t="s">
-        <v>508</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D136" t="s">
-        <v>606</v>
+        <v>843</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
       </c>
       <c r="E136" t="s">
         <v>133</v>
       </c>
       <c r="F136" t="s">
-        <v>806</v>
+        <v>846</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>802</v>
+        <v>844</v>
       </c>
       <c r="B137" t="s">
-        <v>813</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D137" t="s">
-        <v>606</v>
+        <v>845</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
       </c>
       <c r="E137" t="s">
         <v>133</v>
       </c>
       <c r="F137" t="s">
-        <v>807</v>
+        <v>846</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="B138" t="s">
-        <v>816</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D138" t="s">
-        <v>606</v>
+        <v>848</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>133</v>
       </c>
       <c r="F138" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>803</v>
+        <v>852</v>
       </c>
       <c r="B139" t="s">
-        <v>821</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>605</v>
+        <v>853</v>
+      </c>
+      <c r="C139" t="s">
+        <v>854</v>
       </c>
       <c r="D139" t="s">
-        <v>606</v>
+        <v>855</v>
+      </c>
+      <c r="E139" t="s">
+        <v>133</v>
       </c>
       <c r="F139" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>823</v>
+        <v>782</v>
       </c>
       <c r="B140" t="s">
-        <v>824</v>
-      </c>
-      <c r="C140" t="s">
-        <v>607</v>
+        <v>427</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>507</v>
       </c>
       <c r="D140" t="s">
-        <v>608</v>
+        <v>508</v>
+      </c>
+      <c r="E140" t="s">
+        <v>133</v>
       </c>
       <c r="F140" t="s">
-        <v>825</v>
+        <v>702</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>896</v>
+        <v>783</v>
       </c>
       <c r="B141" t="s">
-        <v>817</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2</v>
+        <v>708</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>507</v>
       </c>
       <c r="D141" t="s">
-        <v>0</v>
+        <v>508</v>
+      </c>
+      <c r="E141" t="s">
+        <v>133</v>
       </c>
       <c r="F141" t="s">
-        <v>809</v>
+        <v>703</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>808</v>
+        <v>784</v>
       </c>
       <c r="B142" t="s">
-        <v>818</v>
+        <v>709</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="F142" t="s">
-        <v>810</v>
+        <v>715</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
       <c r="B143" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>11</v>
+        <v>776</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>777</v>
       </c>
       <c r="F143" t="s">
-        <v>812</v>
+        <v>778</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>828</v>
+        <v>699</v>
       </c>
       <c r="B144" t="s">
-        <v>830</v>
+        <v>714</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="D144" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="F144" t="s">
-        <v>832</v>
+        <v>720</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>829</v>
+        <v>716</v>
       </c>
       <c r="B145" t="s">
-        <v>820</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>11</v>
+        <v>717</v>
+      </c>
+      <c r="C145" t="s">
+        <v>509</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="F145" t="s">
-        <v>833</v>
+        <v>718</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>834</v>
+        <v>780</v>
       </c>
       <c r="B146" t="s">
-        <v>831</v>
+        <v>710</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -8547,67 +8544,79 @@
       <c r="D146" t="s">
         <v>0</v>
       </c>
+      <c r="E146" t="s">
+        <v>133</v>
+      </c>
       <c r="F146" t="s">
-        <v>835</v>
+        <v>781</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>836</v>
+        <v>704</v>
       </c>
       <c r="B147" t="s">
-        <v>838</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2</v>
+        <v>711</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>133</v>
       </c>
       <c r="F147" t="s">
-        <v>840</v>
+        <v>705</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>804</v>
+        <v>706</v>
       </c>
       <c r="B148" t="s">
-        <v>837</v>
-      </c>
-      <c r="C148" t="s">
-        <v>607</v>
+        <v>712</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>608</v>
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>133</v>
       </c>
       <c r="F148" t="s">
-        <v>842</v>
+        <v>707</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>805</v>
+        <v>721</v>
       </c>
       <c r="B149" t="s">
-        <v>839</v>
+        <v>723</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>605</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>606</v>
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>133</v>
       </c>
       <c r="F149" t="s">
-        <v>826</v>
+        <v>725</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>846</v>
+        <v>722</v>
       </c>
       <c r="B150" t="s">
-        <v>849</v>
+        <v>713</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>11</v>
@@ -8615,50 +8624,59 @@
       <c r="D150" t="s">
         <v>12</v>
       </c>
+      <c r="E150" t="s">
+        <v>133</v>
+      </c>
       <c r="F150" t="s">
-        <v>852</v>
+        <v>726</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="B151" t="s">
-        <v>853</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>11</v>
+        <v>861</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>133</v>
       </c>
       <c r="F151" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>848</v>
+        <v>727</v>
       </c>
       <c r="B152" t="s">
-        <v>854</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>11</v>
+        <v>724</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>133</v>
       </c>
       <c r="F152" t="s">
-        <v>851</v>
+        <v>728</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>841</v>
+        <v>729</v>
       </c>
       <c r="B153" t="s">
-        <v>855</v>
+        <v>731</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -8666,272 +8684,842 @@
       <c r="D153" t="s">
         <v>0</v>
       </c>
+      <c r="E153" t="s">
+        <v>133</v>
+      </c>
       <c r="F153" t="s">
-        <v>844</v>
+        <v>733</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="B154" t="s">
         <v>857</v>
       </c>
-      <c r="C154" t="s">
-        <v>2</v>
+      <c r="C154" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>133</v>
       </c>
       <c r="F154" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>859</v>
+        <v>700</v>
       </c>
       <c r="B155" t="s">
-        <v>856</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>612</v>
+        <v>730</v>
+      </c>
+      <c r="C155" t="s">
+        <v>509</v>
+      </c>
+      <c r="D155" t="s">
+        <v>510</v>
       </c>
       <c r="F155" t="s">
-        <v>231</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>860</v>
+        <v>701</v>
       </c>
       <c r="B156" t="s">
-        <v>858</v>
+        <v>732</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>612</v>
+        <v>507</v>
+      </c>
+      <c r="D156" t="s">
+        <v>508</v>
       </c>
       <c r="F156" t="s">
-        <v>230</v>
+        <v>719</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>861</v>
+        <v>739</v>
       </c>
       <c r="B157" t="s">
-        <v>865</v>
+        <v>742</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>612</v>
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>133</v>
       </c>
       <c r="F157" t="s">
-        <v>232</v>
+        <v>785</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>862</v>
+        <v>740</v>
       </c>
       <c r="B158" t="s">
-        <v>866</v>
+        <v>745</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>612</v>
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>133</v>
       </c>
       <c r="F158" t="s">
-        <v>233</v>
+        <v>743</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>863</v>
+        <v>741</v>
       </c>
       <c r="B159" t="s">
-        <v>867</v>
+        <v>746</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>612</v>
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>133</v>
       </c>
       <c r="F159" t="s">
-        <v>800</v>
+        <v>744</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>864</v>
+        <v>734</v>
       </c>
       <c r="B160" t="s">
-        <v>868</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>612</v>
+        <v>747</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>801</v>
+        <v>737</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>872</v>
+        <v>736</v>
       </c>
       <c r="B161" t="s">
-        <v>869</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="E161" t="s">
-        <v>133</v>
+        <v>749</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>234</v>
+        <v>738</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>873</v>
+        <v>750</v>
       </c>
       <c r="B162" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>611</v>
+        <v>507</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="E162" t="s">
-        <v>133</v>
+        <v>508</v>
       </c>
       <c r="F162" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>874</v>
+        <v>751</v>
       </c>
       <c r="B163" t="s">
-        <v>871</v>
+        <v>801</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>611</v>
+        <v>507</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="E163" t="s">
-        <v>133</v>
+        <v>508</v>
       </c>
       <c r="F163" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>881</v>
+        <v>752</v>
       </c>
       <c r="B164" t="s">
-        <v>883</v>
+        <v>802</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="F164" t="s">
-        <v>884</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>882</v>
+        <v>753</v>
       </c>
       <c r="B165" t="s">
-        <v>886</v>
+        <v>803</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="F165" t="s">
-        <v>885</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>889</v>
+        <v>754</v>
       </c>
       <c r="B166" t="s">
-        <v>887</v>
+        <v>804</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="F166" t="s">
-        <v>888</v>
+        <v>697</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>892</v>
+        <v>755</v>
       </c>
       <c r="B167" t="s">
-        <v>891</v>
+        <v>806</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>2</v>
+        <v>507</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="F167" t="s">
-        <v>890</v>
+        <v>698</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>893</v>
+        <v>793</v>
       </c>
       <c r="B168" t="s">
-        <v>894</v>
+        <v>805</v>
       </c>
       <c r="C168" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F168" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>794</v>
+      </c>
+      <c r="B169" t="s">
+        <v>807</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F169" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>795</v>
+      </c>
+      <c r="B170" t="s">
+        <v>808</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F170" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>796</v>
+      </c>
+      <c r="B171" t="s">
+        <v>809</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F171" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>797</v>
+      </c>
+      <c r="B172" t="s">
+        <v>810</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F172" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>798</v>
+      </c>
+      <c r="B173" t="s">
+        <v>812</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F173" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>799</v>
+      </c>
+      <c r="B174" t="s">
+        <v>811</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F174" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>800</v>
+      </c>
+      <c r="B175" t="s">
+        <v>813</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F175" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>756</v>
+      </c>
+      <c r="B176" t="s">
+        <v>822</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E176" t="s">
+        <v>133</v>
+      </c>
+      <c r="F176" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>757</v>
+      </c>
+      <c r="B177" t="s">
+        <v>823</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E177" t="s">
+        <v>133</v>
+      </c>
+      <c r="F177" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>758</v>
+      </c>
+      <c r="B178" t="s">
+        <v>824</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E178" t="s">
+        <v>133</v>
+      </c>
+      <c r="F178" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>765</v>
+      </c>
+      <c r="B179" t="s">
+        <v>825</v>
+      </c>
+      <c r="C179" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D179" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F168" t="s">
-        <v>895</v>
+      <c r="F179" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>766</v>
+      </c>
+      <c r="B180" t="s">
+        <v>826</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>770</v>
+      </c>
+      <c r="B181" t="s">
+        <v>827</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>772</v>
+      </c>
+      <c r="B182" t="s">
+        <v>828</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>773</v>
+      </c>
+      <c r="B183" t="s">
+        <v>829</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>786</v>
+      </c>
+      <c r="B184" t="s">
+        <v>830</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>133</v>
+      </c>
+      <c r="F184" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>788</v>
+      </c>
+      <c r="B185" t="s">
+        <v>831</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E185" t="s">
+        <v>133</v>
+      </c>
+      <c r="F185" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>716</v>
+      </c>
+      <c r="B186" t="s">
+        <v>832</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E186" t="s">
+        <v>133</v>
+      </c>
+      <c r="F186" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>836</v>
+      </c>
+      <c r="B187" t="s">
+        <v>837</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>133</v>
+      </c>
+      <c r="F187" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>839</v>
+      </c>
+      <c r="B188" t="s">
+        <v>840</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>133</v>
+      </c>
+      <c r="F188" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>849</v>
+      </c>
+      <c r="B189" t="s">
+        <v>850</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E189" t="s">
+        <v>133</v>
+      </c>
+      <c r="F189" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>864</v>
+      </c>
+      <c r="B190" t="s">
+        <v>863</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E190" t="s">
+        <v>133</v>
+      </c>
+      <c r="F190" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>865</v>
+      </c>
+      <c r="B191" t="s">
+        <v>872</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E191" t="s">
+        <v>133</v>
+      </c>
+      <c r="F191" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>866</v>
+      </c>
+      <c r="B192" t="s">
+        <v>873</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E192" t="s">
+        <v>133</v>
+      </c>
+      <c r="F192" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>867</v>
+      </c>
+      <c r="B193" t="s">
+        <v>874</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E193" t="s">
+        <v>133</v>
+      </c>
+      <c r="F193" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>868</v>
+      </c>
+      <c r="B194" t="s">
+        <v>875</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E194" t="s">
+        <v>133</v>
+      </c>
+      <c r="F194" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>869</v>
+      </c>
+      <c r="B195" t="s">
+        <v>876</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E195" t="s">
+        <v>133</v>
+      </c>
+      <c r="F195" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>870</v>
+      </c>
+      <c r="B196" t="s">
+        <v>885</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E196" t="s">
+        <v>133</v>
+      </c>
+      <c r="F196" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>871</v>
+      </c>
+      <c r="B197" t="s">
+        <v>886</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E197" t="s">
+        <v>133</v>
+      </c>
+      <c r="F197" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>888</v>
+      </c>
+      <c r="B198" t="s">
+        <v>889</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E198" t="s">
+        <v>133</v>
+      </c>
+      <c r="F198" t="s">
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -8941,10 +9529,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8973,7 +9561,7 @@
         <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -9065,7 +9653,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -9077,7 +9665,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -9089,7 +9677,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -9134,7 +9722,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
         <v>143</v>
@@ -9145,7 +9733,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
         <v>143</v>
@@ -9156,7 +9744,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
         <v>143</v>
@@ -9167,7 +9755,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
         <v>143</v>
@@ -9178,7 +9766,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
         <v>143</v>
@@ -9189,7 +9777,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="C20" t="s">
         <v>143</v>
@@ -9200,7 +9788,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>439</v>
+        <v>358</v>
       </c>
       <c r="C21" t="s">
         <v>143</v>
@@ -9211,7 +9799,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>440</v>
+        <v>359</v>
       </c>
       <c r="C22" t="s">
         <v>143</v>
@@ -9222,7 +9810,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="C23" t="s">
         <v>143</v>
@@ -9233,7 +9821,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -9244,7 +9832,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -9255,7 +9843,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -9266,7 +9854,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -9277,7 +9865,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -9288,7 +9876,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -9299,7 +9887,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -9310,7 +9898,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -9321,7 +9909,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -9332,7 +9920,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -9343,7 +9931,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -9354,7 +9942,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -9365,7 +9953,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -9376,7 +9964,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -9387,7 +9975,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -9398,7 +9986,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -9409,7 +9997,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -9420,7 +10008,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -9431,7 +10019,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -9442,7 +10030,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -9453,7 +10041,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -9464,7 +10052,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -9475,7 +10063,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -9486,7 +10074,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -9497,1106 +10085,18 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>267</v>
+        <v>464</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>268</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>269</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>270</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>271</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>272</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>274</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>275</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>278</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>279</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>280</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>281</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>283</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>285</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>286</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>287</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>288</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>289</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>290</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>292</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>293</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>294</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>296</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>297</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>299</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>300</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>301</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>302</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>303</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>304</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>305</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>306</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>307</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>308</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>309</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>310</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>311</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>312</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>313</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>314</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>315</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>316</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>317</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>318</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>319</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>320</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>321</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>322</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>323</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>324</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>325</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>326</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>369</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>370</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>371</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>372</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>373</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>374</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>375</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>376</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>377</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>378</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>379</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>380</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>381</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>382</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>383</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>384</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>385</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>386</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>387</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>388</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>544</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>545</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>546</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>547</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>549</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>560</v>
-      </c>
-      <c r="C133" t="s">
-        <v>143</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>588</v>
-      </c>
-      <c r="C134" t="s">
-        <v>143</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>589</v>
-      </c>
-      <c r="C135" t="s">
-        <v>143</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>590</v>
-      </c>
-      <c r="C136" t="s">
-        <v>143</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>591</v>
-      </c>
-      <c r="C137" t="s">
-        <v>143</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>592</v>
-      </c>
-      <c r="C138" t="s">
-        <v>143</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>593</v>
-      </c>
-      <c r="C139" t="s">
-        <v>143</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>594</v>
-      </c>
-      <c r="C140" t="s">
-        <v>143</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>595</v>
-      </c>
-      <c r="C141" t="s">
-        <v>143</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>596</v>
-      </c>
-      <c r="C142" t="s">
-        <v>143</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>597</v>
-      </c>
-      <c r="C143" t="s">
-        <v>143</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>600</v>
-      </c>
-      <c r="C144" t="s">
-        <v>143</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>601</v>
-      </c>
-      <c r="C145" t="s">
-        <v>143</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>609</v>
-      </c>
-      <c r="C146" t="s">
-        <v>143</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>610</v>
-      </c>
-      <c r="C147" t="s">
-        <v>143</v>
-      </c>
-      <c r="D147">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10632,154 +10132,154 @@
         <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>379</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>414</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>496</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
-        <v>488</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>411</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="E5" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="E6" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>412</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="E8" t="s">
-        <v>490</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>413</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="E9" t="s">
-        <v>491</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>497</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
-        <v>498</v>
+        <v>417</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10787,13 +10287,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
-        <v>499</v>
+        <v>418</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10801,13 +10301,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>424</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
+        <v>419</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10815,13 +10315,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>420</v>
       </c>
       <c r="B13" t="s">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10829,13 +10329,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -10843,10 +10343,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
+        <v>427</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>1</v>
@@ -10855,15 +10355,15 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>509</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>433</v>
       </c>
       <c r="B16" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>1</v>
@@ -10872,15 +10372,15 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>518</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>516</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s">
-        <v>517</v>
+        <v>436</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>1</v>
@@ -10889,15 +10389,15 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>519</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>531</v>
+        <v>450</v>
       </c>
       <c r="B18" t="s">
-        <v>532</v>
+        <v>451</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>1</v>
@@ -10906,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>533</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
+++ b/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
@@ -6321,7 +6321,7 @@
   <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8759,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="s">
         <v>133</v>

--- a/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
+++ b/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="938">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -2830,6 +2830,27 @@
   </si>
   <si>
     <t>Rack ID</t>
+  </si>
+  <si>
+    <t>REF_pump_spin_limit</t>
+  </si>
+  <si>
+    <t>REF_pump_spin_limit_shutdown_time</t>
+  </si>
+  <si>
+    <t>D4700</t>
+  </si>
+  <si>
+    <t>Pump overspin limit</t>
+  </si>
+  <si>
+    <t>D4705</t>
+  </si>
+  <si>
+    <t>Pump overspin limit time before shutdown</t>
+  </si>
+  <si>
+    <t>[3(10)]</t>
   </si>
 </sst>
 </file>
@@ -5767,8 +5788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6276,13 +6297,13 @@
         <v>468</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -6318,10 +6339,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10022,6 +10043,46 @@
       </c>
       <c r="F206" t="s">
         <v>921</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>931</v>
+      </c>
+      <c r="B207" t="s">
+        <v>933</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>133</v>
+      </c>
+      <c r="F207" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>932</v>
+      </c>
+      <c r="B208" t="s">
+        <v>935</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="E208" t="s">
+        <v>133</v>
+      </c>
+      <c r="F208" t="s">
+        <v>936</v>
       </c>
     </row>
   </sheetData>

--- a/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
+++ b/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="10500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="958">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -2851,6 +2851,66 @@
   </si>
   <si>
     <t>[3(10)]</t>
+  </si>
+  <si>
+    <t>FEEDBACK_power_meter_KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Power reading in KW </t>
+  </si>
+  <si>
+    <t>FEEDBACK_power_meter_Ia</t>
+  </si>
+  <si>
+    <t>Total Power reading in Ia</t>
+  </si>
+  <si>
+    <t>FEEDBACK_power_meter_Ib</t>
+  </si>
+  <si>
+    <t>D4710</t>
+  </si>
+  <si>
+    <t>Total Power reading in Ib</t>
+  </si>
+  <si>
+    <t>FEEDBACK_power_meter_Ic</t>
+  </si>
+  <si>
+    <t>D4715</t>
+  </si>
+  <si>
+    <t>Total Power reading in Ic</t>
+  </si>
+  <si>
+    <t>D4720</t>
+  </si>
+  <si>
+    <t>D4725</t>
+  </si>
+  <si>
+    <t>MB_power_Ia</t>
+  </si>
+  <si>
+    <t>MB_power_Ib</t>
+  </si>
+  <si>
+    <t>MB_power_Ic</t>
+  </si>
+  <si>
+    <t>MB_power_kw</t>
+  </si>
+  <si>
+    <t>D25715</t>
+  </si>
+  <si>
+    <t>D25717</t>
+  </si>
+  <si>
+    <t>D25719</t>
+  </si>
+  <si>
+    <t>D25729</t>
   </si>
 </sst>
 </file>
@@ -5788,7 +5848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -6339,10 +6399,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8660,164 +8720,152 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>364</v>
+        <v>950</v>
       </c>
       <c r="B133" t="s">
-        <v>362</v>
+        <v>954</v>
       </c>
       <c r="C133" t="s">
         <v>363</v>
       </c>
-      <c r="D133">
-        <v>0</v>
+      <c r="D133" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>699</v>
+        <v>951</v>
       </c>
       <c r="B134" t="s">
-        <v>697</v>
+        <v>955</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="F134" t="s">
-        <v>698</v>
+        <v>363</v>
+      </c>
+      <c r="D134" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>694</v>
+        <v>952</v>
       </c>
       <c r="B135" t="s">
-        <v>695</v>
+        <v>956</v>
       </c>
       <c r="C135" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
+        <v>363</v>
+      </c>
+      <c r="D135" s="4">
+        <v>-1</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
-      </c>
-      <c r="F135" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>775</v>
+        <v>953</v>
       </c>
       <c r="B136" t="s">
-        <v>776</v>
+        <v>957</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
+        <v>363</v>
+      </c>
+      <c r="D136" s="4">
+        <v>-1</v>
       </c>
       <c r="E136" t="s">
         <v>133</v>
-      </c>
-      <c r="F136" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>777</v>
+        <v>364</v>
       </c>
       <c r="B137" t="s">
-        <v>778</v>
+        <v>362</v>
       </c>
       <c r="C137" t="s">
-        <v>1</v>
+        <v>363</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
-      <c r="E137" t="s">
-        <v>133</v>
-      </c>
-      <c r="F137" t="s">
-        <v>779</v>
-      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>780</v>
+        <v>699</v>
       </c>
       <c r="B138" t="s">
-        <v>781</v>
+        <v>697</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
-      <c r="E138" t="s">
-        <v>133</v>
-      </c>
       <c r="F138" t="s">
-        <v>779</v>
+        <v>698</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>928</v>
+        <v>694</v>
       </c>
       <c r="B139" t="s">
-        <v>929</v>
+        <v>695</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="s">
         <v>133</v>
       </c>
       <c r="F139" t="s">
-        <v>930</v>
+        <v>696</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B140" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="C140" t="s">
-        <v>787</v>
-      </c>
-      <c r="D140" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
       </c>
       <c r="E140" t="s">
         <v>133</v>
       </c>
       <c r="F140" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>886</v>
+        <v>777</v>
       </c>
       <c r="B141" t="s">
-        <v>887</v>
+        <v>778</v>
       </c>
       <c r="C141" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -8826,18 +8874,18 @@
         <v>133</v>
       </c>
       <c r="F141" t="s">
-        <v>888</v>
+        <v>779</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>898</v>
+        <v>780</v>
       </c>
       <c r="B142" t="s">
-        <v>899</v>
+        <v>781</v>
       </c>
       <c r="C142" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -8846,89 +8894,95 @@
         <v>133</v>
       </c>
       <c r="F142" t="s">
-        <v>900</v>
+        <v>779</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>717</v>
+        <v>928</v>
       </c>
       <c r="B143" t="s">
-        <v>411</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D143" t="s">
-        <v>492</v>
+        <v>929</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
       </c>
       <c r="E143" t="s">
         <v>133</v>
       </c>
       <c r="F143" t="s">
-        <v>637</v>
+        <v>930</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>718</v>
+        <v>785</v>
       </c>
       <c r="B144" t="s">
-        <v>643</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>491</v>
+        <v>786</v>
+      </c>
+      <c r="C144" t="s">
+        <v>787</v>
       </c>
       <c r="D144" t="s">
-        <v>492</v>
+        <v>788</v>
       </c>
       <c r="E144" t="s">
         <v>133</v>
       </c>
       <c r="F144" t="s">
-        <v>638</v>
+        <v>789</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>719</v>
+        <v>886</v>
       </c>
       <c r="B145" t="s">
-        <v>644</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D145" t="s">
-        <v>492</v>
+        <v>887</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>133</v>
       </c>
       <c r="F145" t="s">
-        <v>650</v>
+        <v>888</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>710</v>
+        <v>898</v>
       </c>
       <c r="B146" t="s">
-        <v>714</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="D146" t="s">
-        <v>712</v>
+        <v>899</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>133</v>
       </c>
       <c r="F146" t="s">
-        <v>713</v>
+        <v>900</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>634</v>
+        <v>717</v>
       </c>
       <c r="B147" t="s">
-        <v>649</v>
+        <v>411</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>491</v>
@@ -8936,33 +8990,39 @@
       <c r="D147" t="s">
         <v>492</v>
       </c>
+      <c r="E147" t="s">
+        <v>133</v>
+      </c>
       <c r="F147" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>651</v>
+        <v>718</v>
       </c>
       <c r="B148" t="s">
-        <v>652</v>
-      </c>
-      <c r="C148" t="s">
-        <v>493</v>
+        <v>643</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>491</v>
       </c>
       <c r="D148" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="E148" t="s">
+        <v>133</v>
       </c>
       <c r="F148" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>913</v>
+        <v>719</v>
       </c>
       <c r="B149" t="s">
-        <v>914</v>
+        <v>644</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>491</v>
@@ -8971,175 +9031,163 @@
         <v>492</v>
       </c>
       <c r="F149" t="s">
-        <v>915</v>
+        <v>650</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B150" t="s">
-        <v>645</v>
-      </c>
-      <c r="C150" t="s">
-        <v>2</v>
+        <v>714</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>711</v>
       </c>
       <c r="D150" t="s">
-        <v>0</v>
-      </c>
-      <c r="E150" t="s">
-        <v>133</v>
+        <v>712</v>
       </c>
       <c r="F150" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B151" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="F151" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B152" t="s">
-        <v>647</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>11</v>
+        <v>652</v>
+      </c>
+      <c r="C152" t="s">
+        <v>493</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
-        <v>133</v>
+        <v>494</v>
       </c>
       <c r="F152" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>656</v>
+        <v>913</v>
       </c>
       <c r="B153" t="s">
-        <v>658</v>
+        <v>914</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" t="s">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="F153" t="s">
-        <v>660</v>
+        <v>915</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>657</v>
+        <v>715</v>
       </c>
       <c r="B154" t="s">
-        <v>648</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>11</v>
+        <v>645</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E154" t="s">
         <v>133</v>
       </c>
       <c r="F154" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>793</v>
+        <v>639</v>
       </c>
       <c r="B155" t="s">
-        <v>794</v>
-      </c>
-      <c r="C155" t="s">
-        <v>2</v>
+        <v>646</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E155" t="s">
         <v>133</v>
       </c>
       <c r="F155" t="s">
-        <v>795</v>
+        <v>640</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B156" t="s">
-        <v>659</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2</v>
+        <v>647</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E156" t="s">
         <v>133</v>
       </c>
       <c r="F156" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B157" t="s">
-        <v>666</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2</v>
+        <v>658</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E157" t="s">
         <v>133</v>
       </c>
       <c r="F157" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>792</v>
+        <v>657</v>
       </c>
       <c r="B158" t="s">
-        <v>790</v>
+        <v>648</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>11</v>
@@ -9151,69 +9199,75 @@
         <v>133</v>
       </c>
       <c r="F158" t="s">
-        <v>791</v>
+        <v>661</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>635</v>
+        <v>793</v>
       </c>
       <c r="B159" t="s">
-        <v>665</v>
+        <v>794</v>
       </c>
       <c r="C159" t="s">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>494</v>
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>133</v>
       </c>
       <c r="F159" t="s">
-        <v>670</v>
+        <v>795</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="B160" t="s">
-        <v>667</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>491</v>
+        <v>659</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>492</v>
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>133</v>
       </c>
       <c r="F160" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B161" t="s">
-        <v>677</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>11</v>
+        <v>666</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E161" t="s">
         <v>133</v>
       </c>
       <c r="F161" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>675</v>
+        <v>792</v>
       </c>
       <c r="B162" t="s">
-        <v>680</v>
+        <v>790</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>11</v>
@@ -9225,137 +9279,143 @@
         <v>133</v>
       </c>
       <c r="F162" t="s">
-        <v>678</v>
+        <v>791</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>676</v>
+        <v>635</v>
       </c>
       <c r="B163" t="s">
-        <v>681</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>11</v>
+        <v>665</v>
+      </c>
+      <c r="C163" t="s">
+        <v>493</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" t="s">
-        <v>133</v>
+        <v>494</v>
       </c>
       <c r="F163" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B164" t="s">
-        <v>682</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2</v>
+        <v>667</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>491</v>
       </c>
       <c r="D164" t="s">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="F164" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B165" t="s">
-        <v>684</v>
-      </c>
-      <c r="C165" t="s">
-        <v>2</v>
+        <v>677</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>133</v>
       </c>
       <c r="F165" t="s">
-        <v>673</v>
+        <v>720</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B166" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>492</v>
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>133</v>
       </c>
       <c r="F166" t="s">
-        <v>223</v>
+        <v>678</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B167" t="s">
-        <v>735</v>
+        <v>681</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>492</v>
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>133</v>
       </c>
       <c r="F167" t="s">
-        <v>222</v>
+        <v>679</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="B168" t="s">
-        <v>736</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>492</v>
+        <v>682</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>224</v>
+        <v>672</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="B169" t="s">
-        <v>737</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>492</v>
+        <v>684</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>225</v>
+        <v>673</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B170" t="s">
-        <v>738</v>
+        <v>683</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>491</v>
@@ -9364,15 +9424,15 @@
         <v>492</v>
       </c>
       <c r="F170" t="s">
-        <v>632</v>
+        <v>223</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B171" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>491</v>
@@ -9381,15 +9441,15 @@
         <v>492</v>
       </c>
       <c r="F171" t="s">
-        <v>633</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="B172" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>491</v>
@@ -9398,15 +9458,15 @@
         <v>492</v>
       </c>
       <c r="F172" t="s">
-        <v>748</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="B173" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>491</v>
@@ -9415,15 +9475,15 @@
         <v>492</v>
       </c>
       <c r="F173" t="s">
-        <v>749</v>
+        <v>225</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="B174" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>491</v>
@@ -9432,15 +9492,15 @@
         <v>492</v>
       </c>
       <c r="F174" t="s">
-        <v>750</v>
+        <v>632</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="B175" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>491</v>
@@ -9449,15 +9509,15 @@
         <v>492</v>
       </c>
       <c r="F175" t="s">
-        <v>751</v>
+        <v>633</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B176" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>491</v>
@@ -9466,15 +9526,15 @@
         <v>492</v>
       </c>
       <c r="F176" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B177" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>491</v>
@@ -9483,15 +9543,15 @@
         <v>492</v>
       </c>
       <c r="F177" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B178" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>491</v>
@@ -9500,15 +9560,15 @@
         <v>492</v>
       </c>
       <c r="F178" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B179" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>491</v>
@@ -9517,15 +9577,15 @@
         <v>492</v>
       </c>
       <c r="F179" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>691</v>
+        <v>731</v>
       </c>
       <c r="B180" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>491</v>
@@ -9533,19 +9593,16 @@
       <c r="D180" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E180" t="s">
-        <v>133</v>
-      </c>
       <c r="F180" t="s">
-        <v>226</v>
+        <v>752</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>692</v>
+        <v>732</v>
       </c>
       <c r="B181" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>491</v>
@@ -9553,19 +9610,16 @@
       <c r="D181" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E181" t="s">
-        <v>133</v>
-      </c>
       <c r="F181" t="s">
-        <v>227</v>
+        <v>753</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="B182" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>491</v>
@@ -9573,87 +9627,93 @@
       <c r="D182" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E182" t="s">
-        <v>133</v>
-      </c>
       <c r="F182" t="s">
-        <v>228</v>
+        <v>754</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="B183" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="F183" t="s">
-        <v>702</v>
+        <v>755</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B184" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>12</v>
+        <v>492</v>
+      </c>
+      <c r="E184" t="s">
+        <v>133</v>
       </c>
       <c r="F184" t="s">
-        <v>703</v>
+        <v>226</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="B185" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>12</v>
+        <v>492</v>
+      </c>
+      <c r="E185" t="s">
+        <v>133</v>
       </c>
       <c r="F185" t="s">
-        <v>704</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="B186" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>0</v>
+        <v>492</v>
+      </c>
+      <c r="E186" t="s">
+        <v>133</v>
       </c>
       <c r="F186" t="s">
-        <v>706</v>
+        <v>228</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B187" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>11</v>
@@ -9662,75 +9722,66 @@
         <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="B188" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="B189" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>726</v>
+        <v>11</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="E189" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>769</v>
+        <v>707</v>
       </c>
       <c r="B190" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="D190" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E190" t="s">
-        <v>133</v>
-      </c>
       <c r="F190" t="s">
-        <v>771</v>
+        <v>706</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>772</v>
+        <v>708</v>
       </c>
       <c r="B191" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>11</v>
@@ -9738,119 +9789,116 @@
       <c r="D191" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E191" t="s">
-        <v>133</v>
-      </c>
       <c r="F191" t="s">
-        <v>774</v>
+        <v>709</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>782</v>
+        <v>721</v>
       </c>
       <c r="B192" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="E192" t="s">
         <v>133</v>
       </c>
       <c r="F192" t="s">
-        <v>784</v>
+        <v>722</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>797</v>
+        <v>723</v>
       </c>
       <c r="B193" t="s">
-        <v>796</v>
+        <v>765</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>491</v>
+        <v>726</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>492</v>
+        <v>724</v>
       </c>
       <c r="E193" t="s">
         <v>133</v>
       </c>
       <c r="F193" t="s">
-        <v>813</v>
+        <v>725</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="B194" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>492</v>
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
       </c>
       <c r="E194" t="s">
         <v>133</v>
       </c>
       <c r="F194" t="s">
-        <v>810</v>
+        <v>771</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>799</v>
+        <v>772</v>
       </c>
       <c r="B195" t="s">
-        <v>806</v>
+        <v>773</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>491</v>
+        <v>11</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>492</v>
+        <v>12</v>
       </c>
       <c r="E195" t="s">
         <v>133</v>
       </c>
       <c r="F195" t="s">
-        <v>811</v>
+        <v>774</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="B196" t="s">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E196" t="s">
         <v>133</v>
       </c>
       <c r="F196" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B197" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>491</v>
@@ -9862,15 +9910,15 @@
         <v>133</v>
       </c>
       <c r="F197" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B198" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>491</v>
@@ -9882,15 +9930,15 @@
         <v>133</v>
       </c>
       <c r="F198" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B199" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>491</v>
@@ -9902,15 +9950,15 @@
         <v>133</v>
       </c>
       <c r="F199" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B200" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>491</v>
@@ -9922,55 +9970,55 @@
         <v>133</v>
       </c>
       <c r="F200" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="B201" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E201" t="s">
         <v>133</v>
       </c>
       <c r="F201" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>892</v>
+        <v>802</v>
       </c>
       <c r="B202" t="s">
-        <v>893</v>
+        <v>809</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>624</v>
+        <v>491</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>625</v>
+        <v>492</v>
       </c>
       <c r="E202" t="s">
         <v>133</v>
       </c>
       <c r="F202" t="s">
-        <v>894</v>
+        <v>816</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>895</v>
+        <v>803</v>
       </c>
       <c r="B203" t="s">
-        <v>896</v>
+        <v>818</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>491</v>
@@ -9982,107 +10030,267 @@
         <v>133</v>
       </c>
       <c r="F203" t="s">
-        <v>897</v>
+        <v>815</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>910</v>
+        <v>804</v>
       </c>
       <c r="B204" t="s">
-        <v>911</v>
+        <v>819</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="E204" t="s">
         <v>133</v>
       </c>
       <c r="F204" t="s">
-        <v>912</v>
+        <v>817</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>916</v>
+        <v>821</v>
       </c>
       <c r="B205" t="s">
-        <v>917</v>
+        <v>822</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E205" t="s">
         <v>133</v>
       </c>
       <c r="F205" t="s">
-        <v>920</v>
+        <v>820</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="B206" t="s">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>491</v>
+        <v>624</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>492</v>
+        <v>625</v>
       </c>
       <c r="E206" t="s">
         <v>133</v>
       </c>
       <c r="F206" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>931</v>
+        <v>895</v>
       </c>
       <c r="B207" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="E207" t="s">
         <v>133</v>
       </c>
       <c r="F207" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>910</v>
+      </c>
+      <c r="B208" t="s">
+        <v>911</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>133</v>
+      </c>
+      <c r="F208" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>916</v>
+      </c>
+      <c r="B209" t="s">
+        <v>917</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E209" t="s">
+        <v>133</v>
+      </c>
+      <c r="F209" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>918</v>
+      </c>
+      <c r="B210" t="s">
+        <v>919</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E210" t="s">
+        <v>133</v>
+      </c>
+      <c r="F210" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>931</v>
+      </c>
+      <c r="B211" t="s">
+        <v>933</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" t="s">
+        <v>133</v>
+      </c>
+      <c r="F211" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>932</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B212" t="s">
         <v>935</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C212" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D212" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="E208" t="s">
-        <v>133</v>
-      </c>
-      <c r="F208" t="s">
+      <c r="E212" t="s">
+        <v>133</v>
+      </c>
+      <c r="F212" t="s">
         <v>936</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>938</v>
+      </c>
+      <c r="B213" t="s">
+        <v>943</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>133</v>
+      </c>
+      <c r="F213" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>940</v>
+      </c>
+      <c r="B214" t="s">
+        <v>946</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>133</v>
+      </c>
+      <c r="F214" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>942</v>
+      </c>
+      <c r="B215" t="s">
+        <v>948</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>133</v>
+      </c>
+      <c r="F215" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>945</v>
+      </c>
+      <c r="B216" t="s">
+        <v>949</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>133</v>
+      </c>
+      <c r="F216" t="s">
+        <v>947</v>
       </c>
     </row>
   </sheetData>

--- a/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
+++ b/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
@@ -2199,9 +2199,6 @@
     <t>FEEDBACK_shelf_numtray</t>
   </si>
   <si>
-    <t>Pump operation mode (0 - auto, 1 - flowrate, 2 - RPM)</t>
-  </si>
-  <si>
     <t>CTRL_pump_on</t>
   </si>
   <si>
@@ -2911,6 +2908,9 @@
   </si>
   <si>
     <t>D25729</t>
+  </si>
+  <si>
+    <t>Pump operation mode (1 - auto, 2 - flowrate, 3 - RPM)</t>
   </si>
 </sst>
 </file>
@@ -3568,7 +3568,7 @@
         <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -3698,7 +3698,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E24" t="s">
         <v>492</v>
@@ -3715,7 +3715,7 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E25" t="s">
         <v>492</v>
@@ -3732,7 +3732,7 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E26" t="s">
         <v>492</v>
@@ -3749,7 +3749,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E27" t="s">
         <v>492</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C65">
         <v>14</v>
@@ -4464,12 +4464,12 @@
         <v>492</v>
       </c>
       <c r="G65" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C66">
         <v>14</v>
@@ -4481,12 +4481,12 @@
         <v>492</v>
       </c>
       <c r="G66" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C67">
         <v>14</v>
@@ -4498,12 +4498,12 @@
         <v>492</v>
       </c>
       <c r="G67" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C68">
         <v>14</v>
@@ -4515,12 +4515,12 @@
         <v>492</v>
       </c>
       <c r="G68" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C69">
         <v>14</v>
@@ -4532,12 +4532,12 @@
         <v>492</v>
       </c>
       <c r="G69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C70">
         <v>14</v>
@@ -4549,12 +4549,12 @@
         <v>492</v>
       </c>
       <c r="G70" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C71">
         <v>14</v>
@@ -4566,12 +4566,12 @@
         <v>492</v>
       </c>
       <c r="G71" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C72">
         <v>14</v>
@@ -4583,12 +4583,12 @@
         <v>492</v>
       </c>
       <c r="G72" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C73">
         <v>14</v>
@@ -4600,12 +4600,12 @@
         <v>494</v>
       </c>
       <c r="G73" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C74">
         <v>14</v>
@@ -4617,12 +4617,12 @@
         <v>492</v>
       </c>
       <c r="G74" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C75">
         <v>14</v>
@@ -4634,12 +4634,12 @@
         <v>492</v>
       </c>
       <c r="G75" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -5979,7 +5979,7 @@
         <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6401,8 +6401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6442,7 +6442,7 @@
         <v>580</v>
       </c>
       <c r="B2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -6456,7 +6456,7 @@
         <v>581</v>
       </c>
       <c r="B3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -6470,7 +6470,7 @@
         <v>582</v>
       </c>
       <c r="B4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -6484,7 +6484,7 @@
         <v>583</v>
       </c>
       <c r="B5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -6498,7 +6498,7 @@
         <v>584</v>
       </c>
       <c r="B6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -6512,7 +6512,7 @@
         <v>585</v>
       </c>
       <c r="B7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -6526,7 +6526,7 @@
         <v>586</v>
       </c>
       <c r="B8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -6540,7 +6540,7 @@
         <v>587</v>
       </c>
       <c r="B9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -6554,7 +6554,7 @@
         <v>588</v>
       </c>
       <c r="B10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -6568,7 +6568,7 @@
         <v>589</v>
       </c>
       <c r="B11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -6582,7 +6582,7 @@
         <v>590</v>
       </c>
       <c r="B12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -6596,7 +6596,7 @@
         <v>591</v>
       </c>
       <c r="B13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -6610,7 +6610,7 @@
         <v>592</v>
       </c>
       <c r="B14" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -6619,7 +6619,7 @@
         <v>-1</v>
       </c>
       <c r="F14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6627,7 +6627,7 @@
         <v>593</v>
       </c>
       <c r="B15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -6636,7 +6636,7 @@
         <v>-1</v>
       </c>
       <c r="F15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6746,7 +6746,7 @@
         <v>600</v>
       </c>
       <c r="B22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -6763,7 +6763,7 @@
         <v>601</v>
       </c>
       <c r="B23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -6780,7 +6780,7 @@
         <v>602</v>
       </c>
       <c r="B24" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -6797,7 +6797,7 @@
         <v>603</v>
       </c>
       <c r="B25" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -6814,7 +6814,7 @@
         <v>604</v>
       </c>
       <c r="B26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -6831,7 +6831,7 @@
         <v>605</v>
       </c>
       <c r="B27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -6848,7 +6848,7 @@
         <v>606</v>
       </c>
       <c r="B28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -6865,7 +6865,7 @@
         <v>607</v>
       </c>
       <c r="B29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -7042,7 +7042,7 @@
         <v>507</v>
       </c>
       <c r="B38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -7054,7 +7054,7 @@
         <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7062,7 +7062,7 @@
         <v>508</v>
       </c>
       <c r="B39" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -7074,7 +7074,7 @@
         <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7362,7 +7362,7 @@
         <v>523</v>
       </c>
       <c r="B54" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -7374,7 +7374,7 @@
         <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7382,7 +7382,7 @@
         <v>524</v>
       </c>
       <c r="B55" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -7394,7 +7394,7 @@
         <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7402,7 +7402,7 @@
         <v>525</v>
       </c>
       <c r="B56" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -7414,7 +7414,7 @@
         <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7422,7 +7422,7 @@
         <v>526</v>
       </c>
       <c r="B57" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -7434,7 +7434,7 @@
         <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7451,7 +7451,7 @@
         <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7468,7 +7468,7 @@
         <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7485,7 +7485,7 @@
         <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7502,12 +7502,12 @@
         <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B62" t="s">
         <v>568</v>
@@ -7519,12 +7519,12 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B63" t="s">
         <v>569</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -7544,7 +7544,7 @@
         <v>548</v>
       </c>
       <c r="B64" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -7553,7 +7553,7 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
         <v>549</v>
       </c>
       <c r="B65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -7570,7 +7570,7 @@
         <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7782,7 +7782,7 @@
         <v>262</v>
       </c>
       <c r="B78" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -7799,7 +7799,7 @@
         <v>263</v>
       </c>
       <c r="B79" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -7816,7 +7816,7 @@
         <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -7833,7 +7833,7 @@
         <v>265</v>
       </c>
       <c r="B81" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -7850,7 +7850,7 @@
         <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -7867,7 +7867,7 @@
         <v>267</v>
       </c>
       <c r="B83" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -7884,7 +7884,7 @@
         <v>268</v>
       </c>
       <c r="B84" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -7901,7 +7901,7 @@
         <v>269</v>
       </c>
       <c r="B85" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -7918,7 +7918,7 @@
         <v>270</v>
       </c>
       <c r="B86" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -7935,7 +7935,7 @@
         <v>271</v>
       </c>
       <c r="B87" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -7952,7 +7952,7 @@
         <v>576</v>
       </c>
       <c r="B88" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -7969,7 +7969,7 @@
         <v>577</v>
       </c>
       <c r="B89" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -7986,7 +7986,7 @@
         <v>578</v>
       </c>
       <c r="B90" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -7995,7 +7995,7 @@
         <v>131</v>
       </c>
       <c r="F90" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -8003,7 +8003,7 @@
         <v>579</v>
       </c>
       <c r="B91" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -8012,7 +8012,7 @@
         <v>131</v>
       </c>
       <c r="F91" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -8020,7 +8020,7 @@
         <v>252</v>
       </c>
       <c r="B92" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -8029,7 +8029,7 @@
         <v>-1</v>
       </c>
       <c r="F92" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -8037,7 +8037,7 @@
         <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -8046,7 +8046,7 @@
         <v>-1</v>
       </c>
       <c r="F93" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -8054,7 +8054,7 @@
         <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -8071,7 +8071,7 @@
         <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -8088,7 +8088,7 @@
         <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -8105,7 +8105,7 @@
         <v>257</v>
       </c>
       <c r="B97" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>258</v>
       </c>
       <c r="B98" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -8139,7 +8139,7 @@
         <v>259</v>
       </c>
       <c r="B99" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -8156,7 +8156,7 @@
         <v>260</v>
       </c>
       <c r="B100" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -8173,7 +8173,7 @@
         <v>261</v>
       </c>
       <c r="B101" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -8190,7 +8190,7 @@
         <v>610</v>
       </c>
       <c r="B102" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -8207,7 +8207,7 @@
         <v>611</v>
       </c>
       <c r="B103" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -8224,7 +8224,7 @@
         <v>612</v>
       </c>
       <c r="B104" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         <v>613</v>
       </c>
       <c r="B105" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -8258,7 +8258,7 @@
         <v>616</v>
       </c>
       <c r="B106" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -8275,7 +8275,7 @@
         <v>617</v>
       </c>
       <c r="B107" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -8292,7 +8292,7 @@
         <v>618</v>
       </c>
       <c r="B108" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -8309,7 +8309,7 @@
         <v>619</v>
       </c>
       <c r="B109" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -8720,10 +8720,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B133" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C133" t="s">
         <v>363</v>
@@ -8737,10 +8737,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B134" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C134" t="s">
         <v>363</v>
@@ -8754,10 +8754,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B135" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C135" t="s">
         <v>363</v>
@@ -8771,10 +8771,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B136" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C136" t="s">
         <v>363</v>
@@ -8839,10 +8839,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>774</v>
+      </c>
+      <c r="B140" t="s">
         <v>775</v>
-      </c>
-      <c r="B140" t="s">
-        <v>776</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
@@ -8854,15 +8854,15 @@
         <v>133</v>
       </c>
       <c r="F140" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>776</v>
+      </c>
+      <c r="B141" t="s">
         <v>777</v>
-      </c>
-      <c r="B141" t="s">
-        <v>778</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
@@ -8874,15 +8874,15 @@
         <v>133</v>
       </c>
       <c r="F141" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>779</v>
+      </c>
+      <c r="B142" t="s">
         <v>780</v>
-      </c>
-      <c r="B142" t="s">
-        <v>781</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
@@ -8894,55 +8894,55 @@
         <v>133</v>
       </c>
       <c r="F142" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>927</v>
+      </c>
+      <c r="B143" t="s">
         <v>928</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>133</v>
+      </c>
+      <c r="F143" t="s">
         <v>929</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143" t="s">
-        <v>133</v>
-      </c>
-      <c r="F143" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>784</v>
+      </c>
+      <c r="B144" t="s">
         <v>785</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>786</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>787</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
+        <v>133</v>
+      </c>
+      <c r="F144" t="s">
         <v>788</v>
-      </c>
-      <c r="E144" t="s">
-        <v>133</v>
-      </c>
-      <c r="F144" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>885</v>
+      </c>
+      <c r="B145" t="s">
         <v>886</v>
-      </c>
-      <c r="B145" t="s">
-        <v>887</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
@@ -8954,15 +8954,15 @@
         <v>133</v>
       </c>
       <c r="F145" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>897</v>
+      </c>
+      <c r="B146" t="s">
         <v>898</v>
-      </c>
-      <c r="B146" t="s">
-        <v>899</v>
       </c>
       <c r="C146" t="s">
         <v>3</v>
@@ -8974,7 +8974,7 @@
         <v>133</v>
       </c>
       <c r="F146" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -9087,10 +9087,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>912</v>
+      </c>
+      <c r="B153" t="s">
         <v>913</v>
-      </c>
-      <c r="B153" t="s">
-        <v>914</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>491</v>
@@ -9099,7 +9099,7 @@
         <v>492</v>
       </c>
       <c r="F153" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -9204,10 +9204,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>792</v>
+      </c>
+      <c r="B159" t="s">
         <v>793</v>
-      </c>
-      <c r="B159" t="s">
-        <v>794</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -9219,7 +9219,7 @@
         <v>133</v>
       </c>
       <c r="F159" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -9264,10 +9264,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B162" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>11</v>
@@ -9279,7 +9279,7 @@
         <v>133</v>
       </c>
       <c r="F162" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -9333,7 +9333,7 @@
         <v>133</v>
       </c>
       <c r="F165" t="s">
-        <v>720</v>
+        <v>957</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -9432,7 +9432,7 @@
         <v>686</v>
       </c>
       <c r="B171" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>491</v>
@@ -9449,7 +9449,7 @@
         <v>687</v>
       </c>
       <c r="B172" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>491</v>
@@ -9466,7 +9466,7 @@
         <v>688</v>
       </c>
       <c r="B173" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>491</v>
@@ -9483,7 +9483,7 @@
         <v>689</v>
       </c>
       <c r="B174" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>491</v>
@@ -9500,7 +9500,7 @@
         <v>690</v>
       </c>
       <c r="B175" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>491</v>
@@ -9514,10 +9514,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B176" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>491</v>
@@ -9526,15 +9526,15 @@
         <v>492</v>
       </c>
       <c r="F176" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B177" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>491</v>
@@ -9543,15 +9543,15 @@
         <v>492</v>
       </c>
       <c r="F177" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B178" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>491</v>
@@ -9560,15 +9560,15 @@
         <v>492</v>
       </c>
       <c r="F178" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B179" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>491</v>
@@ -9577,15 +9577,15 @@
         <v>492</v>
       </c>
       <c r="F179" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B180" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>491</v>
@@ -9594,15 +9594,15 @@
         <v>492</v>
       </c>
       <c r="F180" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B181" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>491</v>
@@ -9611,15 +9611,15 @@
         <v>492</v>
       </c>
       <c r="F181" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B182" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>491</v>
@@ -9628,15 +9628,15 @@
         <v>492</v>
       </c>
       <c r="F182" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B183" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>491</v>
@@ -9645,7 +9645,7 @@
         <v>492</v>
       </c>
       <c r="F183" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -9653,7 +9653,7 @@
         <v>691</v>
       </c>
       <c r="B184" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>491</v>
@@ -9673,7 +9673,7 @@
         <v>692</v>
       </c>
       <c r="B185" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>491</v>
@@ -9693,7 +9693,7 @@
         <v>693</v>
       </c>
       <c r="B186" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>491</v>
@@ -9713,7 +9713,7 @@
         <v>700</v>
       </c>
       <c r="B187" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>11</v>
@@ -9730,7 +9730,7 @@
         <v>701</v>
       </c>
       <c r="B188" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>11</v>
@@ -9747,7 +9747,7 @@
         <v>705</v>
       </c>
       <c r="B189" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>11</v>
@@ -9764,7 +9764,7 @@
         <v>707</v>
       </c>
       <c r="B190" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>2</v>
@@ -9781,7 +9781,7 @@
         <v>708</v>
       </c>
       <c r="B191" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>11</v>
@@ -9795,10 +9795,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B192" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>2</v>
@@ -9810,35 +9810,35 @@
         <v>133</v>
       </c>
       <c r="F192" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>722</v>
+      </c>
+      <c r="B193" t="s">
+        <v>764</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="D193" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="B193" t="s">
-        <v>765</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="D193" s="7" t="s">
+      <c r="E193" t="s">
+        <v>133</v>
+      </c>
+      <c r="F193" t="s">
         <v>724</v>
-      </c>
-      <c r="E193" t="s">
-        <v>133</v>
-      </c>
-      <c r="F193" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>768</v>
+      </c>
+      <c r="B194" t="s">
         <v>769</v>
-      </c>
-      <c r="B194" t="s">
-        <v>770</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>1</v>
@@ -9850,15 +9850,15 @@
         <v>133</v>
       </c>
       <c r="F194" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>771</v>
+      </c>
+      <c r="B195" t="s">
         <v>772</v>
-      </c>
-      <c r="B195" t="s">
-        <v>773</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>11</v>
@@ -9870,15 +9870,15 @@
         <v>133</v>
       </c>
       <c r="F195" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>781</v>
+      </c>
+      <c r="B196" t="s">
         <v>782</v>
-      </c>
-      <c r="B196" t="s">
-        <v>783</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>493</v>
@@ -9890,15 +9890,15 @@
         <v>133</v>
       </c>
       <c r="F196" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B197" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>491</v>
@@ -9910,15 +9910,15 @@
         <v>133</v>
       </c>
       <c r="F197" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B198" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>491</v>
@@ -9930,15 +9930,15 @@
         <v>133</v>
       </c>
       <c r="F198" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B199" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>491</v>
@@ -9950,15 +9950,15 @@
         <v>133</v>
       </c>
       <c r="F199" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B200" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>491</v>
@@ -9970,15 +9970,15 @@
         <v>133</v>
       </c>
       <c r="F200" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B201" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>491</v>
@@ -9990,15 +9990,15 @@
         <v>133</v>
       </c>
       <c r="F201" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B202" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>491</v>
@@ -10010,15 +10010,15 @@
         <v>133</v>
       </c>
       <c r="F202" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B203" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>491</v>
@@ -10030,15 +10030,15 @@
         <v>133</v>
       </c>
       <c r="F203" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B204" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>491</v>
@@ -10050,15 +10050,15 @@
         <v>133</v>
       </c>
       <c r="F204" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>820</v>
+      </c>
+      <c r="B205" t="s">
         <v>821</v>
-      </c>
-      <c r="B205" t="s">
-        <v>822</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>493</v>
@@ -10070,15 +10070,15 @@
         <v>133</v>
       </c>
       <c r="F205" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>891</v>
+      </c>
+      <c r="B206" t="s">
         <v>892</v>
-      </c>
-      <c r="B206" t="s">
-        <v>893</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>624</v>
@@ -10090,15 +10090,15 @@
         <v>133</v>
       </c>
       <c r="F206" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>894</v>
+      </c>
+      <c r="B207" t="s">
         <v>895</v>
-      </c>
-      <c r="B207" t="s">
-        <v>896</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>491</v>
@@ -10110,15 +10110,15 @@
         <v>133</v>
       </c>
       <c r="F207" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>909</v>
+      </c>
+      <c r="B208" t="s">
         <v>910</v>
-      </c>
-      <c r="B208" t="s">
-        <v>911</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>2</v>
@@ -10130,15 +10130,15 @@
         <v>133</v>
       </c>
       <c r="F208" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>915</v>
+      </c>
+      <c r="B209" t="s">
         <v>916</v>
-      </c>
-      <c r="B209" t="s">
-        <v>917</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>491</v>
@@ -10150,15 +10150,15 @@
         <v>133</v>
       </c>
       <c r="F209" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>917</v>
+      </c>
+      <c r="B210" t="s">
         <v>918</v>
-      </c>
-      <c r="B210" t="s">
-        <v>919</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>491</v>
@@ -10170,15 +10170,15 @@
         <v>133</v>
       </c>
       <c r="F210" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B211" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>11</v>
@@ -10190,35 +10190,35 @@
         <v>133</v>
       </c>
       <c r="F211" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B212" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E212" t="s">
         <v>133</v>
       </c>
       <c r="F212" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B213" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>363</v>
@@ -10230,15 +10230,15 @@
         <v>133</v>
       </c>
       <c r="F213" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B214" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>363</v>
@@ -10250,15 +10250,15 @@
         <v>133</v>
       </c>
       <c r="F214" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B215" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>363</v>
@@ -10270,15 +10270,15 @@
         <v>133</v>
       </c>
       <c r="F215" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B216" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>363</v>
@@ -10290,7 +10290,7 @@
         <v>133</v>
       </c>
       <c r="F216" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>

--- a/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
+++ b/rack_v2.0/PLC/type_B/data/global_variable_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Ellemento\repo\Ellemento_dev\rack_v2.0\PLC\type_B\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Ellemento\Part 1\repo\Ellemento\rack_v2.0\PLC\type_B\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="965">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -1431,9 +1431,6 @@
     <t>pumpAbnormalityStartTime</t>
   </si>
   <si>
-    <t>Anormality start time</t>
-  </si>
-  <si>
     <t>pumpAbnormalTermination</t>
   </si>
   <si>
@@ -2911,6 +2908,30 @@
   </si>
   <si>
     <t>Pump operation mode (1 - auto, 2 - flowrate, 3 - RPM)</t>
+  </si>
+  <si>
+    <t>pumpRecoverySequenceStarted</t>
+  </si>
+  <si>
+    <t>Flag to indicate recovery time started due to abnormal termination</t>
+  </si>
+  <si>
+    <t>Abnormality start time</t>
+  </si>
+  <si>
+    <t>Recovery start time</t>
+  </si>
+  <si>
+    <t>pumpRecoveryStartTime</t>
+  </si>
+  <si>
+    <t>D4730</t>
+  </si>
+  <si>
+    <t>REF_pump_error_shutdown_recovery_time_m</t>
+  </si>
+  <si>
+    <t>Recovery time in minutes for pump that was shutdown due to too much spin</t>
   </si>
 </sst>
 </file>
@@ -3269,7 +3290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3306,7 +3327,7 @@
         <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3568,7 +3589,7 @@
         <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -3607,7 +3628,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3619,12 +3640,12 @@
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3636,12 +3657,12 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3653,7 +3674,7 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -3698,10 +3719,10 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G24" t="s">
         <v>324</v>
@@ -3715,10 +3736,10 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G25" t="s">
         <v>325</v>
@@ -3732,10 +3753,10 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G26" t="s">
         <v>326</v>
@@ -3749,10 +3770,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G27" t="s">
         <v>327</v>
@@ -3780,10 +3801,10 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
+        <v>490</v>
+      </c>
+      <c r="E29" t="s">
         <v>491</v>
-      </c>
-      <c r="E29" t="s">
-        <v>492</v>
       </c>
       <c r="G29" t="s">
         <v>328</v>
@@ -3797,10 +3818,10 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
+        <v>490</v>
+      </c>
+      <c r="E30" t="s">
         <v>491</v>
-      </c>
-      <c r="E30" t="s">
-        <v>492</v>
       </c>
       <c r="G30" t="s">
         <v>329</v>
@@ -3808,7 +3829,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3820,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -4250,7 +4271,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4265,7 +4286,7 @@
         <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -4338,61 +4359,61 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C59">
         <v>14</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E59" t="s">
         <v>491</v>
       </c>
-      <c r="E59" t="s">
-        <v>492</v>
-      </c>
       <c r="G59" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C60">
         <v>14</v>
       </c>
       <c r="D60" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E60" t="s">
         <v>491</v>
       </c>
-      <c r="E60" t="s">
-        <v>492</v>
-      </c>
       <c r="G60" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E61" t="s">
         <v>624</v>
       </c>
-      <c r="E61" t="s">
-        <v>625</v>
-      </c>
       <c r="F61" t="s">
         <v>133</v>
       </c>
       <c r="G61" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4407,239 +4428,239 @@
         <v>133</v>
       </c>
       <c r="G62" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E63" t="s">
         <v>624</v>
       </c>
-      <c r="E63" t="s">
-        <v>625</v>
-      </c>
       <c r="F63" t="s">
         <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C64">
         <v>14</v>
       </c>
       <c r="D64" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E64" t="s">
         <v>493</v>
       </c>
-      <c r="E64" t="s">
-        <v>494</v>
-      </c>
       <c r="F64" t="s">
         <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C65">
         <v>14</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G65" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C66">
         <v>14</v>
       </c>
       <c r="D66" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G66" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C67">
         <v>14</v>
       </c>
       <c r="D67" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G67" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C68">
         <v>14</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G68" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C69">
         <v>14</v>
       </c>
       <c r="D69" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C70">
         <v>14</v>
       </c>
       <c r="D70" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G70" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C71">
         <v>14</v>
       </c>
       <c r="D71" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G71" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C72">
         <v>14</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G72" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C73">
         <v>14</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="G73" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C74">
         <v>14</v>
       </c>
       <c r="D74" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G74" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C75">
         <v>14</v>
       </c>
       <c r="D75" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G75" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -4651,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -4705,7 +4726,7 @@
         <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5745,7 +5766,7 @@
         <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5846,10 +5867,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5885,7 +5906,7 @@
         <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5979,7 +6000,7 @@
         <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6312,7 +6333,7 @@
         <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -6329,12 +6350,12 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>464</v>
+        <v>959</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -6349,12 +6370,12 @@
         <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -6369,26 +6390,63 @@
         <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>957</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>961</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>315</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="F28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E30" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6399,10 +6457,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6434,15 +6492,15 @@
         <v>192</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -6453,10 +6511,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -6467,10 +6525,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -6481,10 +6539,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -6495,10 +6553,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -6509,10 +6567,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -6523,10 +6581,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -6537,10 +6595,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -6551,10 +6609,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -6565,10 +6623,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -6579,10 +6637,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -6593,10 +6651,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -6607,10 +6665,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -6619,15 +6677,15 @@
         <v>-1</v>
       </c>
       <c r="F14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -6636,15 +6694,15 @@
         <v>-1</v>
       </c>
       <c r="F15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -6653,15 +6711,15 @@
         <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -6670,15 +6728,15 @@
         <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -6687,15 +6745,15 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -6704,15 +6762,15 @@
         <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -6721,15 +6779,15 @@
         <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -6738,15 +6796,15 @@
         <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -6755,15 +6813,15 @@
         <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -6772,15 +6830,15 @@
         <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -6789,15 +6847,15 @@
         <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -6806,15 +6864,15 @@
         <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B26" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -6823,15 +6881,15 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -6840,15 +6898,15 @@
         <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -6857,15 +6915,15 @@
         <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -6874,15 +6932,15 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -6894,15 +6952,15 @@
         <v>133</v>
       </c>
       <c r="F30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -6914,15 +6972,15 @@
         <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -6934,15 +6992,15 @@
         <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -6954,15 +7012,15 @@
         <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -6974,15 +7032,15 @@
         <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -6994,15 +7052,15 @@
         <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -7014,15 +7072,15 @@
         <v>133</v>
       </c>
       <c r="F36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B37" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -7034,15 +7092,15 @@
         <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -7054,15 +7112,15 @@
         <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B39" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -7074,15 +7132,15 @@
         <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -7094,15 +7152,15 @@
         <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -7114,15 +7172,15 @@
         <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -7134,15 +7192,15 @@
         <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -7154,15 +7212,15 @@
         <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -7174,15 +7232,15 @@
         <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -7194,15 +7252,15 @@
         <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -7214,15 +7272,15 @@
         <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B47" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -7234,15 +7292,15 @@
         <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -7254,15 +7312,15 @@
         <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -7274,15 +7332,15 @@
         <v>133</v>
       </c>
       <c r="F49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -7294,15 +7352,15 @@
         <v>133</v>
       </c>
       <c r="F50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B51" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -7314,15 +7372,15 @@
         <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B52" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -7334,15 +7392,15 @@
         <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B53" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -7354,15 +7412,15 @@
         <v>133</v>
       </c>
       <c r="F53" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B54" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -7374,15 +7432,15 @@
         <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B55" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -7394,15 +7452,15 @@
         <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B56" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -7414,15 +7472,15 @@
         <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B57" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -7434,15 +7492,15 @@
         <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -7451,15 +7509,15 @@
         <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B59" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -7468,15 +7526,15 @@
         <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B60" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -7485,15 +7543,15 @@
         <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -7502,15 +7560,15 @@
         <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B62" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -7519,15 +7577,15 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B63" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -7536,15 +7594,15 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B64" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -7553,15 +7611,15 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -7570,12 +7628,12 @@
         <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B66" t="s">
         <v>151</v>
@@ -7587,12 +7645,12 @@
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B67" t="s">
         <v>152</v>
@@ -7604,12 +7662,12 @@
         <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B68" t="s">
         <v>153</v>
@@ -7621,12 +7679,12 @@
         <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B69" t="s">
         <v>154</v>
@@ -7638,12 +7696,12 @@
         <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B70" t="s">
         <v>155</v>
@@ -7655,12 +7713,12 @@
         <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B71" t="s">
         <v>156</v>
@@ -7672,12 +7730,12 @@
         <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B72" t="s">
         <v>157</v>
@@ -7689,12 +7747,12 @@
         <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B73" t="s">
         <v>158</v>
@@ -7706,15 +7764,15 @@
         <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B74" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -7723,15 +7781,15 @@
         <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B75" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -7740,15 +7798,15 @@
         <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B76" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -7757,15 +7815,15 @@
         <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B77" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -7774,7 +7832,7 @@
         <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -7782,7 +7840,7 @@
         <v>262</v>
       </c>
       <c r="B78" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -7791,7 +7849,7 @@
         <v>131</v>
       </c>
       <c r="F78" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -7799,7 +7857,7 @@
         <v>263</v>
       </c>
       <c r="B79" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -7808,7 +7866,7 @@
         <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -7816,7 +7874,7 @@
         <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -7825,7 +7883,7 @@
         <v>131</v>
       </c>
       <c r="F80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -7833,7 +7891,7 @@
         <v>265</v>
       </c>
       <c r="B81" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -7842,7 +7900,7 @@
         <v>131</v>
       </c>
       <c r="F81" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -7850,7 +7908,7 @@
         <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -7859,7 +7917,7 @@
         <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -7867,7 +7925,7 @@
         <v>267</v>
       </c>
       <c r="B83" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -7876,7 +7934,7 @@
         <v>131</v>
       </c>
       <c r="F83" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -7884,7 +7942,7 @@
         <v>268</v>
       </c>
       <c r="B84" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -7893,7 +7951,7 @@
         <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -7901,7 +7959,7 @@
         <v>269</v>
       </c>
       <c r="B85" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -7910,7 +7968,7 @@
         <v>131</v>
       </c>
       <c r="F85" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -7918,7 +7976,7 @@
         <v>270</v>
       </c>
       <c r="B86" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -7927,7 +7985,7 @@
         <v>131</v>
       </c>
       <c r="F86" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -7935,7 +7993,7 @@
         <v>271</v>
       </c>
       <c r="B87" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -7944,15 +8002,15 @@
         <v>131</v>
       </c>
       <c r="F87" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B88" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -7961,15 +8019,15 @@
         <v>131</v>
       </c>
       <c r="F88" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B89" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -7978,15 +8036,15 @@
         <v>131</v>
       </c>
       <c r="F89" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B90" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -7995,15 +8053,15 @@
         <v>131</v>
       </c>
       <c r="F90" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B91" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -8012,7 +8070,7 @@
         <v>131</v>
       </c>
       <c r="F91" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -8020,7 +8078,7 @@
         <v>252</v>
       </c>
       <c r="B92" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -8029,7 +8087,7 @@
         <v>-1</v>
       </c>
       <c r="F92" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -8037,7 +8095,7 @@
         <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -8046,7 +8104,7 @@
         <v>-1</v>
       </c>
       <c r="F93" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -8054,7 +8112,7 @@
         <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -8063,7 +8121,7 @@
         <v>-1</v>
       </c>
       <c r="F94" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -8071,7 +8129,7 @@
         <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -8080,7 +8138,7 @@
         <v>-1</v>
       </c>
       <c r="F95" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -8088,7 +8146,7 @@
         <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -8097,7 +8155,7 @@
         <v>-1</v>
       </c>
       <c r="F96" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -8105,7 +8163,7 @@
         <v>257</v>
       </c>
       <c r="B97" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -8114,7 +8172,7 @@
         <v>-1</v>
       </c>
       <c r="F97" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -8122,7 +8180,7 @@
         <v>258</v>
       </c>
       <c r="B98" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -8131,7 +8189,7 @@
         <v>-1</v>
       </c>
       <c r="F98" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -8139,7 +8197,7 @@
         <v>259</v>
       </c>
       <c r="B99" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -8148,7 +8206,7 @@
         <v>-1</v>
       </c>
       <c r="F99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -8156,7 +8214,7 @@
         <v>260</v>
       </c>
       <c r="B100" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -8165,7 +8223,7 @@
         <v>-1</v>
       </c>
       <c r="F100" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -8173,7 +8231,7 @@
         <v>261</v>
       </c>
       <c r="B101" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -8182,15 +8240,15 @@
         <v>-1</v>
       </c>
       <c r="F101" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B102" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -8199,15 +8257,15 @@
         <v>-1</v>
       </c>
       <c r="F102" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B103" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -8216,15 +8274,15 @@
         <v>-1</v>
       </c>
       <c r="F103" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B104" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -8233,15 +8291,15 @@
         <v>-1</v>
       </c>
       <c r="F104" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B105" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -8250,15 +8308,15 @@
         <v>-1</v>
       </c>
       <c r="F105" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B106" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -8267,15 +8325,15 @@
         <v>-1</v>
       </c>
       <c r="F106" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B107" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -8284,15 +8342,15 @@
         <v>-1</v>
       </c>
       <c r="F107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B108" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -8301,15 +8359,15 @@
         <v>-1</v>
       </c>
       <c r="F108" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B109" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -8318,7 +8376,7 @@
         <v>-1</v>
       </c>
       <c r="F109" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -8720,10 +8778,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B133" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C133" t="s">
         <v>363</v>
@@ -8737,10 +8795,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B134" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C134" t="s">
         <v>363</v>
@@ -8754,10 +8812,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B135" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C135" t="s">
         <v>363</v>
@@ -8771,10 +8829,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B136" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C136" t="s">
         <v>363</v>
@@ -8802,10 +8860,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B138" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C138" t="s">
         <v>3</v>
@@ -8814,15 +8872,15 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>693</v>
+      </c>
+      <c r="B139" t="s">
         <v>694</v>
-      </c>
-      <c r="B139" t="s">
-        <v>695</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
@@ -8834,15 +8892,15 @@
         <v>133</v>
       </c>
       <c r="F139" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>773</v>
+      </c>
+      <c r="B140" t="s">
         <v>774</v>
-      </c>
-      <c r="B140" t="s">
-        <v>775</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
@@ -8854,15 +8912,15 @@
         <v>133</v>
       </c>
       <c r="F140" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>775</v>
+      </c>
+      <c r="B141" t="s">
         <v>776</v>
-      </c>
-      <c r="B141" t="s">
-        <v>777</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
@@ -8874,15 +8932,15 @@
         <v>133</v>
       </c>
       <c r="F141" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>778</v>
+      </c>
+      <c r="B142" t="s">
         <v>779</v>
-      </c>
-      <c r="B142" t="s">
-        <v>780</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
@@ -8894,55 +8952,55 @@
         <v>133</v>
       </c>
       <c r="F142" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>926</v>
+      </c>
+      <c r="B143" t="s">
         <v>927</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>133</v>
+      </c>
+      <c r="F143" t="s">
         <v>928</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143" t="s">
-        <v>133</v>
-      </c>
-      <c r="F143" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>783</v>
+      </c>
+      <c r="B144" t="s">
         <v>784</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>785</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>786</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
+        <v>133</v>
+      </c>
+      <c r="F144" t="s">
         <v>787</v>
-      </c>
-      <c r="E144" t="s">
-        <v>133</v>
-      </c>
-      <c r="F144" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>884</v>
+      </c>
+      <c r="B145" t="s">
         <v>885</v>
-      </c>
-      <c r="B145" t="s">
-        <v>886</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
@@ -8954,15 +9012,15 @@
         <v>133</v>
       </c>
       <c r="F145" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>896</v>
+      </c>
+      <c r="B146" t="s">
         <v>897</v>
-      </c>
-      <c r="B146" t="s">
-        <v>898</v>
       </c>
       <c r="C146" t="s">
         <v>3</v>
@@ -8974,140 +9032,140 @@
         <v>133</v>
       </c>
       <c r="F146" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B147" t="s">
         <v>411</v>
       </c>
       <c r="C147" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D147" t="s">
         <v>491</v>
       </c>
-      <c r="D147" t="s">
-        <v>492</v>
-      </c>
       <c r="E147" t="s">
         <v>133</v>
       </c>
       <c r="F147" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B148" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C148" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D148" t="s">
         <v>491</v>
       </c>
-      <c r="D148" t="s">
-        <v>492</v>
-      </c>
       <c r="E148" t="s">
         <v>133</v>
       </c>
       <c r="F148" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B149" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C149" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D149" t="s">
         <v>491</v>
       </c>
-      <c r="D149" t="s">
-        <v>492</v>
-      </c>
       <c r="F149" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>709</v>
+      </c>
+      <c r="B150" t="s">
+        <v>713</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="B150" t="s">
-        <v>714</v>
-      </c>
-      <c r="C150" s="8" t="s">
+      <c r="D150" t="s">
         <v>711</v>
       </c>
-      <c r="D150" t="s">
+      <c r="F150" t="s">
         <v>712</v>
-      </c>
-      <c r="F150" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B151" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C151" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D151" t="s">
         <v>491</v>
       </c>
-      <c r="D151" t="s">
-        <v>492</v>
-      </c>
       <c r="F151" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>650</v>
+      </c>
+      <c r="B152" t="s">
         <v>651</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
+        <v>492</v>
+      </c>
+      <c r="D152" t="s">
+        <v>493</v>
+      </c>
+      <c r="F152" t="s">
         <v>652</v>
-      </c>
-      <c r="C152" t="s">
-        <v>493</v>
-      </c>
-      <c r="D152" t="s">
-        <v>494</v>
-      </c>
-      <c r="F152" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>911</v>
+      </c>
+      <c r="B153" t="s">
         <v>912</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D153" t="s">
+        <v>491</v>
+      </c>
+      <c r="F153" t="s">
         <v>913</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D153" t="s">
-        <v>492</v>
-      </c>
-      <c r="F153" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B154" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -9119,15 +9177,15 @@
         <v>133</v>
       </c>
       <c r="F154" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B155" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>11</v>
@@ -9139,15 +9197,15 @@
         <v>133</v>
       </c>
       <c r="F155" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B156" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>11</v>
@@ -9159,15 +9217,15 @@
         <v>133</v>
       </c>
       <c r="F156" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B157" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>11</v>
@@ -9179,15 +9237,15 @@
         <v>133</v>
       </c>
       <c r="F157" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B158" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>11</v>
@@ -9199,15 +9257,15 @@
         <v>133</v>
       </c>
       <c r="F158" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>791</v>
+      </c>
+      <c r="B159" t="s">
         <v>792</v>
-      </c>
-      <c r="B159" t="s">
-        <v>793</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -9219,15 +9277,15 @@
         <v>133</v>
       </c>
       <c r="F159" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B160" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -9239,15 +9297,15 @@
         <v>133</v>
       </c>
       <c r="F160" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B161" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -9259,15 +9317,15 @@
         <v>133</v>
       </c>
       <c r="F161" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B162" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>11</v>
@@ -9279,49 +9337,49 @@
         <v>133</v>
       </c>
       <c r="F162" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B163" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C163" t="s">
+        <v>492</v>
+      </c>
+      <c r="D163" t="s">
         <v>493</v>
       </c>
-      <c r="D163" t="s">
-        <v>494</v>
-      </c>
       <c r="F163" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B164" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C164" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D164" t="s">
         <v>491</v>
       </c>
-      <c r="D164" t="s">
-        <v>492</v>
-      </c>
       <c r="F164" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B165" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>11</v>
@@ -9333,15 +9391,15 @@
         <v>133</v>
       </c>
       <c r="F165" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B166" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>11</v>
@@ -9353,15 +9411,15 @@
         <v>133</v>
       </c>
       <c r="F166" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B167" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>11</v>
@@ -9373,15 +9431,15 @@
         <v>133</v>
       </c>
       <c r="F167" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B168" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -9390,15 +9448,15 @@
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B169" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -9407,21 +9465,21 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B170" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C170" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D170" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="F170" t="s">
         <v>223</v>
@@ -9429,16 +9487,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B171" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C171" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D171" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="F171" t="s">
         <v>222</v>
@@ -9446,16 +9504,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B172" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C172" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D172" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="F172" t="s">
         <v>224</v>
@@ -9463,16 +9521,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B173" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C173" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="F173" t="s">
         <v>225</v>
@@ -9480,186 +9538,186 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B174" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C174" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D174" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F174" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B175" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C175" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D175" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D175" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F175" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B176" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C176" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D176" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F176" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B177" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C177" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D177" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F177" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B178" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C178" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D178" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D178" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F178" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B179" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C179" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D179" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F179" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B180" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C180" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D180" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D180" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F180" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B181" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C181" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D181" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F181" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B182" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C182" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D182" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F182" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B183" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C183" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D183" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D183" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="F183" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B184" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C184" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D184" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="E184" t="s">
         <v>133</v>
@@ -9670,16 +9728,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B185" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C185" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D185" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="E185" t="s">
         <v>133</v>
@@ -9690,16 +9748,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B186" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C186" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D186" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="E186" t="s">
         <v>133</v>
@@ -9710,10 +9768,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B187" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>11</v>
@@ -9722,15 +9780,15 @@
         <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B188" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>11</v>
@@ -9739,15 +9797,15 @@
         <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B189" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>11</v>
@@ -9756,15 +9814,15 @@
         <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B190" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>2</v>
@@ -9773,15 +9831,15 @@
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B191" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>11</v>
@@ -9790,15 +9848,15 @@
         <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B192" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>2</v>
@@ -9810,35 +9868,35 @@
         <v>133</v>
       </c>
       <c r="F192" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>721</v>
+      </c>
+      <c r="B193" t="s">
+        <v>763</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="D193" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="B193" t="s">
-        <v>764</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="D193" s="7" t="s">
+      <c r="E193" t="s">
+        <v>133</v>
+      </c>
+      <c r="F193" t="s">
         <v>723</v>
-      </c>
-      <c r="E193" t="s">
-        <v>133</v>
-      </c>
-      <c r="F193" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>767</v>
+      </c>
+      <c r="B194" t="s">
         <v>768</v>
-      </c>
-      <c r="B194" t="s">
-        <v>769</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>1</v>
@@ -9850,15 +9908,15 @@
         <v>133</v>
       </c>
       <c r="F194" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>770</v>
+      </c>
+      <c r="B195" t="s">
         <v>771</v>
-      </c>
-      <c r="B195" t="s">
-        <v>772</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>11</v>
@@ -9870,255 +9928,255 @@
         <v>133</v>
       </c>
       <c r="F195" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>780</v>
+      </c>
+      <c r="B196" t="s">
         <v>781</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E196" t="s">
+        <v>133</v>
+      </c>
+      <c r="F196" t="s">
         <v>782</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="E196" t="s">
-        <v>133</v>
-      </c>
-      <c r="F196" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B197" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C197" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D197" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D197" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E197" t="s">
         <v>133</v>
       </c>
       <c r="F197" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B198" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C198" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D198" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D198" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E198" t="s">
         <v>133</v>
       </c>
       <c r="F198" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B199" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C199" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D199" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D199" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E199" t="s">
         <v>133</v>
       </c>
       <c r="F199" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B200" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C200" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D200" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D200" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E200" t="s">
         <v>133</v>
       </c>
       <c r="F200" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B201" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C201" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D201" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D201" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E201" t="s">
         <v>133</v>
       </c>
       <c r="F201" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B202" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C202" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D202" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E202" t="s">
         <v>133</v>
       </c>
       <c r="F202" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B203" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C203" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D203" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E203" t="s">
         <v>133</v>
       </c>
       <c r="F203" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B204" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C204" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D204" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E204" t="s">
         <v>133</v>
       </c>
       <c r="F204" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>819</v>
+      </c>
+      <c r="B205" t="s">
         <v>820</v>
       </c>
-      <c r="B205" t="s">
-        <v>821</v>
-      </c>
       <c r="C205" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D205" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D205" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="E205" t="s">
         <v>133</v>
       </c>
       <c r="F205" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>890</v>
+      </c>
+      <c r="B206" t="s">
         <v>891</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E206" t="s">
+        <v>133</v>
+      </c>
+      <c r="F206" t="s">
         <v>892</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="E206" t="s">
-        <v>133</v>
-      </c>
-      <c r="F206" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>893</v>
+      </c>
+      <c r="B207" t="s">
         <v>894</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E207" t="s">
+        <v>133</v>
+      </c>
+      <c r="F207" t="s">
         <v>895</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="E207" t="s">
-        <v>133</v>
-      </c>
-      <c r="F207" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>908</v>
+      </c>
+      <c r="B208" t="s">
         <v>909</v>
-      </c>
-      <c r="B208" t="s">
-        <v>910</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>2</v>
@@ -10130,55 +10188,55 @@
         <v>133</v>
       </c>
       <c r="F208" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>914</v>
+      </c>
+      <c r="B209" t="s">
         <v>915</v>
       </c>
-      <c r="B209" t="s">
-        <v>916</v>
-      </c>
       <c r="C209" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D209" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D209" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E209" t="s">
         <v>133</v>
       </c>
       <c r="F209" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>916</v>
+      </c>
+      <c r="B210" t="s">
         <v>917</v>
       </c>
-      <c r="B210" t="s">
-        <v>918</v>
-      </c>
       <c r="C210" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D210" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D210" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="E210" t="s">
         <v>133</v>
       </c>
       <c r="F210" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B211" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>11</v>
@@ -10190,35 +10248,35 @@
         <v>133</v>
       </c>
       <c r="F211" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B212" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E212" t="s">
         <v>133</v>
       </c>
       <c r="F212" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B213" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>363</v>
@@ -10230,15 +10288,15 @@
         <v>133</v>
       </c>
       <c r="F213" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B214" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>363</v>
@@ -10250,15 +10308,15 @@
         <v>133</v>
       </c>
       <c r="F214" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B215" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>363</v>
@@ -10270,15 +10328,15 @@
         <v>133</v>
       </c>
       <c r="F215" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B216" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>363</v>
@@ -10290,7 +10348,27 @@
         <v>133</v>
       </c>
       <c r="F216" t="s">
-        <v>946</v>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>963</v>
+      </c>
+      <c r="B217" t="s">
+        <v>962</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="E217" t="s">
+        <v>133</v>
+      </c>
+      <c r="F217" t="s">
+        <v>964</v>
       </c>
     </row>
   </sheetData>
@@ -10332,7 +10410,7 @@
         <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10903,7 +10981,7 @@
         <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
